--- a/colloscope.xlsx
+++ b/colloscope.xlsx
@@ -2,46 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groupes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Colloscope S1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Colloscope S2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh\:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -52,8 +38,6 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
-      <family val="0"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
@@ -84,7 +68,6 @@
     <font>
       <name val="Calibri (Corps)"/>
       <charset val="1"/>
-      <family val="0"/>
       <b val="1"/>
       <color rgb="FF104862"/>
       <sz val="10"/>
@@ -108,7 +91,6 @@
     <font>
       <name val="Calibri (Corps)"/>
       <charset val="1"/>
-      <family val="0"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
       <sz val="10"/>
@@ -174,6 +156,31 @@
       <color rgb="FF084F6B"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FF800080"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FF00A933"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FFFF4000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -207,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -216,563 +223,392 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="161">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -831,6 +667,14 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF084F6B"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1121,3457 +965,7296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A4:O18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
     <col width="22" customWidth="1" style="80" min="2" max="2"/>
-    <col width="11.83" customWidth="1" style="80" min="3" max="3"/>
-    <col width="23.33" customWidth="1" style="80" min="6" max="6"/>
-    <col width="13.67" customWidth="1" style="80" min="10" max="10"/>
-    <col width="21.33" customWidth="1" style="80" min="14" max="14"/>
+    <col width="11.83203125" customWidth="1" style="80" min="3" max="3"/>
+    <col width="23.33203125" customWidth="1" style="80" min="6" max="6"/>
+    <col width="13.6640625" customWidth="1" style="80" min="10" max="10"/>
+    <col width="21.33203125" customWidth="1" style="80" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15.75" customHeight="1" s="81">
-      <c r="B4" s="82" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="80">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BERTHONNEAU--DUTAIX</t>
         </is>
       </c>
-      <c r="C4" s="82" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Loïc</t>
         </is>
       </c>
-      <c r="F4" s="82" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>BENOIS</t>
         </is>
       </c>
-      <c r="G4" s="82" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>Olga</t>
         </is>
       </c>
-      <c r="J4" s="83" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>JOUBLOT</t>
         </is>
       </c>
-      <c r="K4" s="82" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>Léopold</t>
         </is>
       </c>
-      <c r="N4" s="82" t="inlineStr">
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>PINSON ABGRALL</t>
         </is>
       </c>
-      <c r="O4" s="82" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>Titouan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="81">
-      <c r="A5" s="84" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="80">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Groupe 1</t>
         </is>
       </c>
-      <c r="B5" s="82" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>CHAMBOLLE</t>
         </is>
       </c>
-      <c r="C5" s="82" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Hugo</t>
         </is>
       </c>
-      <c r="E5" s="84" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Groupe 5</t>
         </is>
       </c>
-      <c r="F5" s="82" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>BOCQUET--FERMIGIER</t>
         </is>
       </c>
-      <c r="G5" s="82" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>Paul</t>
         </is>
       </c>
-      <c r="I5" s="84" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Groupe 9</t>
         </is>
       </c>
-      <c r="J5" s="82" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>KARR--DUCCI</t>
         </is>
       </c>
-      <c r="K5" s="82" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>Matteo</t>
         </is>
       </c>
-      <c r="M5" s="84" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>Groupe 13</t>
         </is>
       </c>
-      <c r="N5" s="82" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>RAKOTOHARILALAO</t>
         </is>
       </c>
-      <c r="O5" s="82" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>Tsiory</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="81">
-      <c r="A6" s="84" t="n"/>
-      <c r="B6" s="82" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="80">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>LAROSE MASSON</t>
         </is>
       </c>
-      <c r="C6" s="82" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="E6" s="84" t="n"/>
-      <c r="F6" s="82" t="inlineStr">
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>BORDES</t>
         </is>
       </c>
-      <c r="G6" s="82" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>Kenza</t>
         </is>
       </c>
-      <c r="I6" s="84" t="n"/>
-      <c r="J6" s="82" t="inlineStr">
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>KEMACHE</t>
         </is>
       </c>
-      <c r="K6" s="82" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>Célia</t>
         </is>
       </c>
-      <c r="M6" s="84" t="n"/>
-      <c r="N6" s="82" t="inlineStr">
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>SACQUIN-MORA</t>
         </is>
       </c>
-      <c r="O6" s="82" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>Esther</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="81">
-      <c r="A7" s="84" t="n"/>
-      <c r="E7" s="84" t="n"/>
-      <c r="I7" s="84" t="n"/>
-      <c r="M7" s="84" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="81">
-      <c r="A8" s="84" t="n"/>
-      <c r="B8" s="82" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="80">
+      <c r="A7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="80">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>LE DEVEHAT</t>
         </is>
       </c>
-      <c r="C8" s="82" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Matheo</t>
         </is>
       </c>
-      <c r="E8" s="84" t="n"/>
-      <c r="F8" s="82" t="inlineStr">
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>BRAY</t>
         </is>
       </c>
-      <c r="G8" s="82" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>Louan</t>
         </is>
       </c>
-      <c r="I8" s="84" t="n"/>
-      <c r="J8" s="82" t="inlineStr">
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>KESKES</t>
         </is>
       </c>
-      <c r="K8" s="82" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
         <is>
           <t>Esma</t>
         </is>
       </c>
-      <c r="M8" s="84" t="n"/>
-      <c r="N8" s="82" t="inlineStr">
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t>FERREIRA</t>
         </is>
       </c>
-      <c r="O8" s="82" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
         <is>
           <t>Dylan</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="81">
-      <c r="A9" s="84" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="80">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Groupe 2</t>
         </is>
       </c>
-      <c r="B9" s="82" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>KEENE</t>
         </is>
       </c>
-      <c r="C9" s="82" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E9" s="84" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe 6 </t>
         </is>
       </c>
-      <c r="F9" s="82" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="G9" s="82" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>Matisse</t>
         </is>
       </c>
-      <c r="I9" s="84" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Groupe 10</t>
         </is>
       </c>
-      <c r="J9" s="82" t="inlineStr">
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>SECOUARD</t>
         </is>
       </c>
-      <c r="K9" s="82" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>Lucie</t>
         </is>
       </c>
-      <c r="M9" s="84" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>Groupe 14</t>
         </is>
       </c>
-      <c r="N9" s="82" t="inlineStr">
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>RICOUART</t>
         </is>
       </c>
-      <c r="O9" s="82" t="inlineStr">
+      <c r="O9" s="1" t="inlineStr">
         <is>
           <t>Clovis</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="81">
-      <c r="A10" s="84" t="n"/>
-      <c r="B10" s="82" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="80">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>RASLANE</t>
         </is>
       </c>
-      <c r="C10" s="82" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Nayad</t>
         </is>
       </c>
-      <c r="E10" s="84" t="n"/>
-      <c r="F10" s="82" t="inlineStr">
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>COMBO</t>
         </is>
       </c>
-      <c r="G10" s="83" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Lindsay</t>
         </is>
       </c>
-      <c r="I10" s="84" t="n"/>
-      <c r="J10" s="82" t="inlineStr">
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>LANCELIN</t>
         </is>
       </c>
-      <c r="K10" s="82" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
         <is>
           <t>Simon</t>
         </is>
       </c>
-      <c r="M10" s="84" t="n"/>
-      <c r="N10" s="82" t="inlineStr">
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t>SEKALI</t>
         </is>
       </c>
-      <c r="O10" s="82" t="inlineStr">
+      <c r="O10" s="1" t="inlineStr">
         <is>
           <t>Aymène</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="81">
-      <c r="A11" s="84" t="n"/>
-      <c r="E11" s="84" t="n"/>
-      <c r="I11" s="84" t="n"/>
-      <c r="M11" s="84" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="81">
-      <c r="A12" s="84" t="n"/>
-      <c r="B12" s="82" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="80">
+      <c r="A11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="80">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>BOISSELLE</t>
         </is>
       </c>
-      <c r="C12" s="82" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Louis</t>
         </is>
       </c>
-      <c r="E12" s="84" t="n"/>
-      <c r="F12" s="82" t="inlineStr">
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>COSNEFROY</t>
         </is>
       </c>
-      <c r="G12" s="82" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>Samy</t>
         </is>
       </c>
-      <c r="I12" s="84" t="n"/>
-      <c r="J12" s="82" t="inlineStr">
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>LAURENT</t>
         </is>
       </c>
-      <c r="K12" s="82" t="inlineStr">
+      <c r="K12" s="1" t="inlineStr">
         <is>
           <t>Charlie</t>
         </is>
       </c>
-      <c r="M12" s="84" t="n"/>
-      <c r="N12" s="82" t="inlineStr">
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="1" t="inlineStr">
         <is>
           <t>TRISTANT-LEGALLAIS</t>
         </is>
       </c>
-      <c r="O12" s="82" t="inlineStr">
+      <c r="O12" s="1" t="inlineStr">
         <is>
           <t>Grégoire</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="81">
-      <c r="A13" s="84" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="80">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Groupe 3</t>
         </is>
       </c>
-      <c r="B13" s="82" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>ISCHAN</t>
         </is>
       </c>
-      <c r="C13" s="82" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E13" s="84" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Groupe 7</t>
         </is>
       </c>
-      <c r="F13" s="82" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>DAHIMENE</t>
         </is>
       </c>
-      <c r="G13" s="82" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>Younes</t>
         </is>
       </c>
-      <c r="I13" s="84" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>Groupe 11</t>
         </is>
       </c>
-      <c r="J13" s="82" t="inlineStr">
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>LOYAT</t>
         </is>
       </c>
-      <c r="K13" s="82" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
         <is>
           <t>Antonin</t>
         </is>
       </c>
-      <c r="M13" s="84" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>Groupe 15</t>
         </is>
       </c>
-      <c r="N13" s="82" t="inlineStr">
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t>VAZEILLE</t>
         </is>
       </c>
-      <c r="O13" s="82" t="inlineStr">
+      <c r="O13" s="1" t="inlineStr">
         <is>
           <t>Robin</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="81">
-      <c r="A14" s="84" t="n"/>
-      <c r="B14" s="82" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="80">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>MAEZE-SANGWA</t>
         </is>
       </c>
-      <c r="C14" s="82" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Djoss</t>
         </is>
       </c>
-      <c r="E14" s="84" t="n"/>
-      <c r="F14" s="82" t="inlineStr">
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>DAI</t>
         </is>
       </c>
-      <c r="G14" s="82" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>Simon</t>
         </is>
       </c>
-      <c r="I14" s="84" t="n"/>
-      <c r="J14" s="82" t="inlineStr">
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>MARDAY</t>
         </is>
       </c>
-      <c r="K14" s="82" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>Téa</t>
         </is>
       </c>
-      <c r="M14" s="84" t="n"/>
-      <c r="N14" s="82" t="inlineStr">
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>WANG</t>
         </is>
       </c>
-      <c r="O14" s="82" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
         <is>
           <t>Igor</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="81">
-      <c r="A15" s="84" t="n"/>
-      <c r="E15" s="84" t="n"/>
-      <c r="I15" s="84" t="n"/>
-      <c r="M15" s="84" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="81">
-      <c r="A16" s="84" t="n"/>
-      <c r="B16" s="82" t="inlineStr">
+    <row r="15" ht="15.75" customHeight="1" s="80">
+      <c r="A15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="80">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>MEYNADIER--ANGONIN</t>
         </is>
       </c>
-      <c r="C16" s="82" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Cyril</t>
         </is>
       </c>
-      <c r="E16" s="84" t="n"/>
-      <c r="F16" s="82" t="inlineStr">
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>RIMBERT</t>
         </is>
       </c>
-      <c r="G16" s="82" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>Théo</t>
         </is>
       </c>
-      <c r="I16" s="84" t="n"/>
-      <c r="J16" s="82" t="inlineStr">
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="1" t="inlineStr">
         <is>
           <t>MAUFOUX</t>
         </is>
       </c>
-      <c r="K16" s="82" t="inlineStr">
+      <c r="K16" s="1" t="inlineStr">
         <is>
           <t>Sarah</t>
         </is>
       </c>
-      <c r="M16" s="84" t="n"/>
-      <c r="N16" s="82" t="inlineStr">
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="1" t="inlineStr">
         <is>
           <t>WURTZ</t>
         </is>
       </c>
-      <c r="O16" s="82" t="inlineStr">
+      <c r="O16" s="1" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="81">
-      <c r="A17" s="84" t="inlineStr">
+    <row r="17" ht="15.75" customHeight="1" s="80">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Groupe 4</t>
         </is>
       </c>
-      <c r="B17" s="82" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>POLONSKA</t>
         </is>
       </c>
-      <c r="C17" s="82" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Sofia</t>
         </is>
       </c>
-      <c r="E17" s="84" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Groupe 8</t>
         </is>
       </c>
-      <c r="F17" s="82" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>GOALES</t>
         </is>
       </c>
-      <c r="G17" s="82" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>Idriss</t>
         </is>
       </c>
-      <c r="I17" s="84" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>Groupe 12</t>
         </is>
       </c>
-      <c r="J17" s="82" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>MONJOLY</t>
         </is>
       </c>
-      <c r="K17" s="82" t="inlineStr">
+      <c r="K17" s="1" t="inlineStr">
         <is>
           <t>Césaire</t>
         </is>
       </c>
-      <c r="M17" s="84" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>Groupe 16</t>
         </is>
       </c>
-      <c r="N17" s="82" t="inlineStr">
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>YI</t>
         </is>
       </c>
-      <c r="O17" s="82" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="81">
-      <c r="B18" s="82" t="inlineStr">
+    <row r="18" ht="15.75" customHeight="1" s="80">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>LAMRANI</t>
         </is>
       </c>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Nizar</t>
         </is>
       </c>
-      <c r="F18" s="82" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>INGLESE</t>
         </is>
       </c>
-      <c r="G18" s="82" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>Léane</t>
         </is>
       </c>
-      <c r="I18" s="84" t="n"/>
-      <c r="J18" s="82" t="inlineStr">
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>OBERT</t>
         </is>
       </c>
-      <c r="K18" s="82" t="inlineStr">
+      <c r="K18" s="1" t="inlineStr">
         <is>
           <t>Gaspard</t>
         </is>
       </c>
-      <c r="N18" s="82" t="inlineStr">
+      <c r="N18" s="1" t="inlineStr">
         <is>
           <t>N'GBESSO</t>
         </is>
       </c>
-      <c r="O18" s="82" t="inlineStr">
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>Sarah</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col width="13.67" customWidth="1" style="80" min="2" max="2"/>
+    <col width="13.6640625" customWidth="1" style="80" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="81">
-      <c r="A1" s="85" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="80">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Saint-Louis</t>
         </is>
       </c>
-      <c r="B1" s="86" t="n"/>
-      <c r="C1" s="87" t="n"/>
-      <c r="D1" s="87" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="79" t="inlineStr">
         <is>
           <t>COLLOSCOPE MP2I 2024-2025</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="81">
-      <c r="A2" s="90" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="80">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>2024-2025</t>
         </is>
       </c>
-      <c r="B2" s="86" t="n"/>
-      <c r="C2" s="87" t="n"/>
-      <c r="D2" s="87" t="n"/>
-      <c r="E2" s="88" t="n"/>
-      <c r="F2" s="87" t="n"/>
-      <c r="G2" s="87" t="n"/>
-      <c r="H2" s="87" t="n"/>
-      <c r="I2" s="87" t="n"/>
-      <c r="J2" s="87" t="n"/>
-      <c r="K2" s="87" t="n"/>
-      <c r="L2" s="87" t="n"/>
-      <c r="M2" s="87" t="n"/>
-      <c r="N2" s="87" t="n"/>
-      <c r="O2" s="87" t="n"/>
-      <c r="P2" s="87" t="n"/>
-      <c r="Q2" s="87" t="n"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="81">
-      <c r="A3" s="85" t="inlineStr">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="80">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>MP2I</t>
         </is>
       </c>
-      <c r="B3" s="86" t="n"/>
-      <c r="C3" s="87" t="n"/>
-      <c r="D3" s="87" t="n"/>
-      <c r="E3" s="91" t="inlineStr">
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>Semaine n°</t>
         </is>
       </c>
-      <c r="F3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="93" t="n">
+      <c r="F3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="94" t="n">
+      <c r="H3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="93" t="n">
+      <c r="I3" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="94" t="n">
+      <c r="J3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="93" t="n">
+      <c r="K3" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L3" s="95" t="n">
+      <c r="L3" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="M3" s="93" t="n">
+      <c r="M3" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="N3" s="94" t="n">
+      <c r="N3" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="O3" s="93" t="n"/>
-      <c r="P3" s="96" t="n">
+      <c r="O3" s="11" t="n"/>
+      <c r="P3" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="Q3" s="93" t="n">
+      <c r="Q3" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="R3" s="94" t="n">
+      <c r="R3" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="S3" s="93" t="n">
+      <c r="S3" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="T3" s="94" t="n">
+      <c r="T3" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="U3" s="93" t="n">
+      <c r="U3" s="11" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" s="81">
-      <c r="A4" s="97" t="n"/>
-      <c r="B4" s="98" t="n"/>
-      <c r="C4" s="87" t="n"/>
-      <c r="D4" s="87" t="n"/>
-      <c r="E4" s="87" t="n"/>
-      <c r="F4" s="99" t="inlineStr">
+    <row r="4" ht="30" customHeight="1" s="80">
+      <c r="A4" s="15" t="n"/>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="17" t="inlineStr">
         <is>
           <t>Du 16/09 au 21/09</t>
         </is>
       </c>
-      <c r="G4" s="99" t="inlineStr">
+      <c r="G4" s="17" t="inlineStr">
         <is>
           <t>Du 23/09 au 28/09</t>
         </is>
       </c>
-      <c r="H4" s="99" t="inlineStr">
+      <c r="H4" s="17" t="inlineStr">
         <is>
           <t>Du 30/09 au 05/10</t>
         </is>
       </c>
-      <c r="I4" s="99" t="inlineStr">
+      <c r="I4" s="17" t="inlineStr">
         <is>
           <t>Du 07/10 au 12/10</t>
         </is>
       </c>
-      <c r="J4" s="99" t="inlineStr">
+      <c r="J4" s="17" t="inlineStr">
         <is>
           <t>Du 14/10 au 19/10</t>
         </is>
       </c>
-      <c r="K4" s="99" t="inlineStr">
+      <c r="K4" s="17" t="inlineStr">
         <is>
           <t>Du 04/11 au 09/11</t>
         </is>
       </c>
-      <c r="L4" s="99" t="inlineStr">
+      <c r="L4" s="17" t="inlineStr">
         <is>
           <t>Du 11/11 au 16/11</t>
         </is>
       </c>
-      <c r="M4" s="99" t="inlineStr">
+      <c r="M4" s="17" t="inlineStr">
         <is>
           <t>Du 18/11 au 23/11</t>
         </is>
       </c>
-      <c r="N4" s="99" t="inlineStr">
+      <c r="N4" s="17" t="inlineStr">
         <is>
           <t>Du 25/11 au 30/11</t>
         </is>
       </c>
-      <c r="O4" s="99" t="inlineStr">
+      <c r="O4" s="17" t="inlineStr">
         <is>
           <t>Du 02/12 au 07/12</t>
         </is>
       </c>
-      <c r="P4" s="100" t="inlineStr">
+      <c r="P4" s="18" t="inlineStr">
         <is>
           <t>Du 09/12 au 14/12</t>
         </is>
       </c>
-      <c r="Q4" s="101" t="inlineStr">
+      <c r="Q4" s="19" t="inlineStr">
         <is>
           <t>Du 16/12 au 21/12</t>
         </is>
       </c>
-      <c r="R4" s="101" t="inlineStr">
+      <c r="R4" s="19" t="inlineStr">
         <is>
           <t>Du 06/01 au 11/01</t>
         </is>
       </c>
-      <c r="S4" s="101" t="inlineStr">
+      <c r="S4" s="19" t="inlineStr">
         <is>
           <t>Du 13/01 au 18/01</t>
         </is>
       </c>
-      <c r="T4" s="101" t="inlineStr">
+      <c r="T4" s="19" t="inlineStr">
         <is>
           <t>Du 20/01 au 25/01</t>
         </is>
       </c>
-      <c r="U4" s="101" t="inlineStr">
+      <c r="U4" s="19" t="inlineStr">
         <is>
           <t>Du 27/01 au 01/02</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="81">
-      <c r="A5" s="85" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="80">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Matière</t>
         </is>
       </c>
-      <c r="B5" s="102" t="inlineStr">
+      <c r="B5" s="20" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
       </c>
-      <c r="C5" s="95" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>Jour</t>
         </is>
       </c>
-      <c r="D5" s="95" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Heure </t>
         </is>
       </c>
-      <c r="E5" s="103" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>Salle</t>
         </is>
       </c>
-      <c r="F5" s="104" t="inlineStr">
+      <c r="F5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G5" s="104" t="inlineStr">
+      <c r="G5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H5" s="104" t="inlineStr">
+      <c r="H5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I5" s="104" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J5" s="104" t="inlineStr">
+      <c r="J5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="K5" s="104" t="inlineStr">
+      <c r="K5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="L5" s="104" t="inlineStr">
+      <c r="L5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="M5" s="104" t="inlineStr">
+      <c r="M5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="N5" s="104" t="inlineStr">
+      <c r="N5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="O5" s="104" t="inlineStr">
+      <c r="O5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="P5" s="105" t="inlineStr">
+      <c r="P5" s="23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Q5" s="104" t="inlineStr">
+      <c r="Q5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="R5" s="104" t="inlineStr">
+      <c r="R5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S5" s="104" t="inlineStr">
+      <c r="S5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T5" s="104" t="inlineStr">
+      <c r="T5" s="22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="U5" s="104" t="inlineStr">
+      <c r="U5" s="22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="81">
-      <c r="A6" s="106" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="80">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B6" s="106" t="inlineStr">
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>M. Bouverot</t>
         </is>
       </c>
-      <c r="C6" s="107" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D6" s="108" t="inlineStr">
+      <c r="D6" s="26" t="inlineStr">
         <is>
           <t>14h-15h</t>
         </is>
       </c>
-      <c r="E6" s="109" t="inlineStr">
+      <c r="E6" s="27" t="inlineStr">
         <is>
           <t>M103</t>
         </is>
       </c>
-      <c r="F6" s="110" t="n">
+      <c r="F6" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="G6" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="109" t="n">
+      <c r="G6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="109" t="n">
+      <c r="I6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="109" t="n">
+      <c r="J6" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="K6" s="109" t="n">
+      <c r="K6" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="L6" s="109" t="n">
+      <c r="L6" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="M6" s="109" t="n">
+      <c r="M6" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="109" t="n">
+      <c r="N6" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="O6" s="109" t="n">
+      <c r="O6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="P6" s="111" t="n">
+      <c r="P6" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="Q6" s="112" t="n">
+      <c r="Q6" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="112" t="n">
+      <c r="R6" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="S6" s="112" t="n">
+      <c r="S6" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="T6" s="112" t="n">
+      <c r="T6" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="U6" s="112" t="n">
+      <c r="U6" s="30" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="81">
-      <c r="A7" s="113" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="80">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B7" s="113" t="inlineStr">
+      <c r="B7" s="31" t="inlineStr">
         <is>
           <t>M. Gallic</t>
         </is>
       </c>
-      <c r="C7" s="109" t="inlineStr">
+      <c r="C7" s="27" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D7" s="108" t="inlineStr">
+      <c r="D7" s="26" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E7" s="109" t="inlineStr">
+      <c r="E7" s="27" t="inlineStr">
         <is>
           <t>C384</t>
         </is>
       </c>
-      <c r="F7" s="110" t="n">
+      <c r="F7" s="28" t="n">
         <v>12</v>
       </c>
-      <c r="G7" s="109" t="n">
+      <c r="G7" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="H7" s="109" t="n">
+      <c r="H7" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="I7" s="109" t="n">
+      <c r="I7" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="J7" s="109" t="n">
+      <c r="J7" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="K7" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="109" t="n">
+      <c r="K7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="109" t="n">
+      <c r="M7" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="109" t="n">
+      <c r="N7" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="O7" s="109" t="n">
+      <c r="O7" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="P7" s="111" t="n">
+      <c r="P7" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="112" t="n">
+      <c r="Q7" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="R7" s="112" t="n">
+      <c r="R7" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="S7" s="112" t="n">
+      <c r="S7" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="T7" s="112" t="n">
+      <c r="T7" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="U7" s="112" t="n">
+      <c r="U7" s="30" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="81">
-      <c r="A8" s="113" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="80">
+      <c r="A8" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B8" s="113" t="inlineStr">
+      <c r="B8" s="31" t="inlineStr">
         <is>
           <t>M. Gallic</t>
         </is>
       </c>
-      <c r="C8" s="109" t="inlineStr">
+      <c r="C8" s="27" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D8" s="108" t="inlineStr">
+      <c r="D8" s="26" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E8" s="109" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t>C384</t>
         </is>
       </c>
-      <c r="F8" s="110" t="n">
+      <c r="F8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="109" t="n">
+      <c r="G8" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="109" t="n">
+      <c r="H8" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="109" t="n">
+      <c r="I8" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="109" t="n">
+      <c r="J8" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K8" s="109" t="n">
+      <c r="K8" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="109" t="n">
+      <c r="L8" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="109" t="n">
+      <c r="M8" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="N8" s="109" t="n">
+      <c r="N8" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="O8" s="109" t="n">
+      <c r="O8" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="P8" s="111" t="n">
+      <c r="P8" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="Q8" s="112" t="n">
+      <c r="Q8" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="112" t="n">
+      <c r="R8" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="S8" s="112" t="n">
+      <c r="S8" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="T8" s="112" t="n">
+      <c r="T8" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="U8" s="112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="81">
-      <c r="A9" s="113" t="inlineStr">
+      <c r="U8" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="80">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B9" s="113" t="inlineStr">
+      <c r="B9" s="31" t="inlineStr">
         <is>
           <t>M. Pelletier</t>
         </is>
       </c>
-      <c r="C9" s="109" t="inlineStr">
+      <c r="C9" s="27" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D9" s="108" t="inlineStr">
+      <c r="D9" s="26" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E9" s="109" t="inlineStr">
+      <c r="E9" s="27" t="inlineStr">
         <is>
           <t>C396</t>
         </is>
       </c>
-      <c r="F9" s="110" t="n">
+      <c r="F9" s="28" t="n">
         <v>16</v>
       </c>
-      <c r="G9" s="109" t="n">
+      <c r="G9" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="H9" s="109" t="n">
+      <c r="H9" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="I9" s="109" t="n">
+      <c r="I9" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="J9" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="109" t="n">
+      <c r="J9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="L9" s="109" t="n">
+      <c r="L9" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="M9" s="109" t="n">
+      <c r="M9" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="109" t="n">
+      <c r="N9" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="O9" s="109" t="n">
+      <c r="O9" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="P9" s="111" t="n">
+      <c r="P9" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="Q9" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="112" t="n">
+      <c r="Q9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="S9" s="112" t="n">
+      <c r="S9" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="112" t="n">
+      <c r="T9" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="U9" s="112" t="n">
+      <c r="U9" s="30" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="81">
-      <c r="A10" s="113" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="80">
+      <c r="A10" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B10" s="113" t="inlineStr">
+      <c r="B10" s="31" t="inlineStr">
         <is>
           <t>Mme Lé-Nhu</t>
         </is>
       </c>
-      <c r="C10" s="109" t="inlineStr">
+      <c r="C10" s="27" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D10" s="108" t="inlineStr">
+      <c r="D10" s="26" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E10" s="109" t="inlineStr">
+      <c r="E10" s="27" t="inlineStr">
         <is>
           <t>C383</t>
         </is>
       </c>
-      <c r="F10" s="110" t="inlineStr">
+      <c r="F10" s="28" t="inlineStr">
         <is>
           <t>2 #</t>
         </is>
       </c>
-      <c r="G10" s="109" t="n">
+      <c r="G10" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="109" t="n">
+      <c r="H10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="109" t="n">
+      <c r="J10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="109" t="n">
+      <c r="K10" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="L10" s="109" t="n">
+      <c r="L10" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="M10" s="109" t="n">
+      <c r="M10" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="N10" s="109" t="n">
+      <c r="N10" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="O10" s="109" t="n">
+      <c r="O10" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="P10" s="111" t="n">
+      <c r="P10" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" s="112" t="n">
+      <c r="Q10" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="R10" s="112" t="n">
+      <c r="R10" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="S10" s="112" t="n">
+      <c r="S10" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="T10" s="112" t="n">
+      <c r="T10" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="U10" s="112" t="n">
+      <c r="U10" s="30" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="81">
-      <c r="A11" s="113" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="80">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B11" s="113" t="inlineStr">
+      <c r="B11" s="31" t="inlineStr">
         <is>
           <t>Mme Lé-Nhu</t>
         </is>
       </c>
-      <c r="C11" s="109" t="inlineStr">
+      <c r="C11" s="27" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D11" s="108" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E11" s="109" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
         <is>
           <t>C383</t>
         </is>
       </c>
-      <c r="F11" s="110" t="inlineStr">
+      <c r="F11" s="28" t="inlineStr">
         <is>
           <t>3#</t>
         </is>
       </c>
-      <c r="G11" s="109" t="n">
+      <c r="G11" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="109" t="n">
+      <c r="H11" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="109" t="n">
+      <c r="I11" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="109" t="n">
+      <c r="J11" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="109" t="n">
+      <c r="K11" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="109" t="n">
+      <c r="L11" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="109" t="n">
+      <c r="M11" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="N11" s="109" t="n">
+      <c r="N11" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="O11" s="109" t="n">
+      <c r="O11" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="P11" s="111" t="n">
+      <c r="P11" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" s="112" t="n">
+      <c r="Q11" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="R11" s="112" t="n">
+      <c r="R11" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="S11" s="112" t="n">
+      <c r="S11" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="112" t="n">
+      <c r="T11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="30" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="81">
-      <c r="A12" s="113" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="80">
+      <c r="A12" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B12" s="113" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>Mme Mullaert</t>
         </is>
       </c>
-      <c r="C12" s="109" t="inlineStr">
+      <c r="C12" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D12" s="108" t="inlineStr">
+      <c r="D12" s="26" t="inlineStr">
         <is>
           <t>14h-15h</t>
         </is>
       </c>
-      <c r="E12" s="109" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t>C381</t>
         </is>
       </c>
-      <c r="F12" s="110" t="n">
+      <c r="F12" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="G12" s="109" t="n">
+      <c r="G12" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="109" t="n">
+      <c r="H12" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="109" t="n">
+      <c r="I12" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="109" t="n">
+      <c r="J12" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="K12" s="109" t="n">
+      <c r="K12" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="L12" s="109" t="n">
+      <c r="L12" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="M12" s="109" t="n">
+      <c r="M12" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="N12" s="109" t="n">
+      <c r="N12" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="O12" s="109" t="n">
+      <c r="O12" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="P12" s="111" t="n">
+      <c r="P12" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="Q12" s="112" t="n">
+      <c r="Q12" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="R12" s="112" t="n">
+      <c r="R12" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="S12" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="112" t="n">
+      <c r="S12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="U12" s="112" t="n">
+      <c r="U12" s="30" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="81">
-      <c r="A13" s="113" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="80">
+      <c r="A13" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B13" s="113" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>Mme Mullaert</t>
         </is>
       </c>
-      <c r="C13" s="109" t="inlineStr">
+      <c r="C13" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D13" s="108" t="inlineStr">
+      <c r="D13" s="26" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E13" s="109" t="inlineStr">
+      <c r="E13" s="27" t="inlineStr">
         <is>
           <t>C381</t>
         </is>
       </c>
-      <c r="F13" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="109" t="n">
+      <c r="F13" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="H13" s="109" t="n">
+      <c r="H13" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="109" t="n">
+      <c r="I13" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="J13" s="109" t="n">
+      <c r="J13" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="109" t="n">
+      <c r="K13" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="L13" s="109" t="n">
+      <c r="L13" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="M13" s="109" t="n">
+      <c r="M13" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="N13" s="109" t="n">
+      <c r="N13" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="109" t="n">
+      <c r="O13" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="P13" s="111" t="n">
+      <c r="P13" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="Q13" s="112" t="n">
+      <c r="Q13" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="R13" s="112" t="n">
+      <c r="R13" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="S13" s="112" t="n">
+      <c r="S13" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="T13" s="112" t="n">
+      <c r="T13" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="U13" s="112" t="n">
+      <c r="U13" s="30" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="81">
-      <c r="A14" s="113" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="80">
+      <c r="A14" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B14" s="113" t="inlineStr">
+      <c r="B14" s="31" t="inlineStr">
         <is>
           <t>Mme Cissokho</t>
         </is>
       </c>
-      <c r="C14" s="109" t="inlineStr">
+      <c r="C14" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D14" s="108" t="inlineStr">
+      <c r="D14" s="26" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E14" s="109" t="inlineStr">
+      <c r="E14" s="27" t="inlineStr">
         <is>
           <t>C283</t>
         </is>
       </c>
-      <c r="F14" s="110" t="n">
+      <c r="F14" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="109" t="n">
+      <c r="G14" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="H14" s="109" t="n">
+      <c r="H14" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="I14" s="109" t="n">
+      <c r="I14" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="109" t="n">
+      <c r="J14" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="109" t="n">
+      <c r="K14" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="L14" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="109" t="n">
+      <c r="L14" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="N14" s="109" t="n">
+      <c r="N14" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="109" t="n">
+      <c r="O14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="P14" s="111" t="n">
+      <c r="P14" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="Q14" s="112" t="n">
+      <c r="Q14" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="R14" s="112" t="n">
+      <c r="R14" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="S14" s="112" t="n">
+      <c r="S14" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="T14" s="112" t="n">
+      <c r="T14" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="U14" s="112" t="n">
+      <c r="U14" s="30" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="81">
-      <c r="A15" s="113" t="inlineStr">
+    <row r="15" ht="15.75" customHeight="1" s="80">
+      <c r="A15" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B15" s="113" t="inlineStr">
+      <c r="B15" s="31" t="inlineStr">
         <is>
           <t>Mme Cissokho</t>
         </is>
       </c>
-      <c r="C15" s="109" t="inlineStr">
+      <c r="C15" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D15" s="108" t="inlineStr">
+      <c r="D15" s="26" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E15" s="109" t="inlineStr">
+      <c r="E15" s="27" t="inlineStr">
         <is>
           <t>C283</t>
         </is>
       </c>
-      <c r="F15" s="110" t="n">
+      <c r="F15" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="109" t="n">
+      <c r="G15" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="H15" s="109" t="n">
+      <c r="H15" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="I15" s="109" t="n">
+      <c r="I15" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="J15" s="109" t="n">
+      <c r="J15" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="K15" s="109" t="n">
+      <c r="K15" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="L15" s="109" t="n">
+      <c r="L15" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="M15" s="109" t="n">
+      <c r="M15" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="N15" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="109" t="n">
+      <c r="N15" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="P15" s="111" t="n">
+      <c r="P15" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" s="112" t="n">
+      <c r="Q15" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="R15" s="112" t="n">
+      <c r="R15" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="S15" s="112" t="n">
+      <c r="S15" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="T15" s="112" t="n">
+      <c r="T15" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="U15" s="112" t="n">
+      <c r="U15" s="30" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="81">
-      <c r="A16" s="113" t="inlineStr">
+    <row r="16" ht="15.75" customHeight="1" s="80">
+      <c r="A16" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B16" s="113" t="inlineStr">
+      <c r="B16" s="31" t="inlineStr">
         <is>
           <t>Mme Sabban</t>
         </is>
       </c>
-      <c r="C16" s="109" t="inlineStr">
+      <c r="C16" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D16" s="108" t="inlineStr">
+      <c r="D16" s="26" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E16" s="109" t="inlineStr">
+      <c r="E16" s="27" t="inlineStr">
         <is>
           <t>M103</t>
         </is>
       </c>
-      <c r="F16" s="110" t="n">
+      <c r="F16" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="G16" s="109" t="n">
+      <c r="G16" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="109" t="n">
+      <c r="H16" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="I16" s="109" t="n">
+      <c r="I16" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="J16" s="109" t="n">
+      <c r="J16" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="K16" s="109" t="n">
+      <c r="K16" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="L16" s="109" t="n">
+      <c r="L16" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="M16" s="109" t="n">
+      <c r="M16" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="N16" s="109" t="n">
+      <c r="N16" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="O16" s="109" t="n">
+      <c r="O16" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="P16" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="112" t="n">
+      <c r="P16" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="112" t="n">
+      <c r="R16" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="S16" s="112" t="n">
+      <c r="S16" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="T16" s="112" t="n">
+      <c r="T16" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="U16" s="112" t="n">
+      <c r="U16" s="30" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="81">
-      <c r="A17" s="106" t="inlineStr">
+    <row r="17" ht="15.75" customHeight="1" s="80">
+      <c r="A17" s="24" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B17" s="106" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>Mme Sabban</t>
         </is>
       </c>
-      <c r="C17" s="107" t="inlineStr">
+      <c r="C17" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Vendredi </t>
         </is>
       </c>
-      <c r="D17" s="108" t="inlineStr">
+      <c r="D17" s="26" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E17" s="109" t="inlineStr">
+      <c r="E17" s="27" t="inlineStr">
         <is>
           <t>M103</t>
         </is>
       </c>
-      <c r="F17" s="110" t="n">
+      <c r="F17" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="G17" s="109" t="n">
+      <c r="G17" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="H17" s="109" t="n">
+      <c r="H17" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="109" t="n">
+      <c r="I17" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="J17" s="109" t="n">
+      <c r="J17" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="K17" s="109" t="n">
+      <c r="K17" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="109" t="n">
+      <c r="L17" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="M17" s="109" t="n">
+      <c r="M17" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="109" t="n">
+      <c r="N17" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="O17" s="109" t="n">
+      <c r="O17" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="P17" s="111" t="n">
+      <c r="P17" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" s="112" t="n">
+      <c r="Q17" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="112" t="n">
+      <c r="R17" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="S17" s="112" t="n">
+      <c r="S17" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="T17" s="112" t="n">
+      <c r="T17" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="U17" s="112" t="n">
+      <c r="U17" s="30" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="81">
-      <c r="A18" s="85" t="n"/>
-      <c r="B18" s="114" t="n"/>
-      <c r="C18" s="115" t="n"/>
-      <c r="D18" s="116" t="n"/>
-      <c r="E18" s="117" t="n"/>
-      <c r="F18" s="118" t="n"/>
-      <c r="G18" s="109" t="n"/>
-      <c r="H18" s="109" t="n"/>
-      <c r="I18" s="109" t="n"/>
-      <c r="J18" s="109" t="n"/>
-      <c r="K18" s="109" t="n"/>
-      <c r="L18" s="109" t="n"/>
-      <c r="M18" s="109" t="n"/>
-      <c r="N18" s="109" t="n"/>
-      <c r="O18" s="109" t="n"/>
-      <c r="P18" s="111" t="n"/>
-      <c r="Q18" s="112" t="n"/>
-      <c r="R18" s="112" t="n"/>
-      <c r="S18" s="112" t="n"/>
-      <c r="T18" s="112" t="n"/>
-      <c r="U18" s="112" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="81">
-      <c r="A19" s="119" t="inlineStr">
+    <row r="18" ht="15.75" customHeight="1" s="80">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="32" t="n"/>
+      <c r="C18" s="33" t="n"/>
+      <c r="D18" s="34" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="29" t="n"/>
+      <c r="Q18" s="30" t="n"/>
+      <c r="R18" s="30" t="n"/>
+      <c r="S18" s="30" t="n"/>
+      <c r="T18" s="30" t="n"/>
+      <c r="U18" s="30" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="80">
+      <c r="A19" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B19" s="119" t="inlineStr">
+      <c r="B19" s="37" t="inlineStr">
         <is>
           <t>M. Poupy</t>
         </is>
       </c>
-      <c r="C19" s="104" t="inlineStr">
+      <c r="C19" s="22" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D19" s="120" t="inlineStr">
+      <c r="D19" s="38" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E19" s="121" t="inlineStr">
+      <c r="E19" s="39" t="inlineStr">
         <is>
           <t>R028</t>
         </is>
       </c>
-      <c r="F19" s="122" t="n">
+      <c r="F19" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="109" t="n">
+      <c r="G19" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="H19" s="109" t="n">
+      <c r="H19" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="109" t="n">
+      <c r="I19" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="J19" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="109" t="n">
+      <c r="J19" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="109" t="n">
+      <c r="L19" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="M19" s="109" t="n">
+      <c r="M19" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="N19" s="109" t="n">
+      <c r="N19" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="O19" s="109" t="n">
+      <c r="O19" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="P19" s="111" t="n">
+      <c r="P19" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="Q19" s="112" t="n">
+      <c r="Q19" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="R19" s="112" t="n">
+      <c r="R19" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="S19" s="112" t="n">
+      <c r="S19" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="T19" s="112" t="n">
+      <c r="T19" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="U19" s="112" t="n">
+      <c r="U19" s="30" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="81">
-      <c r="A20" s="119" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1" s="80">
+      <c r="A20" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B20" s="119" t="inlineStr">
+      <c r="B20" s="37" t="inlineStr">
         <is>
           <t>M. Poupy</t>
         </is>
       </c>
-      <c r="C20" s="104" t="inlineStr">
+      <c r="C20" s="22" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D20" s="120" t="inlineStr">
+      <c r="D20" s="38" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E20" s="123" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>R028</t>
         </is>
       </c>
-      <c r="F20" s="122" t="n">
+      <c r="F20" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="109" t="n">
+      <c r="G20" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="H20" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="109" t="n">
+      <c r="H20" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="109" t="n">
+      <c r="J20" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="109" t="n">
+      <c r="K20" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="L20" s="109" t="n">
+      <c r="L20" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="109" t="n">
+      <c r="M20" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="N20" s="109" t="n">
+      <c r="N20" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="O20" s="109" t="n">
+      <c r="O20" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="P20" s="111" t="n">
+      <c r="P20" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="Q20" s="112" t="n">
+      <c r="Q20" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="R20" s="112" t="n">
+      <c r="R20" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="S20" s="112" t="n">
+      <c r="S20" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="T20" s="112" t="n">
+      <c r="T20" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="U20" s="112" t="n">
+      <c r="U20" s="30" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="81">
-      <c r="A21" s="119" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1" s="80">
+      <c r="A21" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B21" s="119" t="inlineStr">
+      <c r="B21" s="37" t="inlineStr">
         <is>
           <t>M. Robin</t>
         </is>
       </c>
-      <c r="C21" s="104" t="inlineStr">
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D21" s="120" t="inlineStr">
+      <c r="D21" s="38" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E21" s="123" t="inlineStr">
+      <c r="E21" s="41" t="inlineStr">
         <is>
           <t>C394</t>
         </is>
       </c>
-      <c r="F21" s="122" t="n">
+      <c r="F21" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="109" t="n">
+      <c r="G21" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="H21" s="109" t="n">
+      <c r="H21" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="109" t="n">
+      <c r="I21" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="109" t="n">
+      <c r="J21" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="K21" s="109" t="n">
+      <c r="K21" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="L21" s="109" t="n">
+      <c r="L21" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="M21" s="109" t="n">
+      <c r="M21" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="109" t="n">
+      <c r="N21" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="P21" s="111" t="n">
+      <c r="P21" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="Q21" s="112" t="n">
+      <c r="Q21" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="R21" s="112" t="n">
+      <c r="R21" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="S21" s="112" t="n">
+      <c r="S21" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="T21" s="112" t="n">
+      <c r="T21" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="U21" s="112" t="n">
+      <c r="U21" s="30" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="81">
-      <c r="A22" s="119" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1" s="80">
+      <c r="A22" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B22" s="119" t="inlineStr">
+      <c r="B22" s="37" t="inlineStr">
         <is>
           <t>Mme Chevalier</t>
         </is>
       </c>
-      <c r="C22" s="104" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D22" s="120" t="inlineStr">
+      <c r="D22" s="38" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E22" s="121" t="inlineStr">
+      <c r="E22" s="39" t="inlineStr">
         <is>
           <t>R011</t>
         </is>
       </c>
-      <c r="F22" s="122" t="n">
+      <c r="F22" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="G22" s="109" t="n">
+      <c r="G22" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="H22" s="109" t="n">
+      <c r="H22" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="109" t="n">
+      <c r="I22" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="109" t="n">
+      <c r="J22" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="K22" s="109" t="n">
+      <c r="K22" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="L22" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="109" t="n">
+      <c r="L22" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="N22" s="109" t="n">
+      <c r="N22" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="O22" s="109" t="n">
+      <c r="O22" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="P22" s="111" t="n">
+      <c r="P22" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="Q22" s="112" t="n">
+      <c r="Q22" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="R22" s="112" t="n">
+      <c r="R22" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="S22" s="112" t="n">
+      <c r="S22" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="T22" s="112" t="n">
+      <c r="T22" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="U22" s="112" t="n">
+      <c r="U22" s="30" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="81">
-      <c r="A23" s="119" t="inlineStr">
+    <row r="23" ht="15.75" customHeight="1" s="80">
+      <c r="A23" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B23" s="119" t="inlineStr">
+      <c r="B23" s="37" t="inlineStr">
         <is>
           <t>Mme Chevalier</t>
         </is>
       </c>
-      <c r="C23" s="104" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D23" s="120" t="inlineStr">
+      <c r="D23" s="38" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E23" s="121" t="inlineStr">
+      <c r="E23" s="39" t="inlineStr">
         <is>
           <t>R011</t>
         </is>
       </c>
-      <c r="F23" s="122" t="n">
+      <c r="F23" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="G23" s="109" t="n">
+      <c r="G23" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="H23" s="109" t="n">
+      <c r="H23" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="I23" s="109" t="n">
+      <c r="I23" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="J23" s="109" t="n">
+      <c r="J23" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K23" s="109" t="n">
+      <c r="K23" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="L23" s="109" t="n">
+      <c r="L23" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="109" t="n">
+      <c r="M23" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="N23" s="109" t="n">
+      <c r="N23" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="O23" s="109" t="n">
+      <c r="O23" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="P23" s="111" t="n">
+      <c r="P23" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="Q23" s="112" t="n">
+      <c r="Q23" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="R23" s="112" t="n">
+      <c r="R23" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="S23" s="112" t="n">
+      <c r="S23" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="T23" s="112" t="n">
+      <c r="T23" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="U23" s="112" t="n">
+      <c r="U23" s="30" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="81">
-      <c r="A24" s="119" t="inlineStr">
+    <row r="24" ht="15.75" customHeight="1" s="80">
+      <c r="A24" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B24" s="119" t="inlineStr">
+      <c r="B24" s="37" t="inlineStr">
         <is>
           <t>Mme Chevalier</t>
         </is>
       </c>
-      <c r="C24" s="104" t="inlineStr">
+      <c r="C24" s="22" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D24" s="120" t="inlineStr">
+      <c r="D24" s="38" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E24" s="121" t="inlineStr">
+      <c r="E24" s="39" t="inlineStr">
         <is>
           <t>R011</t>
         </is>
       </c>
-      <c r="F24" s="122" t="n">
+      <c r="F24" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="G24" s="109" t="n">
+      <c r="G24" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="H24" s="109" t="n">
+      <c r="H24" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="I24" s="109" t="n">
+      <c r="I24" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="109" t="n">
+      <c r="J24" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="K24" s="109" t="n">
+      <c r="K24" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="L24" s="109" t="n">
+      <c r="L24" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="M24" s="109" t="n">
+      <c r="M24" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="N24" s="109" t="n">
+      <c r="N24" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="O24" s="109" t="n">
+      <c r="O24" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="P24" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="124" t="n">
+      <c r="P24" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="R24" s="112" t="n">
+      <c r="R24" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="S24" s="112" t="n">
+      <c r="S24" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="T24" s="112" t="n">
+      <c r="T24" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="112" t="n">
+      <c r="U24" s="30" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="81">
-      <c r="A25" s="119" t="inlineStr">
+    <row r="25" ht="15.75" customHeight="1" s="80">
+      <c r="A25" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B25" s="119" t="inlineStr">
+      <c r="B25" s="37" t="inlineStr">
         <is>
           <t>Mme Chibani</t>
         </is>
       </c>
-      <c r="C25" s="104" t="inlineStr">
+      <c r="C25" s="22" t="inlineStr">
         <is>
           <t>Vendredi</t>
         </is>
       </c>
-      <c r="D25" s="120" t="inlineStr">
+      <c r="D25" s="38" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E25" s="121" t="inlineStr">
+      <c r="E25" s="39" t="inlineStr">
         <is>
           <t>C284</t>
         </is>
       </c>
-      <c r="F25" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="109" t="n">
+      <c r="F25" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="109" t="n">
+      <c r="H25" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="I25" s="109" t="n">
+      <c r="I25" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="J25" s="109" t="n">
+      <c r="J25" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="K25" s="109" t="n">
+      <c r="K25" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="L25" s="109" t="n">
+      <c r="L25" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="109" t="n">
+      <c r="M25" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="N25" s="109" t="n">
+      <c r="N25" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="O25" s="109" t="n">
+      <c r="O25" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="P25" s="111" t="n">
+      <c r="P25" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" s="112" t="n">
+      <c r="Q25" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="112" t="n">
+      <c r="R25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="T25" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="112" t="n">
+      <c r="T25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="30" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="81">
-      <c r="A26" s="119" t="inlineStr">
+    <row r="26" ht="15.75" customHeight="1" s="80">
+      <c r="A26" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B26" s="119" t="inlineStr">
+      <c r="B26" s="37" t="inlineStr">
         <is>
           <t>Mme Chibani</t>
         </is>
       </c>
-      <c r="C26" s="104" t="inlineStr">
+      <c r="C26" s="22" t="inlineStr">
         <is>
           <t>Vendredi</t>
         </is>
       </c>
-      <c r="D26" s="120" t="inlineStr">
+      <c r="D26" s="38" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E26" s="121" t="inlineStr">
+      <c r="E26" s="39" t="inlineStr">
         <is>
           <t>C284</t>
         </is>
       </c>
-      <c r="F26" s="122" t="n">
+      <c r="F26" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="109" t="n">
+      <c r="G26" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="H26" s="109" t="n">
+      <c r="H26" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="I26" s="109" t="n">
+      <c r="I26" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="J26" s="109" t="n">
+      <c r="J26" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="K26" s="109" t="n">
+      <c r="K26" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="L26" s="109" t="n">
+      <c r="L26" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="M26" s="109" t="n">
+      <c r="M26" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="N26" s="109" t="n">
+      <c r="N26" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="O26" s="109" t="n">
+      <c r="O26" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="P26" s="111" t="n">
+      <c r="P26" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" s="112" t="n">
+      <c r="Q26" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="R26" s="112" t="n">
+      <c r="R26" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="S26" s="112" t="n">
+      <c r="S26" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="T26" s="112" t="n">
+      <c r="T26" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="U26" s="112" t="n">
+      <c r="U26" s="30" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="81">
-      <c r="A27" s="85" t="n"/>
-      <c r="B27" s="114" t="n"/>
-      <c r="C27" s="115" t="n"/>
-      <c r="D27" s="116" t="n"/>
-      <c r="E27" s="117" t="n"/>
-      <c r="F27" s="118" t="n"/>
-      <c r="G27" s="109" t="n"/>
-      <c r="H27" s="109" t="n"/>
-      <c r="I27" s="109" t="n"/>
-      <c r="J27" s="109" t="n"/>
-      <c r="K27" s="109" t="n"/>
-      <c r="L27" s="109" t="n"/>
-      <c r="M27" s="109" t="n"/>
-      <c r="N27" s="109" t="n"/>
-      <c r="O27" s="109" t="n"/>
-      <c r="P27" s="111" t="n"/>
-      <c r="Q27" s="112" t="n"/>
-      <c r="R27" s="112" t="n"/>
-      <c r="S27" s="112" t="n"/>
-      <c r="T27" s="112" t="n"/>
-      <c r="U27" s="112" t="n"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" s="81">
-      <c r="A28" s="125" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1" s="80">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="32" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="35" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="29" t="n"/>
+      <c r="Q27" s="30" t="n"/>
+      <c r="R27" s="30" t="n"/>
+      <c r="S27" s="30" t="n"/>
+      <c r="T27" s="30" t="n"/>
+      <c r="U27" s="30" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="80">
+      <c r="A28" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B28" s="125" t="inlineStr">
+      <c r="B28" s="43" t="inlineStr">
         <is>
           <t>M. Gauvin</t>
         </is>
       </c>
-      <c r="C28" s="126" t="inlineStr">
+      <c r="C28" s="44" t="inlineStr">
         <is>
           <t>Lundi</t>
         </is>
       </c>
-      <c r="D28" s="127" t="inlineStr">
+      <c r="D28" s="45" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E28" s="128" t="inlineStr">
+      <c r="E28" s="46" t="inlineStr">
         <is>
           <t>C387</t>
         </is>
       </c>
-      <c r="F28" s="118" t="n"/>
-      <c r="G28" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="109" t="n">
+      <c r="F28" s="36" t="n"/>
+      <c r="G28" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="I28" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="109" t="n">
+      <c r="I28" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K28" s="109" t="n">
+      <c r="K28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="L28" s="109" t="n">
+      <c r="L28" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="M28" s="109" t="n">
+      <c r="M28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="N28" s="109" t="n">
+      <c r="N28" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="O28" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="111" t="n">
+      <c r="O28" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="Q28" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="112" t="n">
+      <c r="Q28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="S28" s="112" t="n">
+      <c r="S28" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="T28" s="112" t="n">
+      <c r="T28" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="U28" s="112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" s="81">
-      <c r="A29" s="125" t="inlineStr">
+      <c r="U28" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" s="80">
+      <c r="A29" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B29" s="125" t="inlineStr">
+      <c r="B29" s="43" t="inlineStr">
         <is>
           <t>M. Lattanzio</t>
         </is>
       </c>
-      <c r="C29" s="126" t="inlineStr">
+      <c r="C29" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D29" s="127" t="inlineStr">
+      <c r="D29" s="45" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E29" s="128" t="inlineStr">
+      <c r="E29" s="46" t="inlineStr">
         <is>
           <t>C391</t>
         </is>
       </c>
-      <c r="F29" s="118" t="n"/>
-      <c r="G29" s="109" t="n">
+      <c r="F29" s="36" t="n"/>
+      <c r="G29" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="H29" s="109" t="n">
+      <c r="H29" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="I29" s="109" t="n">
+      <c r="I29" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="J29" s="109" t="n">
+      <c r="J29" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="109" t="n">
+      <c r="K29" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="L29" s="109" t="n">
+      <c r="L29" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="M29" s="109" t="n">
+      <c r="M29" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="N29" s="109" t="n">
+      <c r="N29" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="O29" s="109" t="n">
+      <c r="O29" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="P29" s="111" t="n">
+      <c r="P29" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" s="112" t="n">
+      <c r="Q29" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="R29" s="112" t="n">
+      <c r="R29" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="S29" s="112" t="n">
+      <c r="S29" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="T29" s="112" t="n">
+      <c r="T29" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="U29" s="112" t="n">
+      <c r="U29" s="30" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="81">
-      <c r="A30" s="125" t="inlineStr">
+    <row r="30" ht="15.75" customHeight="1" s="80">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B30" s="125" t="inlineStr">
+      <c r="B30" s="43" t="inlineStr">
         <is>
           <t>Mme Kidscheid</t>
         </is>
       </c>
-      <c r="C30" s="126" t="inlineStr">
+      <c r="C30" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D30" s="127" t="inlineStr">
+      <c r="D30" s="45" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E30" s="128" t="inlineStr">
+      <c r="E30" s="46" t="inlineStr">
         <is>
           <t>C393</t>
         </is>
       </c>
-      <c r="F30" s="118" t="n"/>
-      <c r="G30" s="109" t="n">
+      <c r="F30" s="36" t="n"/>
+      <c r="G30" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="H30" s="109" t="n">
+      <c r="H30" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="109" t="n">
+      <c r="I30" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="J30" s="109" t="n">
+      <c r="J30" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K30" s="109" t="n">
+      <c r="K30" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="L30" s="109" t="n">
+      <c r="L30" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="M30" s="109" t="n">
+      <c r="M30" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="N30" s="109" t="n">
+      <c r="N30" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="O30" s="109" t="n">
+      <c r="O30" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="P30" s="111" t="n">
+      <c r="P30" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="Q30" s="112" t="n">
+      <c r="Q30" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="R30" s="112" t="n">
+      <c r="R30" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="S30" s="112" t="n">
+      <c r="S30" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="T30" s="112" t="n">
+      <c r="T30" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="U30" s="112" t="n">
+      <c r="U30" s="30" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="81">
-      <c r="A31" s="125" t="inlineStr">
+    <row r="31" ht="15.75" customHeight="1" s="80">
+      <c r="A31" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B31" s="125" t="inlineStr">
+      <c r="B31" s="43" t="inlineStr">
         <is>
           <t>Mme Semenova</t>
         </is>
       </c>
-      <c r="C31" s="126" t="inlineStr">
+      <c r="C31" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D31" s="127" t="inlineStr">
+      <c r="D31" s="45" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E31" s="128" t="inlineStr">
+      <c r="E31" s="46" t="inlineStr">
         <is>
           <t>C395</t>
         </is>
       </c>
-      <c r="F31" s="118" t="n"/>
-      <c r="G31" s="109" t="n">
+      <c r="F31" s="36" t="n"/>
+      <c r="G31" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="H31" s="109" t="n">
+      <c r="H31" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="109" t="n">
+      <c r="I31" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="J31" s="109" t="n">
+      <c r="J31" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="K31" s="109" t="n">
+      <c r="K31" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="L31" s="109" t="n">
+      <c r="L31" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="M31" s="109" t="n">
+      <c r="M31" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="N31" s="109" t="n">
+      <c r="N31" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="O31" s="109" t="n">
+      <c r="O31" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="P31" s="111" t="n">
+      <c r="P31" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="Q31" s="112" t="n">
+      <c r="Q31" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="R31" s="112" t="n">
+      <c r="R31" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="S31" s="112" t="n">
+      <c r="S31" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="T31" s="112" t="n">
+      <c r="T31" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="U31" s="112" t="n">
+      <c r="U31" s="30" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="81">
-      <c r="A32" s="125" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1" s="80">
+      <c r="A32" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B32" s="125" t="inlineStr">
+      <c r="B32" s="43" t="inlineStr">
         <is>
           <t>Mme Mann</t>
         </is>
       </c>
-      <c r="C32" s="126" t="inlineStr">
+      <c r="C32" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D32" s="127" t="inlineStr">
+      <c r="D32" s="45" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E32" s="128" t="inlineStr">
+      <c r="E32" s="46" t="inlineStr">
         <is>
           <t>C389</t>
         </is>
       </c>
-      <c r="F32" s="118" t="n"/>
-      <c r="G32" s="109" t="n">
+      <c r="F32" s="36" t="n"/>
+      <c r="G32" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="H32" s="109" t="n">
+      <c r="H32" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="I32" s="109" t="n">
+      <c r="I32" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="J32" s="109" t="n">
+      <c r="J32" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="K32" s="109" t="n">
+      <c r="K32" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="L32" s="109" t="n">
+      <c r="L32" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="M32" s="109" t="n">
+      <c r="M32" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="N32" s="109" t="n">
+      <c r="N32" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="O32" s="109" t="n">
+      <c r="O32" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="P32" s="111" t="n">
+      <c r="P32" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="Q32" s="112" t="n">
+      <c r="Q32" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="R32" s="112" t="n">
+      <c r="R32" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="S32" s="112" t="n">
+      <c r="S32" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="T32" s="112" t="n">
+      <c r="T32" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="U32" s="112" t="n">
+      <c r="U32" s="30" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="81">
-      <c r="A33" s="125" t="inlineStr">
+    <row r="33" ht="15.75" customHeight="1" s="80">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B33" s="125" t="inlineStr">
+      <c r="B33" s="43" t="inlineStr">
         <is>
           <t>Mme Mann</t>
         </is>
       </c>
-      <c r="C33" s="126" t="inlineStr">
+      <c r="C33" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D33" s="127" t="inlineStr">
+      <c r="D33" s="45" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E33" s="128" t="inlineStr">
+      <c r="E33" s="46" t="inlineStr">
         <is>
           <t>C389</t>
         </is>
       </c>
-      <c r="F33" s="118" t="n"/>
-      <c r="G33" s="109" t="n">
+      <c r="F33" s="36" t="n"/>
+      <c r="G33" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="H33" s="109" t="n">
+      <c r="H33" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="I33" s="109" t="n">
+      <c r="I33" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="J33" s="109" t="n">
+      <c r="J33" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="K33" s="109" t="n">
+      <c r="K33" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="L33" s="109" t="n">
+      <c r="L33" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="M33" s="109" t="n">
+      <c r="M33" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="N33" s="109" t="n">
+      <c r="N33" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="O33" s="109" t="n">
+      <c r="O33" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="P33" s="111" t="n">
+      <c r="P33" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="Q33" s="112" t="n">
+      <c r="Q33" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="R33" s="112" t="n">
+      <c r="R33" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="S33" s="112" t="n">
+      <c r="S33" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="T33" s="112" t="n">
+      <c r="T33" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="U33" s="112" t="n">
+      <c r="U33" s="30" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="81">
-      <c r="A34" s="125" t="inlineStr">
+    <row r="34" ht="15.75" customHeight="1" s="80">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B34" s="125" t="inlineStr">
+      <c r="B34" s="43" t="inlineStr">
         <is>
           <t>Mme Quintin</t>
         </is>
       </c>
-      <c r="C34" s="126" t="inlineStr">
+      <c r="C34" s="44" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D34" s="127" t="inlineStr">
+      <c r="D34" s="45" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E34" s="128" t="inlineStr">
+      <c r="E34" s="46" t="inlineStr">
         <is>
           <t>C392</t>
         </is>
       </c>
-      <c r="F34" s="129" t="n"/>
-      <c r="G34" s="109" t="n">
+      <c r="F34" s="47" t="n"/>
+      <c r="G34" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="H34" s="109" t="n">
+      <c r="H34" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="I34" s="109" t="n">
+      <c r="I34" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="J34" s="109" t="n">
+      <c r="J34" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="K34" s="130" t="n">
+      <c r="K34" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="L34" s="130" t="n">
+      <c r="L34" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="M34" s="130" t="n">
+      <c r="M34" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="N34" s="130" t="n">
+      <c r="N34" s="48" t="n">
         <v>12</v>
       </c>
-      <c r="O34" s="130" t="n">
+      <c r="O34" s="48" t="n">
         <v>7</v>
       </c>
-      <c r="P34" s="131" t="n">
+      <c r="P34" s="49" t="n">
         <v>12</v>
       </c>
-      <c r="Q34" s="132" t="n">
+      <c r="Q34" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="R34" s="132" t="n">
+      <c r="R34" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="S34" s="132" t="n">
+      <c r="S34" s="50" t="n">
         <v>15</v>
       </c>
-      <c r="T34" s="132" t="n">
+      <c r="T34" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="U34" s="132" t="n">
+      <c r="U34" s="50" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="81">
-      <c r="A35" s="133" t="inlineStr">
+    <row r="35" ht="15.75" customHeight="1" s="80">
+      <c r="A35" s="51" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B35" s="133" t="inlineStr">
+      <c r="B35" s="51" t="inlineStr">
         <is>
           <t>Mme Belaggoune</t>
         </is>
       </c>
-      <c r="C35" s="134" t="inlineStr">
+      <c r="C35" s="52" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D35" s="135" t="inlineStr">
+      <c r="D35" s="53" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E35" s="136" t="inlineStr">
+      <c r="E35" s="54" t="inlineStr">
         <is>
           <t>C452</t>
         </is>
       </c>
-      <c r="F35" s="137" t="n"/>
-      <c r="G35" s="130" t="n">
+      <c r="F35" s="55" t="n"/>
+      <c r="G35" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="130" t="n">
+      <c r="H35" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="I35" s="130" t="n">
+      <c r="I35" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="J35" s="138" t="n">
+      <c r="J35" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="K35" s="130" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="130" t="n">
+      <c r="K35" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="48" t="n">
         <v>14</v>
       </c>
-      <c r="M35" s="130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" s="130" t="n">
+      <c r="M35" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="O35" s="130" t="n">
+      <c r="O35" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="P35" s="130" t="n">
+      <c r="P35" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="Q35" s="132" t="n">
+      <c r="Q35" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="R35" s="132" t="n">
+      <c r="R35" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="S35" s="132" t="n">
-        <v>1</v>
-      </c>
-      <c r="T35" s="132" t="n">
+      <c r="S35" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="U35" s="132" t="n">
+      <c r="U35" s="50" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="81">
-      <c r="A36" s="139" t="n"/>
-      <c r="B36" s="139" t="n"/>
-      <c r="C36" s="140" t="n"/>
-      <c r="D36" s="141" t="n"/>
-      <c r="E36" s="140" t="n"/>
-      <c r="F36" s="101" t="n"/>
-      <c r="G36" s="109" t="n"/>
-      <c r="H36" s="109" t="n"/>
-      <c r="I36" s="109" t="n"/>
-      <c r="J36" s="109" t="n"/>
-      <c r="K36" s="109" t="n"/>
-      <c r="L36" s="109" t="n"/>
-      <c r="M36" s="109" t="n"/>
-      <c r="N36" s="109" t="n"/>
-      <c r="O36" s="109" t="n"/>
-      <c r="P36" s="109" t="n"/>
-      <c r="Q36" s="112" t="n"/>
-      <c r="R36" s="112" t="n"/>
-      <c r="S36" s="112" t="n"/>
-      <c r="T36" s="112" t="n"/>
-      <c r="U36" s="112" t="n"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="81">
-      <c r="A37" s="142" t="inlineStr">
+    <row r="36" ht="15.75" customHeight="1" s="80">
+      <c r="A36" s="57" t="n"/>
+      <c r="B36" s="57" t="n"/>
+      <c r="C36" s="58" t="n"/>
+      <c r="D36" s="59" t="n"/>
+      <c r="E36" s="58" t="n"/>
+      <c r="F36" s="19" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="30" t="n"/>
+      <c r="R36" s="30" t="n"/>
+      <c r="S36" s="30" t="n"/>
+      <c r="T36" s="30" t="n"/>
+      <c r="U36" s="30" t="n"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="80">
+      <c r="A37" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
         </is>
       </c>
-      <c r="B37" s="142" t="inlineStr">
+      <c r="B37" s="60" t="inlineStr">
         <is>
           <t>M. Annoussamy</t>
         </is>
       </c>
-      <c r="C37" s="143" t="inlineStr">
+      <c r="C37" s="61" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D37" s="144" t="inlineStr">
+      <c r="D37" s="62" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E37" s="145" t="inlineStr">
+      <c r="E37" s="63" t="inlineStr">
         <is>
           <t>C454</t>
         </is>
       </c>
-      <c r="F37" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="143" t="n">
+      <c r="F37" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="H37" s="143" t="inlineStr">
+      <c r="H37" s="61" t="inlineStr">
         <is>
           <t>1*</t>
         </is>
       </c>
-      <c r="I37" s="143" t="inlineStr">
+      <c r="I37" s="61" t="inlineStr">
         <is>
           <t>12*</t>
         </is>
       </c>
-      <c r="J37" s="143" t="n">
+      <c r="J37" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="K37" s="147" t="n"/>
-      <c r="L37" s="147" t="n"/>
-      <c r="M37" s="147" t="n"/>
-      <c r="N37" s="147" t="n"/>
-      <c r="O37" s="147" t="n"/>
-      <c r="P37" s="147" t="n"/>
-      <c r="Q37" s="148" t="n"/>
-      <c r="R37" s="148" t="n"/>
-      <c r="S37" s="148" t="n"/>
-      <c r="T37" s="148" t="n"/>
-      <c r="U37" s="148" t="n"/>
-      <c r="V37" s="149" t="n"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" s="81">
-      <c r="A38" s="142" t="inlineStr">
+      <c r="K37" s="65" t="n"/>
+      <c r="L37" s="65" t="n"/>
+      <c r="M37" s="65" t="n"/>
+      <c r="N37" s="65" t="n"/>
+      <c r="O37" s="65" t="n"/>
+      <c r="P37" s="65" t="n"/>
+      <c r="Q37" s="66" t="n"/>
+      <c r="R37" s="66" t="n"/>
+      <c r="S37" s="66" t="n"/>
+      <c r="T37" s="66" t="n"/>
+      <c r="U37" s="66" t="n"/>
+      <c r="V37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" s="80">
+      <c r="A38" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
         </is>
       </c>
-      <c r="B38" s="142" t="inlineStr">
+      <c r="B38" s="60" t="inlineStr">
         <is>
           <t>M. Annoussamy</t>
         </is>
       </c>
-      <c r="C38" s="143" t="inlineStr">
+      <c r="C38" s="61" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D38" s="144" t="inlineStr">
+      <c r="D38" s="62" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E38" s="145" t="inlineStr">
+      <c r="E38" s="63" t="inlineStr">
         <is>
           <t>C454</t>
         </is>
       </c>
-      <c r="F38" s="146" t="n">
+      <c r="F38" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="143" t="n">
+      <c r="G38" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="H38" s="143" t="inlineStr">
+      <c r="H38" s="61" t="inlineStr">
         <is>
           <t>5*6*</t>
         </is>
       </c>
-      <c r="I38" s="143" t="n">
+      <c r="I38" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="J38" s="143" t="inlineStr">
+      <c r="J38" s="61" t="inlineStr">
         <is>
           <t>8*11*</t>
         </is>
       </c>
-      <c r="K38" s="143" t="n">
+      <c r="K38" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="L38" s="143" t="inlineStr">
+      <c r="L38" s="61" t="inlineStr">
         <is>
           <t>7*9*</t>
         </is>
       </c>
-      <c r="M38" s="150" t="n"/>
-      <c r="N38" s="143" t="n">
+      <c r="M38" s="68" t="n"/>
+      <c r="N38" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="O38" s="143" t="n">
+      <c r="O38" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="P38" s="143" t="inlineStr">
+      <c r="P38" s="61" t="inlineStr">
         <is>
           <t>10*</t>
         </is>
       </c>
-      <c r="Q38" s="146" t="n">
+      <c r="Q38" s="64" t="n">
         <v>16</v>
       </c>
-      <c r="R38" s="146" t="n">
+      <c r="R38" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="S38" s="146" t="inlineStr">
+      <c r="S38" s="64" t="inlineStr">
         <is>
           <t>8*11*</t>
         </is>
       </c>
-      <c r="T38" s="146" t="n">
+      <c r="T38" s="64" t="n">
         <v>12</v>
       </c>
-      <c r="U38" s="146" t="n">
+      <c r="U38" s="64" t="n">
         <v>13</v>
       </c>
-      <c r="V38" s="149" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="81">
-      <c r="A39" s="142" t="inlineStr">
+      <c r="V38" s="67" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="80">
+      <c r="A39" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
         </is>
       </c>
-      <c r="B39" s="142" t="inlineStr">
+      <c r="B39" s="60" t="inlineStr">
         <is>
           <t>M. Annoussamy</t>
         </is>
       </c>
-      <c r="C39" s="143" t="inlineStr">
+      <c r="C39" s="61" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D39" s="151" t="inlineStr">
+      <c r="D39" s="69" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E39" s="152" t="inlineStr">
+      <c r="E39" s="70" t="inlineStr">
         <is>
           <t>C454</t>
         </is>
       </c>
-      <c r="F39" s="151" t="n">
+      <c r="F39" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="G39" s="151" t="n">
+      <c r="G39" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="H39" s="153" t="n"/>
-      <c r="I39" s="153" t="n"/>
-      <c r="J39" s="153" t="n"/>
-      <c r="K39" s="151" t="n">
+      <c r="H39" s="71" t="n"/>
+      <c r="I39" s="71" t="n"/>
+      <c r="J39" s="71" t="n"/>
+      <c r="K39" s="69" t="n">
         <v>13</v>
       </c>
-      <c r="L39" s="151" t="inlineStr">
+      <c r="L39" s="69" t="inlineStr">
         <is>
           <t>13*14*</t>
         </is>
       </c>
-      <c r="M39" s="150" t="n"/>
-      <c r="N39" s="151" t="n">
+      <c r="M39" s="68" t="n"/>
+      <c r="N39" s="69" t="n">
         <v>15</v>
       </c>
-      <c r="O39" s="151" t="n">
+      <c r="O39" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="P39" s="151" t="inlineStr">
+      <c r="P39" s="69" t="inlineStr">
         <is>
           <t>15*16*</t>
         </is>
       </c>
-      <c r="Q39" s="151" t="n">
+      <c r="Q39" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="R39" s="151" t="n">
+      <c r="R39" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="S39" s="151" t="n">
+      <c r="S39" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="T39" s="151" t="inlineStr">
+      <c r="T39" s="69" t="inlineStr">
         <is>
           <t>5*6*</t>
         </is>
       </c>
-      <c r="U39" s="151" t="inlineStr">
+      <c r="U39" s="69" t="inlineStr">
         <is>
           <t>12*13*</t>
         </is>
       </c>
-      <c r="V39" s="149" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="81">
-      <c r="A40" s="142" t="inlineStr">
+      <c r="V39" s="67" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="80">
+      <c r="A40" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
         </is>
       </c>
-      <c r="B40" s="142" t="inlineStr">
+      <c r="B40" s="60" t="inlineStr">
         <is>
           <t>M. Annoussamy</t>
         </is>
       </c>
-      <c r="C40" s="143" t="inlineStr">
+      <c r="C40" s="61" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D40" s="151" t="inlineStr">
+      <c r="D40" s="69" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E40" s="152" t="inlineStr">
+      <c r="E40" s="70" t="inlineStr">
         <is>
           <t>C454</t>
         </is>
       </c>
-      <c r="F40" s="154" t="n"/>
-      <c r="G40" s="154" t="n"/>
-      <c r="H40" s="154" t="n"/>
-      <c r="I40" s="154" t="n"/>
-      <c r="J40" s="154" t="n"/>
-      <c r="K40" s="151" t="n">
+      <c r="F40" s="72" t="n"/>
+      <c r="G40" s="72" t="n"/>
+      <c r="H40" s="72" t="n"/>
+      <c r="I40" s="72" t="n"/>
+      <c r="J40" s="72" t="n"/>
+      <c r="K40" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="L40" s="151" t="inlineStr">
+      <c r="L40" s="69" t="inlineStr">
         <is>
           <t>2*3*</t>
         </is>
       </c>
-      <c r="M40" s="150" t="n"/>
-      <c r="N40" s="151" t="n">
+      <c r="M40" s="68" t="n"/>
+      <c r="N40" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="O40" s="151" t="inlineStr">
+      <c r="O40" s="69" t="inlineStr">
         <is>
           <t>4*</t>
         </is>
       </c>
-      <c r="P40" s="153" t="n"/>
-      <c r="Q40" s="153" t="n"/>
-      <c r="R40" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" s="151" t="inlineStr">
+      <c r="P40" s="71" t="n"/>
+      <c r="Q40" s="71" t="n"/>
+      <c r="R40" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="69" t="inlineStr">
         <is>
           <t>1*</t>
         </is>
       </c>
-      <c r="T40" s="151" t="n">
+      <c r="T40" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="U40" s="151" t="inlineStr">
+      <c r="U40" s="69" t="inlineStr">
         <is>
           <t>2*3*</t>
         </is>
       </c>
-      <c r="V40" s="149" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="81">
-      <c r="A41" s="155" t="n"/>
-      <c r="B41" s="155" t="n"/>
-      <c r="C41" s="156" t="n"/>
-      <c r="D41" s="157" t="n"/>
-      <c r="F41" s="157" t="n"/>
-      <c r="G41" s="157" t="n"/>
-      <c r="H41" s="157" t="n"/>
-      <c r="I41" s="157" t="n"/>
-      <c r="J41" s="157" t="n"/>
-      <c r="K41" s="157" t="n"/>
-      <c r="L41" s="157" t="n"/>
-      <c r="M41" s="156" t="n"/>
-      <c r="N41" s="157" t="n"/>
-      <c r="O41" s="157" t="n"/>
-      <c r="P41" s="157" t="n"/>
-      <c r="Q41" s="157" t="n"/>
-      <c r="R41" s="157" t="n"/>
-      <c r="S41" s="157" t="n"/>
-      <c r="T41" s="157" t="n"/>
-      <c r="U41" s="157" t="n"/>
-      <c r="V41" s="149" t="n"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" s="81">
-      <c r="A42" s="158" t="inlineStr">
+      <c r="V40" s="67" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="80">
+      <c r="A41" s="73" t="n"/>
+      <c r="B41" s="73" t="n"/>
+      <c r="C41" s="74" t="n"/>
+      <c r="D41" s="75" t="n"/>
+      <c r="F41" s="75" t="n"/>
+      <c r="G41" s="75" t="n"/>
+      <c r="H41" s="75" t="n"/>
+      <c r="I41" s="75" t="n"/>
+      <c r="J41" s="75" t="n"/>
+      <c r="K41" s="75" t="n"/>
+      <c r="L41" s="75" t="n"/>
+      <c r="M41" s="74" t="n"/>
+      <c r="N41" s="75" t="n"/>
+      <c r="O41" s="75" t="n"/>
+      <c r="P41" s="75" t="n"/>
+      <c r="Q41" s="75" t="n"/>
+      <c r="R41" s="75" t="n"/>
+      <c r="S41" s="75" t="n"/>
+      <c r="T41" s="75" t="n"/>
+      <c r="U41" s="75" t="n"/>
+      <c r="V41" s="67" t="n"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" s="80">
+      <c r="A42" s="76" t="inlineStr">
         <is>
           <t>Pour les colles de Mme Lé-Nhu:  # colles décalées de +30 minutes.</t>
         </is>
       </c>
-      <c r="B42" s="159" t="n"/>
-      <c r="C42" s="159" t="n"/>
-      <c r="D42" s="159" t="n"/>
-      <c r="F42" s="160" t="n"/>
-      <c r="G42" s="160" t="n"/>
-      <c r="H42" s="160" t="n"/>
-      <c r="I42" s="160" t="n"/>
-      <c r="J42" s="160" t="n"/>
+      <c r="B42" s="77" t="n"/>
+      <c r="C42" s="77" t="n"/>
+      <c r="D42" s="77" t="n"/>
+      <c r="F42" s="78" t="n"/>
+      <c r="G42" s="78" t="n"/>
+      <c r="H42" s="78" t="n"/>
+      <c r="I42" s="78" t="n"/>
+      <c r="J42" s="78" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:Q1"/>
   </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BQ71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col width="28.33203125" customWidth="1" style="80" min="2" max="2"/>
+    <col width="14.83203125" customWidth="1" style="80" min="4" max="4"/>
+    <col width="7.1640625" customWidth="1" style="80" min="5" max="5"/>
+    <col width="4.1640625" customWidth="1" style="80" min="6" max="7"/>
+    <col width="6.83203125" customWidth="1" style="80" min="8" max="8"/>
+    <col width="3" customWidth="1" style="80" min="9" max="10"/>
+    <col width="7.83203125" customWidth="1" style="80" min="11" max="11"/>
+    <col width="3" customWidth="1" style="80" min="12" max="12"/>
+    <col width="4.1640625" customWidth="1" style="80" min="13" max="21"/>
+    <col width="16" customWidth="1" style="80" min="23" max="23"/>
+    <col width="15.6640625" customWidth="1" style="80" min="27" max="27"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="82" t="inlineStr">
+        <is>
+          <t>Colloscope</t>
+        </is>
+      </c>
+      <c r="B1" s="82" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="C1" s="82" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D1" s="82" t="inlineStr">
+        <is>
+          <t>MP2I Saint-Louis</t>
+        </is>
+      </c>
+      <c r="F1" s="83" t="n">
+        <v>45691</v>
+      </c>
+      <c r="G1" s="83" t="n">
+        <v>45698</v>
+      </c>
+      <c r="H1" s="83" t="n">
+        <v>45719</v>
+      </c>
+      <c r="I1" s="83" t="n">
+        <v>45726</v>
+      </c>
+      <c r="J1" s="83" t="n">
+        <v>45733</v>
+      </c>
+      <c r="K1" s="83" t="n">
+        <v>45740</v>
+      </c>
+      <c r="L1" s="83" t="n">
+        <v>45747</v>
+      </c>
+      <c r="M1" s="83" t="n">
+        <v>45754</v>
+      </c>
+      <c r="N1" s="83" t="n">
+        <v>45775</v>
+      </c>
+      <c r="O1" s="83" t="n">
+        <v>45782</v>
+      </c>
+      <c r="P1" s="83" t="n">
+        <v>45789</v>
+      </c>
+      <c r="Q1" s="83" t="n">
+        <v>45796</v>
+      </c>
+      <c r="R1" s="83" t="n">
+        <v>45803</v>
+      </c>
+      <c r="S1" s="83" t="n">
+        <v>45810</v>
+      </c>
+      <c r="T1" s="83" t="n">
+        <v>45817</v>
+      </c>
+      <c r="U1" s="83" t="n">
+        <v>45824</v>
+      </c>
+      <c r="V1" s="82" t="n"/>
+      <c r="W1" s="82" t="n"/>
+      <c r="X1" s="82" t="n"/>
+      <c r="Y1" s="82" t="n"/>
+      <c r="Z1" s="82" t="n"/>
+      <c r="AA1" s="82" t="n"/>
+      <c r="AB1" s="82" t="n"/>
+      <c r="AC1" s="82" t="n"/>
+      <c r="AD1" s="82" t="n"/>
+      <c r="AE1" s="82" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="82" t="n"/>
+      <c r="B2" s="82" t="n"/>
+      <c r="C2" s="82" t="n"/>
+      <c r="D2" s="82" t="n"/>
+      <c r="E2" s="82" t="n"/>
+      <c r="F2" s="95" t="n"/>
+      <c r="G2" s="95" t="n"/>
+      <c r="H2" s="95" t="n"/>
+      <c r="I2" s="95" t="n"/>
+      <c r="J2" s="95" t="n"/>
+      <c r="K2" s="95" t="n"/>
+      <c r="L2" s="95" t="n"/>
+      <c r="M2" s="95" t="n"/>
+      <c r="N2" s="95" t="n"/>
+      <c r="O2" s="95" t="n"/>
+      <c r="P2" s="95" t="n"/>
+      <c r="Q2" s="95" t="n"/>
+      <c r="R2" s="95" t="n"/>
+      <c r="S2" s="95" t="n"/>
+      <c r="T2" s="95" t="n"/>
+      <c r="U2" s="95" t="n"/>
+      <c r="V2" s="82" t="n"/>
+      <c r="W2" s="82" t="n"/>
+      <c r="X2" s="82" t="n"/>
+      <c r="Y2" s="82" t="n"/>
+      <c r="Z2" s="82" t="n"/>
+      <c r="AA2" s="82" t="n"/>
+      <c r="AB2" s="82" t="n"/>
+      <c r="AC2" s="82" t="n"/>
+      <c r="AD2" s="82" t="n"/>
+      <c r="AE2" s="82" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="82" t="n"/>
+      <c r="B3" s="82" t="n"/>
+      <c r="C3" s="82" t="n"/>
+      <c r="D3" s="82" t="n"/>
+      <c r="E3" s="82" t="n"/>
+      <c r="F3" s="95" t="n"/>
+      <c r="G3" s="95" t="n"/>
+      <c r="H3" s="95" t="n"/>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="95" t="n"/>
+      <c r="M3" s="95" t="n"/>
+      <c r="N3" s="95" t="n"/>
+      <c r="O3" s="95" t="n"/>
+      <c r="P3" s="95" t="n"/>
+      <c r="Q3" s="95" t="n"/>
+      <c r="R3" s="95" t="n"/>
+      <c r="S3" s="95" t="n"/>
+      <c r="T3" s="95" t="n"/>
+      <c r="U3" s="95" t="n"/>
+      <c r="V3" s="82" t="n"/>
+      <c r="W3" s="82" t="n"/>
+      <c r="X3" s="82" t="n"/>
+      <c r="Y3" s="82" t="n"/>
+      <c r="Z3" s="82" t="n"/>
+      <c r="AA3" s="82" t="n"/>
+      <c r="AB3" s="82" t="n"/>
+      <c r="AC3" s="82" t="n"/>
+      <c r="AD3" s="82" t="n"/>
+      <c r="AE3" s="82" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="82" t="n"/>
+      <c r="B4" s="82" t="n"/>
+      <c r="C4" s="82" t="n"/>
+      <c r="D4" s="82" t="inlineStr">
+        <is>
+          <t>SI : groupe 1</t>
+        </is>
+      </c>
+      <c r="F4" s="95" t="n"/>
+      <c r="G4" s="95" t="n"/>
+      <c r="H4" s="95" t="n"/>
+      <c r="I4" s="95" t="n"/>
+      <c r="J4" s="95" t="n"/>
+      <c r="K4" s="95" t="n"/>
+      <c r="L4" s="95" t="n"/>
+      <c r="M4" s="95" t="n"/>
+      <c r="N4" s="95" t="n"/>
+      <c r="O4" s="95" t="n"/>
+      <c r="P4" s="95" t="n"/>
+      <c r="Q4" s="95" t="n"/>
+      <c r="R4" s="95" t="n"/>
+      <c r="S4" s="95" t="n"/>
+      <c r="T4" s="95" t="n"/>
+      <c r="U4" s="95" t="n"/>
+      <c r="V4" s="82" t="n"/>
+      <c r="AD4" s="82" t="n"/>
+      <c r="AE4" s="82" t="n"/>
+      <c r="AG4" s="84" t="n"/>
+      <c r="AI4" s="84" t="n"/>
+      <c r="AK4" s="84" t="n"/>
+      <c r="AM4" s="84" t="n"/>
+      <c r="AO4" s="84" t="n"/>
+      <c r="AQ4" s="84" t="n"/>
+      <c r="AS4" s="84" t="n"/>
+      <c r="AU4" s="84" t="n"/>
+      <c r="AW4" s="84" t="n"/>
+      <c r="AY4" s="84" t="n"/>
+      <c r="BA4" s="84" t="n"/>
+      <c r="BC4" s="84" t="n"/>
+      <c r="BE4" s="84" t="n"/>
+      <c r="BG4" s="84" t="n"/>
+      <c r="BI4" s="84" t="n"/>
+      <c r="BK4" s="84" t="n"/>
+      <c r="BM4" s="84" t="n"/>
+      <c r="BO4" s="84" t="n"/>
+      <c r="BQ4" s="84" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="82" t="n"/>
+      <c r="B5" s="82" t="n"/>
+      <c r="C5" s="82" t="n"/>
+      <c r="D5" s="82" t="inlineStr">
+        <is>
+          <t>LV2 : groupes 2,3,4</t>
+        </is>
+      </c>
+      <c r="F5" s="96" t="n"/>
+      <c r="G5" s="96" t="n"/>
+      <c r="H5" s="96" t="n"/>
+      <c r="I5" s="96" t="n"/>
+      <c r="J5" s="96" t="n"/>
+      <c r="K5" s="96" t="n"/>
+      <c r="L5" s="96" t="n"/>
+      <c r="M5" s="96" t="n"/>
+      <c r="N5" s="96" t="n"/>
+      <c r="O5" s="96" t="n"/>
+      <c r="P5" s="96" t="n"/>
+      <c r="Q5" s="96" t="n"/>
+      <c r="R5" s="96" t="n"/>
+      <c r="S5" s="96" t="n"/>
+      <c r="T5" s="96" t="n"/>
+      <c r="U5" s="96" t="n"/>
+      <c r="V5" s="82" t="n"/>
+      <c r="AD5" s="82" t="n"/>
+      <c r="AE5" s="82" t="n"/>
+      <c r="AG5" s="84" t="n"/>
+      <c r="AI5" s="84" t="n"/>
+      <c r="AK5" s="84" t="n"/>
+      <c r="AM5" s="84" t="n"/>
+      <c r="AO5" s="84" t="n"/>
+      <c r="AQ5" s="84" t="n"/>
+      <c r="AS5" s="84" t="n"/>
+      <c r="AU5" s="84" t="n"/>
+      <c r="AW5" s="84" t="n"/>
+      <c r="AY5" s="84" t="n"/>
+      <c r="BA5" s="84" t="n"/>
+      <c r="BC5" s="84" t="n"/>
+      <c r="BE5" s="84" t="n"/>
+      <c r="BG5" s="84" t="n"/>
+      <c r="BI5" s="84" t="n"/>
+      <c r="BK5" s="84" t="n"/>
+      <c r="BM5" s="84" t="n"/>
+      <c r="BO5" s="84" t="n"/>
+      <c r="BQ5" s="84" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="85" t="n"/>
+      <c r="B6" s="85" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="C6" s="85" t="inlineStr">
+        <is>
+          <t>Jour</t>
+        </is>
+      </c>
+      <c r="D6" s="85" t="inlineStr">
+        <is>
+          <t>Heure</t>
+        </is>
+      </c>
+      <c r="E6" s="85" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="F6" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="R6" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="S6" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="U6" s="85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V6" s="82" t="n"/>
+      <c r="AD6" s="82" t="n"/>
+      <c r="AE6" s="82" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="88">
+      <c r="A7" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B7" s="85" t="inlineStr">
+        <is>
+          <t>Mr Bouverot</t>
+        </is>
+      </c>
+      <c r="C7" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D7" s="85" t="inlineStr">
+        <is>
+          <t>14h-15h</t>
+        </is>
+      </c>
+      <c r="E7" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" s="86" t="n"/>
+      <c r="N7" s="86" t="n"/>
+      <c r="O7" s="86" t="n"/>
+      <c r="P7" s="86" t="n"/>
+      <c r="Q7" s="86" t="n"/>
+      <c r="R7" s="86" t="n"/>
+      <c r="S7" s="86" t="n"/>
+      <c r="T7" s="86" t="n"/>
+      <c r="U7" s="86" t="n"/>
+      <c r="V7" s="87" t="n"/>
+      <c r="AD7" s="87" t="n"/>
+      <c r="AE7" s="87" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="88">
+      <c r="A8" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B8" s="85" t="inlineStr">
+        <is>
+          <t>Mr Bouverot</t>
+        </is>
+      </c>
+      <c r="C8" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D8" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E8" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="L8" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" s="86" t="n"/>
+      <c r="N8" s="86" t="n"/>
+      <c r="O8" s="86" t="n"/>
+      <c r="P8" s="86" t="n"/>
+      <c r="Q8" s="86" t="n"/>
+      <c r="R8" s="86" t="n"/>
+      <c r="S8" s="86" t="n"/>
+      <c r="T8" s="86" t="n"/>
+      <c r="U8" s="86" t="n"/>
+      <c r="V8" s="87" t="n"/>
+      <c r="AD8" s="87" t="n"/>
+      <c r="AE8" s="87" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="88">
+      <c r="A9" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B9" s="85" t="inlineStr">
+        <is>
+          <t>Mme Sabban</t>
+        </is>
+      </c>
+      <c r="C9" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D9" s="85" t="inlineStr">
+        <is>
+          <t>14h-15h</t>
+        </is>
+      </c>
+      <c r="E9" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="85" t="n"/>
+      <c r="G9" s="85" t="n"/>
+      <c r="H9" s="85" t="n"/>
+      <c r="I9" s="85" t="n"/>
+      <c r="J9" s="85" t="n"/>
+      <c r="K9" s="85" t="n"/>
+      <c r="L9" s="85" t="n"/>
+      <c r="M9" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="V9" s="87" t="n"/>
+      <c r="AD9" s="87" t="n"/>
+      <c r="AE9" s="87" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="88">
+      <c r="A10" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B10" s="85" t="inlineStr">
+        <is>
+          <t>Mme Sabban</t>
+        </is>
+      </c>
+      <c r="C10" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D10" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E10" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="85" t="n"/>
+      <c r="H10" s="85" t="n"/>
+      <c r="I10" s="85" t="n"/>
+      <c r="J10" s="85" t="n"/>
+      <c r="K10" s="85" t="n"/>
+      <c r="L10" s="85" t="n"/>
+      <c r="M10" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="N10" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="87" t="n"/>
+      <c r="AD10" s="87" t="n"/>
+      <c r="AE10" s="87" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B11" s="85" t="inlineStr">
+        <is>
+          <t>Mr Gallic</t>
+        </is>
+      </c>
+      <c r="C11" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D11" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="M11" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="V11" s="82" t="n"/>
+      <c r="AD11" s="82" t="n"/>
+      <c r="AE11" s="82" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="90">
+      <c r="A12" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B12" s="85" t="inlineStr">
+        <is>
+          <t>Mr Gallic</t>
+        </is>
+      </c>
+      <c r="C12" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D12" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E12" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="M12" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="N12" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="V12" s="89" t="n"/>
+      <c r="AD12" s="89" t="n"/>
+      <c r="AE12" s="89" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="90">
+      <c r="A13" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B13" s="85" t="inlineStr">
+        <is>
+          <t>Mr Pelletier</t>
+        </is>
+      </c>
+      <c r="C13" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D13" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E13" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="L13" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="N13" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="V13" s="89" t="n"/>
+      <c r="AD13" s="89" t="n"/>
+      <c r="AE13" s="89" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B14" s="85" t="inlineStr">
+        <is>
+          <t>Mme Lé-Nhu</t>
+        </is>
+      </c>
+      <c r="C14" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D14" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E14" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="N14" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="P14" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" s="82" t="n"/>
+      <c r="AD14" s="82" t="n"/>
+      <c r="AE14" s="82" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B15" s="85" t="inlineStr">
+        <is>
+          <t>Mme Lé-Nhu</t>
+        </is>
+      </c>
+      <c r="C15" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D15" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="O15" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="P15" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" s="82" t="n"/>
+      <c r="AD15" s="82" t="n"/>
+      <c r="AE15" s="82" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="92">
+      <c r="A16" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B16" s="85" t="inlineStr">
+        <is>
+          <t>Mme Mullaert</t>
+        </is>
+      </c>
+      <c r="C16" s="85" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D16" s="85" t="inlineStr">
+        <is>
+          <t>17h-19h</t>
+        </is>
+      </c>
+      <c r="E16" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="T16" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="U16" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="V16" s="91" t="n"/>
+      <c r="AD16" s="91" t="n"/>
+      <c r="AE16" s="91" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="92">
+      <c r="A17" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B17" s="85" t="inlineStr">
+        <is>
+          <t>Mme Mullaert</t>
+        </is>
+      </c>
+      <c r="C17" s="85" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D17" s="85" t="inlineStr">
+        <is>
+          <t>17h-19h</t>
+        </is>
+      </c>
+      <c r="E17" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="S17" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="T17" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="U17" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="V17" s="91" t="n"/>
+      <c r="AD17" s="91" t="n"/>
+      <c r="AE17" s="91" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B18" s="85" t="inlineStr">
+        <is>
+          <t>Mme Cissokho</t>
+        </is>
+      </c>
+      <c r="C18" s="85" t="inlineStr">
+        <is>
+          <t>Vendredi</t>
+        </is>
+      </c>
+      <c r="D18" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E18" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="S18" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="V18" s="82" t="n"/>
+      <c r="AD18" s="82" t="n"/>
+      <c r="AE18" s="82" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B19" s="85" t="inlineStr">
+        <is>
+          <t>Mme Cissokho</t>
+        </is>
+      </c>
+      <c r="C19" s="85" t="inlineStr">
+        <is>
+          <t>Vendredi</t>
+        </is>
+      </c>
+      <c r="D19" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E19" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="M19" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="U19" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="V19" s="82" t="n"/>
+      <c r="AD19" s="82" t="n"/>
+      <c r="AE19" s="82" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="88">
+      <c r="A20" s="85" t="inlineStr">
+        <is>
+          <t>MATHS</t>
+        </is>
+      </c>
+      <c r="B20" s="85" t="inlineStr">
+        <is>
+          <t>Mme Sabban</t>
+        </is>
+      </c>
+      <c r="C20" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D20" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E20" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="H20" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I20" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="N20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="O20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="P20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="R20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="S20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="V20" s="87" t="n"/>
+      <c r="AD20" s="87" t="n"/>
+      <c r="AE20" s="87" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="88">
+      <c r="A21" s="85" t="n"/>
+      <c r="B21" s="85" t="n"/>
+      <c r="C21" s="85" t="n"/>
+      <c r="D21" s="85" t="n"/>
+      <c r="E21" s="85" t="n"/>
+      <c r="F21" s="85" t="n"/>
+      <c r="G21" s="85" t="n"/>
+      <c r="H21" s="85" t="n"/>
+      <c r="I21" s="85" t="n"/>
+      <c r="J21" s="85" t="n"/>
+      <c r="K21" s="85" t="n"/>
+      <c r="L21" s="85" t="n"/>
+      <c r="M21" s="85" t="n"/>
+      <c r="N21" s="85" t="n"/>
+      <c r="O21" s="85" t="n"/>
+      <c r="P21" s="85" t="n"/>
+      <c r="Q21" s="85" t="n"/>
+      <c r="R21" s="85" t="n"/>
+      <c r="S21" s="85" t="n"/>
+      <c r="T21" s="85" t="n"/>
+      <c r="U21" s="85" t="n"/>
+      <c r="V21" s="87" t="n"/>
+      <c r="AD21" s="87" t="n"/>
+      <c r="AE21" s="87" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B22" s="85" t="inlineStr">
+        <is>
+          <t>Mr Poupy</t>
+        </is>
+      </c>
+      <c r="C22" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D22" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E22" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="L22" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="M22" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="R22" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="U22" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="82" t="n"/>
+      <c r="AD22" s="82" t="n"/>
+      <c r="AE22" s="82" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B23" s="85" t="inlineStr">
+        <is>
+          <t>Mr Poupy</t>
+        </is>
+      </c>
+      <c r="C23" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D23" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E23" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="K23" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="S23" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="T23" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" s="82" t="n"/>
+      <c r="AD23" s="82" t="n"/>
+      <c r="AE23" s="82" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B24" s="85" t="inlineStr">
+        <is>
+          <t>Mr Robin</t>
+        </is>
+      </c>
+      <c r="C24" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D24" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E24" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="H24" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="U24" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" s="82" t="n"/>
+      <c r="AD24" s="82" t="n"/>
+      <c r="AE24" s="82" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B25" s="85" t="inlineStr">
+        <is>
+          <t>Mme Chevalier</t>
+        </is>
+      </c>
+      <c r="C25" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D25" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E25" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="K25" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="M25" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="S25" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="U25" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" s="82" t="n"/>
+      <c r="AD25" s="82" t="n"/>
+      <c r="AE25" s="82" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B26" s="85" t="inlineStr">
+        <is>
+          <t>Mme Chevalier</t>
+        </is>
+      </c>
+      <c r="C26" s="85" t="inlineStr">
+        <is>
+          <t>lundi</t>
+        </is>
+      </c>
+      <c r="D26" s="85" t="inlineStr">
+        <is>
+          <t>13h-14h</t>
+        </is>
+      </c>
+      <c r="E26" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="G26" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="P26" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="R26" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="S26" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="U26" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" s="82" t="n"/>
+      <c r="AD26" s="82" t="n"/>
+      <c r="AE26" s="82" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B27" s="85" t="inlineStr">
+        <is>
+          <t>Mme Pourcelot d’Hennezel</t>
+        </is>
+      </c>
+      <c r="C27" s="85" t="inlineStr">
+        <is>
+          <t>mardi</t>
+        </is>
+      </c>
+      <c r="D27" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E27" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="G27" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="I27" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="M27" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="N27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="O27" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="S27" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="U27" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" s="82" t="n"/>
+      <c r="AD27" s="82" t="n"/>
+      <c r="AE27" s="82" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B28" s="85" t="inlineStr">
+        <is>
+          <t>Mme Chibani</t>
+        </is>
+      </c>
+      <c r="C28" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D28" s="85" t="inlineStr">
+        <is>
+          <t>14h-15h</t>
+        </is>
+      </c>
+      <c r="E28" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="I28" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="M28" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="N28" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="P28" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="U28" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" s="82" t="n"/>
+      <c r="AD28" s="82" t="n"/>
+      <c r="AE28" s="82" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="85" t="inlineStr">
+        <is>
+          <t>PHYSIQUE</t>
+        </is>
+      </c>
+      <c r="B29" s="85" t="inlineStr">
+        <is>
+          <t>Mme Chibani</t>
+        </is>
+      </c>
+      <c r="C29" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D29" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E29" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="M29" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="T29" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="V29" s="82" t="n"/>
+      <c r="W29" s="93" t="n"/>
+      <c r="X29" s="82" t="n"/>
+      <c r="Y29" s="82" t="n"/>
+      <c r="Z29" s="82" t="n"/>
+      <c r="AA29" s="82" t="n"/>
+      <c r="AB29" s="82" t="n"/>
+      <c r="AC29" s="82" t="n"/>
+      <c r="AD29" s="82" t="n"/>
+      <c r="AE29" s="82" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="85" t="n"/>
+      <c r="B30" s="85" t="n"/>
+      <c r="C30" s="85" t="n"/>
+      <c r="D30" s="85" t="n"/>
+      <c r="E30" s="85" t="n"/>
+      <c r="F30" s="85" t="n"/>
+      <c r="G30" s="85" t="n"/>
+      <c r="H30" s="85" t="n"/>
+      <c r="I30" s="85" t="n"/>
+      <c r="J30" s="85" t="n"/>
+      <c r="K30" s="85" t="n"/>
+      <c r="L30" s="85" t="n"/>
+      <c r="M30" s="85" t="n"/>
+      <c r="N30" s="85" t="n"/>
+      <c r="O30" s="85" t="n"/>
+      <c r="P30" s="85" t="n"/>
+      <c r="Q30" s="85" t="n"/>
+      <c r="R30" s="85" t="n"/>
+      <c r="S30" s="85" t="n"/>
+      <c r="T30" s="85" t="n"/>
+      <c r="U30" s="85" t="n"/>
+      <c r="V30" s="82" t="n"/>
+      <c r="W30" s="93" t="n"/>
+      <c r="X30" s="82" t="n"/>
+      <c r="Y30" s="82" t="n"/>
+      <c r="Z30" s="82" t="n"/>
+      <c r="AA30" s="82" t="n"/>
+      <c r="AB30" s="82" t="n"/>
+      <c r="AC30" s="82" t="n"/>
+      <c r="AD30" s="82" t="n"/>
+      <c r="AE30" s="82" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B31" s="85" t="inlineStr">
+        <is>
+          <t>Mr Gauvin</t>
+        </is>
+      </c>
+      <c r="C31" s="85" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D31" s="85" t="inlineStr">
+        <is>
+          <t>18h-19h</t>
+        </is>
+      </c>
+      <c r="E31" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="H31" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I31" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="K31" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="L31" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="P31" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="R31" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="T31" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="V31" s="82" t="n"/>
+      <c r="W31" s="82" t="n"/>
+      <c r="X31" s="82" t="n"/>
+      <c r="Y31" s="82" t="n"/>
+      <c r="Z31" s="82" t="n"/>
+      <c r="AA31" s="82" t="n"/>
+      <c r="AB31" s="82" t="n"/>
+      <c r="AC31" s="82" t="n"/>
+      <c r="AD31" s="82" t="n"/>
+      <c r="AE31" s="82" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B32" s="85" t="inlineStr">
+        <is>
+          <t>Mr Lattanzio</t>
+        </is>
+      </c>
+      <c r="C32" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D32" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E32" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="K32" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="L32" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="N32" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="P32" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="R32" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="V32" s="82" t="n"/>
+      <c r="W32" s="82" t="n"/>
+      <c r="X32" s="82" t="n"/>
+      <c r="Y32" s="82" t="n"/>
+      <c r="Z32" s="82" t="n"/>
+      <c r="AA32" s="82" t="n"/>
+      <c r="AB32" s="82" t="n"/>
+      <c r="AC32" s="82" t="n"/>
+      <c r="AD32" s="82" t="n"/>
+      <c r="AE32" s="82" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B33" s="85" t="inlineStr">
+        <is>
+          <t>Mme Kidscheid</t>
+        </is>
+      </c>
+      <c r="C33" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D33" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E33" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="N33" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="P33" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="R33" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="S33" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="T33" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="U33" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="V33" s="82" t="n"/>
+      <c r="W33" s="82" t="n"/>
+      <c r="X33" s="82" t="n"/>
+      <c r="Y33" s="82" t="n"/>
+      <c r="Z33" s="82" t="n"/>
+      <c r="AA33" s="82" t="n"/>
+      <c r="AB33" s="82" t="n"/>
+      <c r="AC33" s="82" t="n"/>
+      <c r="AD33" s="82" t="n"/>
+      <c r="AE33" s="82" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B34" s="85" t="inlineStr">
+        <is>
+          <t>Mme Semenova</t>
+        </is>
+      </c>
+      <c r="C34" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D34" s="85" t="inlineStr">
+        <is>
+          <t>15h-16h</t>
+        </is>
+      </c>
+      <c r="E34" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="H34" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="L34" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="P34" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="S34" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T34" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="V34" s="82" t="n"/>
+      <c r="W34" s="82" t="n"/>
+      <c r="X34" s="82" t="n"/>
+      <c r="Y34" s="82" t="n"/>
+      <c r="Z34" s="82" t="n"/>
+      <c r="AA34" s="82" t="n"/>
+      <c r="AB34" s="82" t="n"/>
+      <c r="AC34" s="82" t="n"/>
+      <c r="AD34" s="82" t="n"/>
+      <c r="AE34" s="82" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B35" s="85" t="inlineStr">
+        <is>
+          <t>Mme Mann</t>
+        </is>
+      </c>
+      <c r="C35" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D35" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E35" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="I35" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J35" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M35" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="P35" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="R35" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="U35" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="V35" s="82" t="n"/>
+      <c r="W35" s="82" t="n"/>
+      <c r="X35" s="82" t="n"/>
+      <c r="Y35" s="82" t="n"/>
+      <c r="Z35" s="82" t="n"/>
+      <c r="AA35" s="82" t="n"/>
+      <c r="AB35" s="82" t="n"/>
+      <c r="AC35" s="82" t="n"/>
+      <c r="AD35" s="82" t="n"/>
+      <c r="AE35" s="82" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B36" s="85" t="inlineStr">
+        <is>
+          <t>Mme Mann</t>
+        </is>
+      </c>
+      <c r="C36" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D36" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E36" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="H36" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="M36" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="N36" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="O36" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="P36" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="R36" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="T36" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="U36" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="V36" s="82" t="n"/>
+      <c r="W36" s="82" t="n"/>
+      <c r="X36" s="82" t="n"/>
+      <c r="Y36" s="82" t="n"/>
+      <c r="Z36" s="82" t="n"/>
+      <c r="AA36" s="82" t="n"/>
+      <c r="AB36" s="82" t="n"/>
+      <c r="AC36" s="82" t="n"/>
+      <c r="AD36" s="82" t="n"/>
+      <c r="AE36" s="82" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B37" s="85" t="inlineStr">
+        <is>
+          <t>Mme Quintin</t>
+        </is>
+      </c>
+      <c r="C37" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D37" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E37" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="H37" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="L37" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="M37" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="N37" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="O37" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="R37" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" s="82" t="n"/>
+      <c r="W37" s="82" t="n"/>
+      <c r="X37" s="82" t="n"/>
+      <c r="Y37" s="82" t="n"/>
+      <c r="Z37" s="82" t="n"/>
+      <c r="AA37" s="82" t="n"/>
+      <c r="AB37" s="82" t="n"/>
+      <c r="AC37" s="82" t="n"/>
+      <c r="AD37" s="82" t="n"/>
+      <c r="AE37" s="82" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="85" t="inlineStr">
+        <is>
+          <t>ANGLAIS</t>
+        </is>
+      </c>
+      <c r="B38" s="85" t="inlineStr">
+        <is>
+          <t>Mme Belaggoune</t>
+        </is>
+      </c>
+      <c r="C38" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D38" s="85" t="inlineStr">
+        <is>
+          <t>17h-18h</t>
+        </is>
+      </c>
+      <c r="E38" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" s="85" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J38" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="L38" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="N38" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="P38" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="R38" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="T38" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" s="82" t="n"/>
+      <c r="W38" s="82" t="n"/>
+      <c r="X38" s="82" t="n"/>
+      <c r="Y38" s="82" t="n"/>
+      <c r="Z38" s="82" t="n"/>
+      <c r="AA38" s="82" t="n"/>
+      <c r="AB38" s="82" t="n"/>
+      <c r="AC38" s="82" t="n"/>
+      <c r="AD38" s="82" t="n"/>
+      <c r="AE38" s="82" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="85" t="n"/>
+      <c r="B39" s="85" t="n"/>
+      <c r="C39" s="85" t="n"/>
+      <c r="D39" s="85" t="n"/>
+      <c r="E39" s="85" t="n"/>
+      <c r="F39" s="85" t="n"/>
+      <c r="G39" s="85" t="n"/>
+      <c r="H39" s="85" t="n"/>
+      <c r="I39" s="85" t="n"/>
+      <c r="J39" s="85" t="n"/>
+      <c r="K39" s="85" t="n"/>
+      <c r="L39" s="85" t="n"/>
+      <c r="M39" s="85" t="n"/>
+      <c r="N39" s="85" t="n"/>
+      <c r="O39" s="85" t="n"/>
+      <c r="P39" s="85" t="n"/>
+      <c r="Q39" s="85" t="n"/>
+      <c r="R39" s="85" t="n"/>
+      <c r="S39" s="85" t="n"/>
+      <c r="T39" s="85" t="n"/>
+      <c r="U39" s="85" t="n"/>
+      <c r="V39" s="82" t="n"/>
+      <c r="W39" s="82" t="n"/>
+      <c r="X39" s="82" t="n"/>
+      <c r="Y39" s="82" t="n"/>
+      <c r="Z39" s="82" t="n"/>
+      <c r="AA39" s="82" t="n"/>
+      <c r="AB39" s="82" t="n"/>
+      <c r="AC39" s="82" t="n"/>
+      <c r="AD39" s="82" t="n"/>
+      <c r="AE39" s="82" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="85" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="B40" s="85" t="inlineStr">
+        <is>
+          <t>Mr Jospin</t>
+        </is>
+      </c>
+      <c r="C40" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D40" s="85" t="inlineStr">
+        <is>
+          <t>16h-17h</t>
+        </is>
+      </c>
+      <c r="E40" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="H40" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" s="86" t="n"/>
+      <c r="N40" s="86" t="n"/>
+      <c r="O40" s="86" t="n"/>
+      <c r="P40" s="86" t="n"/>
+      <c r="Q40" s="86" t="n"/>
+      <c r="R40" s="86" t="n"/>
+      <c r="S40" s="86" t="n"/>
+      <c r="T40" s="86" t="n"/>
+      <c r="U40" s="85" t="n"/>
+      <c r="V40" s="82" t="n"/>
+      <c r="W40" s="82" t="n"/>
+      <c r="X40" s="82" t="n"/>
+      <c r="Y40" s="82" t="n"/>
+      <c r="Z40" s="82" t="n"/>
+      <c r="AA40" s="82" t="n"/>
+      <c r="AB40" s="82" t="n"/>
+      <c r="AC40" s="82" t="n"/>
+      <c r="AD40" s="82" t="n"/>
+      <c r="AE40" s="82" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="85" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="B41" s="85" t="inlineStr">
+        <is>
+          <t>Mr Jospin</t>
+        </is>
+      </c>
+      <c r="C41" s="85" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D41" s="85" t="inlineStr">
+        <is>
+          <t>12h-13h</t>
+        </is>
+      </c>
+      <c r="E41" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="86" t="n"/>
+      <c r="G41" s="86" t="n"/>
+      <c r="H41" s="86" t="n"/>
+      <c r="I41" s="86" t="n"/>
+      <c r="J41" s="86" t="n"/>
+      <c r="K41" s="86" t="n"/>
+      <c r="L41" s="86" t="n"/>
+      <c r="M41" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="N41" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="O41" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="U41" s="85" t="n"/>
+      <c r="V41" s="82" t="n"/>
+      <c r="W41" s="82" t="n"/>
+      <c r="X41" s="82" t="n"/>
+      <c r="Y41" s="82" t="n"/>
+      <c r="Z41" s="82" t="n"/>
+      <c r="AA41" s="82" t="n"/>
+      <c r="AB41" s="82" t="n"/>
+      <c r="AC41" s="82" t="n"/>
+      <c r="AD41" s="82" t="n"/>
+      <c r="AE41" s="82" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="85" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="B42" s="85" t="inlineStr">
+        <is>
+          <t>Mr Jospin</t>
+        </is>
+      </c>
+      <c r="C42" s="85" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D42" s="85" t="inlineStr">
+        <is>
+          <t>13h-14h</t>
+        </is>
+      </c>
+      <c r="E42" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G42" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="H42" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I42" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="L42" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="N42" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="O42" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="P42" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="S42" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="T42" s="85" t="n"/>
+      <c r="U42" s="85" t="n"/>
+      <c r="V42" s="82" t="n"/>
+      <c r="W42" s="82" t="n"/>
+      <c r="X42" s="82" t="n"/>
+      <c r="Y42" s="82" t="n"/>
+      <c r="Z42" s="82" t="n"/>
+      <c r="AA42" s="82" t="n"/>
+      <c r="AB42" s="82" t="n"/>
+      <c r="AC42" s="82" t="n"/>
+      <c r="AD42" s="82" t="n"/>
+      <c r="AE42" s="82" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B43" s="85" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C43" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D43" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E43" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="G43" s="85" t="n"/>
+      <c r="H43" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="85" t="n"/>
+      <c r="J43" s="85" t="n">
+        <v>13</v>
+      </c>
+      <c r="K43" s="85" t="n"/>
+      <c r="L43" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" s="85" t="n"/>
+      <c r="N43" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O43" s="85" t="n"/>
+      <c r="P43" s="85" t="n"/>
+      <c r="Q43" s="85" t="n"/>
+      <c r="R43" s="85" t="n"/>
+      <c r="S43" s="85" t="n"/>
+      <c r="T43" s="85" t="n"/>
+      <c r="U43" s="85" t="n"/>
+      <c r="V43" s="82" t="n"/>
+      <c r="W43" s="82" t="n"/>
+      <c r="X43" s="82" t="n"/>
+      <c r="Y43" s="82" t="n"/>
+      <c r="Z43" s="82" t="n"/>
+      <c r="AA43" s="82" t="n"/>
+      <c r="AB43" s="82" t="n"/>
+      <c r="AC43" s="82" t="n"/>
+      <c r="AD43" s="82" t="n"/>
+      <c r="AE43" s="82" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B44" s="85" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C44" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D44" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E44" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" s="85" t="n"/>
+      <c r="H44" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" s="85" t="n"/>
+      <c r="J44" s="85" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" s="85" t="n"/>
+      <c r="L44" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="M44" s="85" t="n"/>
+      <c r="N44" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="O44" s="85" t="n"/>
+      <c r="P44" s="85" t="n"/>
+      <c r="Q44" s="85" t="n"/>
+      <c r="R44" s="85" t="n"/>
+      <c r="S44" s="85" t="n"/>
+      <c r="T44" s="85" t="n"/>
+      <c r="U44" s="85" t="n"/>
+      <c r="V44" s="82" t="n"/>
+      <c r="W44" s="82" t="n"/>
+      <c r="X44" s="82" t="n"/>
+      <c r="Y44" s="82" t="n"/>
+      <c r="Z44" s="82" t="n"/>
+      <c r="AA44" s="82" t="n"/>
+      <c r="AB44" s="82" t="n"/>
+      <c r="AC44" s="82" t="n"/>
+      <c r="AD44" s="82" t="n"/>
+      <c r="AE44" s="82" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B45" s="85" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C45" s="85" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D45" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E45" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" s="85" t="n"/>
+      <c r="H45" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I45" s="85" t="n"/>
+      <c r="J45" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="K45" s="85" t="n"/>
+      <c r="L45" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" s="85" t="n"/>
+      <c r="N45" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" s="85" t="n"/>
+      <c r="P45" s="85" t="n"/>
+      <c r="Q45" s="85" t="n"/>
+      <c r="R45" s="85" t="n"/>
+      <c r="S45" s="85" t="n"/>
+      <c r="T45" s="85" t="n"/>
+      <c r="U45" s="85" t="n"/>
+      <c r="V45" s="82" t="n"/>
+      <c r="W45" s="82" t="n"/>
+      <c r="X45" s="82" t="n"/>
+      <c r="Y45" s="82" t="n"/>
+      <c r="Z45" s="82" t="n"/>
+      <c r="AA45" s="82" t="n"/>
+      <c r="AB45" s="82" t="n"/>
+      <c r="AC45" s="82" t="n"/>
+      <c r="AD45" s="82" t="n"/>
+      <c r="AE45" s="82" t="n"/>
+    </row>
+    <row r="46" ht="13" customFormat="1" customHeight="1" s="90">
+      <c r="A46" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B46" s="85" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C46" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D46" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E46" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="85" t="n"/>
+      <c r="G46" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" s="85" t="n"/>
+      <c r="I46" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" s="85" t="n"/>
+      <c r="K46" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" s="85" t="n"/>
+      <c r="M46" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="85" t="n"/>
+      <c r="O46" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="P46" s="85" t="n"/>
+      <c r="Q46" s="85" t="n"/>
+      <c r="R46" s="85" t="n"/>
+      <c r="S46" s="85" t="n"/>
+      <c r="T46" s="85" t="n"/>
+      <c r="U46" s="85" t="n"/>
+      <c r="V46" s="89" t="n"/>
+      <c r="W46" s="89" t="n"/>
+      <c r="X46" s="89" t="n"/>
+      <c r="Y46" s="89" t="n"/>
+      <c r="Z46" s="89" t="n"/>
+      <c r="AA46" s="89" t="n"/>
+      <c r="AB46" s="89" t="n"/>
+      <c r="AC46" s="89" t="n"/>
+      <c r="AD46" s="89" t="n"/>
+      <c r="AE46" s="89" t="n"/>
+    </row>
+    <row r="47" ht="13" customFormat="1" customHeight="1" s="90">
+      <c r="A47" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B47" s="85" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C47" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D47" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E47" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="85" t="n"/>
+      <c r="G47" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="H47" s="85" t="n"/>
+      <c r="I47" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" s="85" t="n"/>
+      <c r="K47" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="85" t="n"/>
+      <c r="M47" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" s="85" t="n"/>
+      <c r="O47" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="P47" s="85" t="n"/>
+      <c r="Q47" s="85" t="n"/>
+      <c r="R47" s="85" t="n"/>
+      <c r="S47" s="85" t="n"/>
+      <c r="T47" s="85" t="n"/>
+      <c r="U47" s="85" t="n"/>
+      <c r="V47" s="89" t="n"/>
+      <c r="W47" s="89" t="n"/>
+      <c r="X47" s="89" t="n"/>
+      <c r="Y47" s="89" t="n"/>
+      <c r="Z47" s="89" t="n"/>
+      <c r="AA47" s="89" t="n"/>
+      <c r="AB47" s="89" t="n"/>
+      <c r="AC47" s="89" t="n"/>
+      <c r="AD47" s="89" t="n"/>
+      <c r="AE47" s="89" t="n"/>
+    </row>
+    <row r="48" ht="13" customFormat="1" customHeight="1" s="90">
+      <c r="A48" s="85" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B48" s="85" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C48" s="85" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D48" s="85" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="E48" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="85" t="n"/>
+      <c r="G48" s="85" t="n">
+        <v>12</v>
+      </c>
+      <c r="H48" s="85" t="n"/>
+      <c r="I48" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" s="85" t="n"/>
+      <c r="K48" s="85" t="n">
+        <v>11</v>
+      </c>
+      <c r="L48" s="85" t="n"/>
+      <c r="M48" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" s="85" t="n"/>
+      <c r="O48" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="85" t="n"/>
+      <c r="Q48" s="85" t="n"/>
+      <c r="R48" s="85" t="n"/>
+      <c r="S48" s="85" t="n"/>
+      <c r="T48" s="85" t="n"/>
+      <c r="U48" s="85" t="n"/>
+      <c r="V48" s="89" t="n"/>
+      <c r="W48" s="89" t="n"/>
+      <c r="X48" s="89" t="n"/>
+      <c r="Y48" s="89" t="n"/>
+      <c r="Z48" s="89" t="n"/>
+      <c r="AA48" s="89" t="n"/>
+      <c r="AB48" s="89" t="n"/>
+      <c r="AC48" s="89" t="n"/>
+      <c r="AD48" s="89" t="n"/>
+      <c r="AE48" s="89" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="86" t="n"/>
+      <c r="B49" s="86" t="n"/>
+      <c r="C49" s="86" t="n"/>
+      <c r="D49" s="86" t="n"/>
+      <c r="E49" s="86" t="n"/>
+      <c r="F49" s="86" t="n"/>
+      <c r="G49" s="86" t="n"/>
+      <c r="H49" s="86" t="n"/>
+      <c r="I49" s="86" t="n"/>
+      <c r="J49" s="86" t="n"/>
+      <c r="K49" s="86" t="n"/>
+      <c r="L49" s="86" t="n"/>
+      <c r="M49" s="86" t="n"/>
+      <c r="N49" s="86" t="n"/>
+      <c r="O49" s="86" t="n"/>
+      <c r="P49" s="86" t="n"/>
+      <c r="Q49" s="86" t="n"/>
+      <c r="R49" s="86" t="n"/>
+      <c r="S49" s="86" t="n"/>
+      <c r="T49" s="86" t="n"/>
+      <c r="U49" s="86" t="n"/>
+      <c r="V49" s="82" t="n"/>
+      <c r="W49" s="82" t="n"/>
+      <c r="X49" s="82" t="n"/>
+      <c r="Y49" s="82" t="n"/>
+      <c r="Z49" s="82" t="n"/>
+      <c r="AA49" s="82" t="n"/>
+      <c r="AB49" s="82" t="n"/>
+      <c r="AC49" s="82" t="n"/>
+      <c r="AD49" s="82" t="n"/>
+      <c r="AE49" s="82" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="86" t="inlineStr">
+        <is>
+          <t>LETTRES</t>
+        </is>
+      </c>
+      <c r="B50" s="86" t="inlineStr">
+        <is>
+          <t>Mr Annoussamy</t>
+        </is>
+      </c>
+      <c r="C50" s="86" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D50" s="86" t="inlineStr">
+        <is>
+          <t>16h-17h30</t>
+        </is>
+      </c>
+      <c r="E50" s="86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G50" s="86" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" s="94" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="I50" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" s="86" t="n">
+        <v>9</v>
+      </c>
+      <c r="K50" s="86" t="n">
+        <v>12</v>
+      </c>
+      <c r="L50" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="86" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="P50" s="86" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S50" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T50" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U50" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V50" s="82" t="n"/>
+      <c r="W50" s="82" t="n"/>
+      <c r="X50" s="82" t="n"/>
+      <c r="Y50" s="82" t="n"/>
+      <c r="Z50" s="82" t="n"/>
+      <c r="AA50" s="82" t="n"/>
+      <c r="AB50" s="82" t="n"/>
+      <c r="AC50" s="82" t="n"/>
+      <c r="AD50" s="82" t="n"/>
+      <c r="AE50" s="82" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="86" t="inlineStr">
+        <is>
+          <t>LETTRES</t>
+        </is>
+      </c>
+      <c r="B51" s="86" t="inlineStr">
+        <is>
+          <t>Mr Annoussamy</t>
+        </is>
+      </c>
+      <c r="C51" s="86" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D51" s="86" t="inlineStr">
+        <is>
+          <t>17h30-19h</t>
+        </is>
+      </c>
+      <c r="E51" s="86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G51" s="94" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H51" s="86" t="n">
+        <v>12</v>
+      </c>
+      <c r="I51" s="86" t="n">
+        <v>14</v>
+      </c>
+      <c r="J51" s="86" t="n">
+        <v>7</v>
+      </c>
+      <c r="K51" s="94" t="inlineStr">
+        <is>
+          <t>13,3,5</t>
+        </is>
+      </c>
+      <c r="L51" s="86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" s="86" t="n">
+        <v>13</v>
+      </c>
+      <c r="N51" s="86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="P51" s="86" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="86" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S51" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T51" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U51" s="86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V51" s="82" t="n"/>
+      <c r="W51" s="82" t="n"/>
+      <c r="X51" s="82" t="n"/>
+      <c r="Y51" s="82" t="n"/>
+      <c r="Z51" s="82" t="n"/>
+      <c r="AA51" s="82" t="n"/>
+      <c r="AB51" s="82" t="n"/>
+      <c r="AC51" s="82" t="n"/>
+      <c r="AD51" s="82" t="n"/>
+      <c r="AE51" s="82" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="82" t="n"/>
+      <c r="B52" s="82" t="n"/>
+      <c r="C52" s="82" t="n"/>
+      <c r="D52" s="82" t="n"/>
+      <c r="E52" s="82" t="n"/>
+      <c r="F52" s="82" t="n"/>
+      <c r="G52" s="82" t="n"/>
+      <c r="H52" s="82" t="n"/>
+      <c r="I52" s="82" t="n"/>
+      <c r="J52" s="82" t="n"/>
+      <c r="K52" s="82" t="n"/>
+      <c r="L52" s="82" t="n"/>
+      <c r="M52" s="82" t="n"/>
+      <c r="N52" s="82" t="n"/>
+      <c r="O52" s="82" t="n"/>
+      <c r="P52" s="82" t="n"/>
+      <c r="Q52" s="82" t="n"/>
+      <c r="R52" s="82" t="n"/>
+      <c r="S52" s="82" t="n"/>
+      <c r="T52" s="82" t="n"/>
+      <c r="U52" s="82" t="n"/>
+      <c r="V52" s="82" t="n"/>
+      <c r="W52" s="82" t="n"/>
+      <c r="X52" s="82" t="n"/>
+      <c r="Y52" s="82" t="n"/>
+      <c r="Z52" s="82" t="n"/>
+      <c r="AA52" s="82" t="n"/>
+      <c r="AB52" s="82" t="n"/>
+      <c r="AC52" s="82" t="n"/>
+      <c r="AD52" s="82" t="n"/>
+      <c r="AE52" s="82" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="82" t="n"/>
+      <c r="B53" s="82" t="n"/>
+      <c r="C53" s="82" t="n"/>
+      <c r="D53" s="82" t="n"/>
+      <c r="E53" s="82" t="n"/>
+      <c r="F53" s="82" t="n"/>
+      <c r="G53" s="82" t="n"/>
+      <c r="H53" s="82" t="n"/>
+      <c r="I53" s="82" t="n"/>
+      <c r="J53" s="82" t="n"/>
+      <c r="K53" s="82" t="n"/>
+      <c r="L53" s="82" t="n"/>
+      <c r="M53" s="82" t="n"/>
+      <c r="N53" s="82" t="n"/>
+      <c r="O53" s="82" t="n"/>
+      <c r="P53" s="82" t="n"/>
+      <c r="Q53" s="82" t="n"/>
+      <c r="R53" s="82" t="n"/>
+      <c r="S53" s="82" t="n"/>
+      <c r="T53" s="82" t="n"/>
+      <c r="U53" s="82" t="n"/>
+      <c r="V53" s="82" t="n"/>
+      <c r="W53" s="82" t="n"/>
+      <c r="X53" s="82" t="n"/>
+      <c r="Y53" s="82" t="n"/>
+      <c r="Z53" s="82" t="n"/>
+      <c r="AA53" s="82" t="n"/>
+      <c r="AB53" s="82" t="n"/>
+      <c r="AC53" s="82" t="n"/>
+      <c r="AD53" s="82" t="n"/>
+      <c r="AE53" s="82" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="82" t="n"/>
+      <c r="V54" s="82" t="n"/>
+      <c r="W54" s="82" t="n"/>
+      <c r="X54" s="82" t="n"/>
+      <c r="Y54" s="82" t="n"/>
+      <c r="Z54" s="82" t="n"/>
+      <c r="AA54" s="82" t="n"/>
+      <c r="AB54" s="82" t="n"/>
+      <c r="AC54" s="82" t="n"/>
+      <c r="AD54" s="82" t="n"/>
+      <c r="AE54" s="82" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="82" t="n"/>
+      <c r="V55" s="82" t="n"/>
+      <c r="W55" s="82" t="n"/>
+      <c r="X55" s="82" t="n"/>
+      <c r="Y55" s="82" t="n"/>
+      <c r="Z55" s="82" t="n"/>
+      <c r="AA55" s="82" t="n"/>
+      <c r="AB55" s="82" t="n"/>
+      <c r="AC55" s="82" t="n"/>
+      <c r="AD55" s="82" t="n"/>
+      <c r="AE55" s="82" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="82" t="n"/>
+      <c r="V56" s="82" t="n"/>
+      <c r="W56" s="82" t="n"/>
+      <c r="X56" s="82" t="n"/>
+      <c r="Y56" s="82" t="n"/>
+      <c r="Z56" s="82" t="n"/>
+      <c r="AA56" s="82" t="n"/>
+      <c r="AB56" s="82" t="n"/>
+      <c r="AC56" s="82" t="n"/>
+      <c r="AD56" s="82" t="n"/>
+      <c r="AE56" s="82" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="82" t="n"/>
+      <c r="V57" s="82" t="n"/>
+      <c r="W57" s="82" t="n"/>
+      <c r="X57" s="82" t="n"/>
+      <c r="Y57" s="82" t="n"/>
+      <c r="Z57" s="82" t="n"/>
+      <c r="AA57" s="82" t="n"/>
+      <c r="AB57" s="82" t="n"/>
+      <c r="AC57" s="82" t="n"/>
+      <c r="AD57" s="82" t="n"/>
+      <c r="AE57" s="82" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="82" t="n"/>
+      <c r="V58" s="82" t="n"/>
+      <c r="W58" s="82" t="n"/>
+      <c r="X58" s="82" t="n"/>
+      <c r="Y58" s="82" t="n"/>
+      <c r="Z58" s="82" t="n"/>
+      <c r="AA58" s="82" t="n"/>
+      <c r="AB58" s="82" t="n"/>
+      <c r="AC58" s="82" t="n"/>
+      <c r="AD58" s="82" t="n"/>
+      <c r="AE58" s="82" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="82" t="n"/>
+      <c r="V59" s="82" t="n"/>
+      <c r="W59" s="82" t="n"/>
+      <c r="X59" s="82" t="n"/>
+      <c r="Y59" s="82" t="n"/>
+      <c r="Z59" s="82" t="n"/>
+      <c r="AA59" s="82" t="n"/>
+      <c r="AB59" s="82" t="n"/>
+      <c r="AC59" s="82" t="n"/>
+      <c r="AD59" s="82" t="n"/>
+      <c r="AE59" s="82" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="82" t="n"/>
+      <c r="V60" s="82" t="n"/>
+      <c r="W60" s="82" t="n"/>
+      <c r="X60" s="82" t="n"/>
+      <c r="Y60" s="82" t="n"/>
+      <c r="Z60" s="82" t="n"/>
+      <c r="AA60" s="82" t="n"/>
+      <c r="AB60" s="82" t="n"/>
+      <c r="AC60" s="82" t="n"/>
+      <c r="AD60" s="82" t="n"/>
+      <c r="AE60" s="82" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="82" t="n"/>
+      <c r="V61" s="82" t="n"/>
+      <c r="W61" s="82" t="n"/>
+      <c r="X61" s="82" t="n"/>
+      <c r="Y61" s="82" t="n"/>
+      <c r="Z61" s="82" t="n"/>
+      <c r="AA61" s="82" t="n"/>
+      <c r="AB61" s="82" t="n"/>
+      <c r="AC61" s="82" t="n"/>
+      <c r="AD61" s="82" t="n"/>
+      <c r="AE61" s="82" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="82" t="n"/>
+      <c r="V62" s="82" t="n"/>
+      <c r="W62" s="82" t="n"/>
+      <c r="X62" s="82" t="n"/>
+      <c r="Y62" s="82" t="n"/>
+      <c r="Z62" s="82" t="n"/>
+      <c r="AA62" s="82" t="n"/>
+      <c r="AB62" s="82" t="n"/>
+      <c r="AC62" s="82" t="n"/>
+      <c r="AD62" s="82" t="n"/>
+      <c r="AE62" s="82" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="82" t="n"/>
+      <c r="V63" s="82" t="n"/>
+      <c r="W63" s="82" t="n"/>
+      <c r="X63" s="82" t="n"/>
+      <c r="Y63" s="82" t="n"/>
+      <c r="Z63" s="82" t="n"/>
+      <c r="AA63" s="82" t="n"/>
+      <c r="AB63" s="82" t="n"/>
+      <c r="AC63" s="82" t="n"/>
+      <c r="AD63" s="82" t="n"/>
+      <c r="AE63" s="82" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="82" t="n"/>
+      <c r="V64" s="82" t="n"/>
+      <c r="W64" s="82" t="n"/>
+      <c r="X64" s="82" t="n"/>
+      <c r="Y64" s="82" t="n"/>
+      <c r="Z64" s="82" t="n"/>
+      <c r="AA64" s="82" t="n"/>
+      <c r="AB64" s="82" t="n"/>
+      <c r="AC64" s="82" t="n"/>
+      <c r="AD64" s="82" t="n"/>
+      <c r="AE64" s="82" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="82" t="n"/>
+      <c r="V65" s="82" t="n"/>
+      <c r="W65" s="82" t="n"/>
+      <c r="X65" s="82" t="n"/>
+      <c r="Y65" s="82" t="n"/>
+      <c r="Z65" s="82" t="n"/>
+      <c r="AA65" s="82" t="n"/>
+      <c r="AB65" s="82" t="n"/>
+      <c r="AC65" s="82" t="n"/>
+      <c r="AD65" s="82" t="n"/>
+      <c r="AE65" s="82" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="82" t="n"/>
+      <c r="V66" s="82" t="n"/>
+      <c r="W66" s="82" t="n"/>
+      <c r="X66" s="82" t="n"/>
+      <c r="Y66" s="82" t="n"/>
+      <c r="Z66" s="82" t="n"/>
+      <c r="AA66" s="82" t="n"/>
+      <c r="AB66" s="82" t="n"/>
+      <c r="AC66" s="82" t="n"/>
+      <c r="AD66" s="82" t="n"/>
+      <c r="AE66" s="82" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="82" t="n"/>
+      <c r="V67" s="82" t="n"/>
+      <c r="W67" s="82" t="n"/>
+      <c r="X67" s="82" t="n"/>
+      <c r="Y67" s="82" t="n"/>
+      <c r="Z67" s="82" t="n"/>
+      <c r="AA67" s="82" t="n"/>
+      <c r="AB67" s="82" t="n"/>
+      <c r="AC67" s="82" t="n"/>
+      <c r="AD67" s="82" t="n"/>
+      <c r="AE67" s="82" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="82" t="n"/>
+      <c r="V68" s="82" t="n"/>
+      <c r="W68" s="82" t="n"/>
+      <c r="X68" s="82" t="n"/>
+      <c r="Y68" s="82" t="n"/>
+      <c r="Z68" s="82" t="n"/>
+      <c r="AA68" s="82" t="n"/>
+      <c r="AB68" s="82" t="n"/>
+      <c r="AC68" s="82" t="n"/>
+      <c r="AD68" s="82" t="n"/>
+      <c r="AE68" s="82" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="82" t="n"/>
+      <c r="V69" s="82" t="n"/>
+      <c r="W69" s="82" t="n"/>
+      <c r="X69" s="82" t="n"/>
+      <c r="Y69" s="82" t="n"/>
+      <c r="Z69" s="82" t="n"/>
+      <c r="AA69" s="82" t="n"/>
+      <c r="AB69" s="82" t="n"/>
+      <c r="AC69" s="82" t="n"/>
+      <c r="AD69" s="82" t="n"/>
+      <c r="AE69" s="82" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="82" t="n"/>
+      <c r="V70" s="82" t="n"/>
+      <c r="W70" s="82" t="n"/>
+      <c r="X70" s="82" t="n"/>
+      <c r="Y70" s="82" t="n"/>
+      <c r="Z70" s="82" t="n"/>
+      <c r="AA70" s="82" t="n"/>
+      <c r="AB70" s="82" t="n"/>
+      <c r="AC70" s="82" t="n"/>
+      <c r="AD70" s="82" t="n"/>
+      <c r="AE70" s="82" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="82" t="n"/>
+      <c r="V71" s="82" t="n"/>
+      <c r="W71" s="82" t="n"/>
+      <c r="X71" s="82" t="n"/>
+      <c r="Y71" s="82" t="n"/>
+      <c r="Z71" s="82" t="n"/>
+      <c r="AA71" s="82" t="n"/>
+      <c r="AB71" s="82" t="n"/>
+      <c r="AC71" s="82" t="n"/>
+      <c r="AD71" s="82" t="n"/>
+      <c r="AE71" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="L1:L5"/>
+    <mergeCell ref="N1:N5"/>
+    <mergeCell ref="T1:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="I1:I5"/>
+    <mergeCell ref="S1:S5"/>
+    <mergeCell ref="U1:U5"/>
+    <mergeCell ref="F1:F5"/>
+    <mergeCell ref="H1:H5"/>
+    <mergeCell ref="J1:J5"/>
+    <mergeCell ref="P1:P5"/>
+    <mergeCell ref="R1:R5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K1:K5"/>
+    <mergeCell ref="M1:M5"/>
+    <mergeCell ref="O1:O5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="Q1:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/colloscope.xlsx
+++ b/colloscope.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groupes" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,11 +17,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="hh\:mm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
@@ -177,8 +179,30 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Liberation Sans"/>
-      <color rgb="FFFF4000"/>
+      <name val="Arial MT"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial MT"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial MT"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial MT"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial MT"/>
+      <family val="2"/>
+      <color rgb="FFFF3F00"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -339,15 +363,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -368,11 +383,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -566,16 +590,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -599,11 +615,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,14 +1019,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col width="22" customWidth="1" style="80" min="2" max="2"/>
-    <col width="11.83203125" customWidth="1" style="80" min="3" max="3"/>
-    <col width="23.33203125" customWidth="1" style="80" min="6" max="6"/>
-    <col width="13.6640625" customWidth="1" style="80" min="10" max="10"/>
-    <col width="21.33203125" customWidth="1" style="80" min="14" max="14"/>
+    <col width="22" customWidth="1" style="91" min="2" max="2"/>
+    <col width="11.83203125" customWidth="1" style="91" min="3" max="3"/>
+    <col width="23.33203125" customWidth="1" style="91" min="6" max="6"/>
+    <col width="13.6640625" customWidth="1" style="91" min="10" max="10"/>
+    <col width="21.33203125" customWidth="1" style="91" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15.75" customHeight="1" s="80">
+    <row r="4" ht="15.75" customHeight="1" s="91">
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BERTHONNEAU--DUTAIX</t>
@@ -1026,7 +1068,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="80">
+    <row r="5" ht="15.75" customHeight="1" s="91">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Groupe 1</t>
@@ -1088,7 +1130,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="80">
+    <row r="6" ht="15.75" customHeight="1" s="91">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -1134,13 +1176,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="80">
+    <row r="7" ht="15.75" customHeight="1" s="91">
       <c r="A7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="80">
+    <row r="8" ht="15.75" customHeight="1" s="91">
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -1186,7 +1228,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="80">
+    <row r="9" ht="15.75" customHeight="1" s="91">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Groupe 2</t>
@@ -1248,7 +1290,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="80">
+    <row r="10" ht="15.75" customHeight="1" s="91">
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -1294,13 +1336,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="80">
+    <row r="11" ht="15.75" customHeight="1" s="91">
       <c r="A11" s="3" t="n"/>
       <c r="E11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
       <c r="M11" s="3" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="80">
+    <row r="12" ht="15.75" customHeight="1" s="91">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -1346,7 +1388,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="80">
+    <row r="13" ht="15.75" customHeight="1" s="91">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Groupe 3</t>
@@ -1408,7 +1450,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="80">
+    <row r="14" ht="15.75" customHeight="1" s="91">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
@@ -1454,13 +1496,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="80">
+    <row r="15" ht="15.75" customHeight="1" s="91">
       <c r="A15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="M15" s="3" t="n"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="80">
+    <row r="16" ht="15.75" customHeight="1" s="91">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
@@ -1506,7 +1548,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="80">
+    <row r="17" ht="15.75" customHeight="1" s="91">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Groupe 4</t>
@@ -1568,7 +1610,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="80">
+    <row r="18" ht="15.75" customHeight="1" s="91">
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>LAMRANI</t>
@@ -1631,10 +1673,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col width="13.6640625" customWidth="1" style="80" min="2" max="2"/>
+    <col width="13.6640625" customWidth="1" style="91" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="80">
+    <row r="1" ht="15.75" customHeight="1" s="91">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Saint-Louis</t>
@@ -1644,13 +1686,13 @@
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="7" t="n"/>
-      <c r="F1" s="79" t="inlineStr">
+      <c r="F1" s="90" t="inlineStr">
         <is>
           <t>COLLOSCOPE MP2I 2024-2025</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="80">
+    <row r="2" ht="15.75" customHeight="1" s="91">
       <c r="A2" s="8" t="inlineStr">
         <is>
           <t>2024-2025</t>
@@ -1673,7 +1715,7 @@
       <c r="P2" s="6" t="n"/>
       <c r="Q2" s="6" t="n"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="80">
+    <row r="3" ht="15.75" customHeight="1" s="91">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>MP2I</t>
@@ -1734,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" s="80">
+    <row r="4" ht="30" customHeight="1" s="91">
       <c r="A4" s="15" t="n"/>
       <c r="B4" s="16" t="n"/>
       <c r="C4" s="6" t="n"/>
@@ -1821,7 +1863,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="80">
+    <row r="5" ht="15.75" customHeight="1" s="91">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Matière</t>
@@ -1928,7 +1970,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="80">
+    <row r="6" ht="15.75" customHeight="1" s="91">
       <c r="A6" s="24" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2003,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="80">
+    <row r="7" ht="15.75" customHeight="1" s="91">
       <c r="A7" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2078,7 +2120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="80">
+    <row r="8" ht="15.75" customHeight="1" s="91">
       <c r="A8" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2153,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="80">
+    <row r="9" ht="15.75" customHeight="1" s="91">
       <c r="A9" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2228,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="80">
+    <row r="10" ht="15.75" customHeight="1" s="91">
       <c r="A10" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2305,7 +2347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="80">
+    <row r="11" ht="15.75" customHeight="1" s="91">
       <c r="A11" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2382,7 +2424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="80">
+    <row r="12" ht="15.75" customHeight="1" s="91">
       <c r="A12" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2457,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="80">
+    <row r="13" ht="15.75" customHeight="1" s="91">
       <c r="A13" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2532,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="80">
+    <row r="14" ht="15.75" customHeight="1" s="91">
       <c r="A14" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2607,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="80">
+    <row r="15" ht="15.75" customHeight="1" s="91">
       <c r="A15" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2682,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="80">
+    <row r="16" ht="15.75" customHeight="1" s="91">
       <c r="A16" s="31" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2757,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="80">
+    <row r="17" ht="15.75" customHeight="1" s="91">
       <c r="A17" s="24" t="inlineStr">
         <is>
           <t>MATHS</t>
@@ -2832,7 +2874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="80">
+    <row r="18" ht="15.75" customHeight="1" s="91">
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="32" t="n"/>
       <c r="C18" s="33" t="n"/>
@@ -2855,7 +2897,7 @@
       <c r="T18" s="30" t="n"/>
       <c r="U18" s="30" t="n"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="80">
+    <row r="19" ht="15.75" customHeight="1" s="91">
       <c r="A19" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -2930,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="80">
+    <row r="20" ht="15.75" customHeight="1" s="91">
       <c r="A20" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3005,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="80">
+    <row r="21" ht="15.75" customHeight="1" s="91">
       <c r="A21" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3080,7 +3122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="80">
+    <row r="22" ht="15.75" customHeight="1" s="91">
       <c r="A22" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3155,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="80">
+    <row r="23" ht="15.75" customHeight="1" s="91">
       <c r="A23" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3230,7 +3272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="80">
+    <row r="24" ht="15.75" customHeight="1" s="91">
       <c r="A24" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3305,7 +3347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="80">
+    <row r="25" ht="15.75" customHeight="1" s="91">
       <c r="A25" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3380,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="80">
+    <row r="26" ht="15.75" customHeight="1" s="91">
       <c r="A26" s="37" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
@@ -3455,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="80">
+    <row r="27" ht="15.75" customHeight="1" s="91">
       <c r="A27" s="4" t="n"/>
       <c r="B27" s="32" t="n"/>
       <c r="C27" s="33" t="n"/>
@@ -3478,7 +3520,7 @@
       <c r="T27" s="30" t="n"/>
       <c r="U27" s="30" t="n"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="80">
+    <row r="28" ht="15.75" customHeight="1" s="91">
       <c r="A28" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3551,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="80">
+    <row r="29" ht="15.75" customHeight="1" s="91">
       <c r="A29" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3624,7 +3666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="80">
+    <row r="30" ht="15.75" customHeight="1" s="91">
       <c r="A30" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3697,7 +3739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="80">
+    <row r="31" ht="15.75" customHeight="1" s="91">
       <c r="A31" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3770,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="80">
+    <row r="32" ht="15.75" customHeight="1" s="91">
       <c r="A32" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3843,7 +3885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="80">
+    <row r="33" ht="15.75" customHeight="1" s="91">
       <c r="A33" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3916,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="80">
+    <row r="34" ht="15.75" customHeight="1" s="91">
       <c r="A34" s="43" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -3989,7 +4031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="80">
+    <row r="35" ht="15.75" customHeight="1" s="91">
       <c r="A35" s="51" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
@@ -4062,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="80">
+    <row r="36" ht="15.75" customHeight="1" s="91">
       <c r="A36" s="57" t="n"/>
       <c r="B36" s="57" t="n"/>
       <c r="C36" s="58" t="n"/>
@@ -4085,7 +4127,7 @@
       <c r="T36" s="30" t="n"/>
       <c r="U36" s="30" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="80">
+    <row r="37" ht="15.75" customHeight="1" s="91">
       <c r="A37" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
@@ -4143,7 +4185,7 @@
       <c r="U37" s="66" t="n"/>
       <c r="V37" s="67" t="n"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="80">
+    <row r="38" ht="15.75" customHeight="1" s="91">
       <c r="A38" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
@@ -4227,7 +4269,7 @@
       </c>
       <c r="V38" s="67" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="80">
+    <row r="39" ht="15.75" customHeight="1" s="91">
       <c r="A39" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
@@ -4303,7 +4345,7 @@
       </c>
       <c r="V39" s="67" t="n"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="80">
+    <row r="40" ht="15.75" customHeight="1" s="91">
       <c r="A40" s="60" t="inlineStr">
         <is>
           <t>Lettres</t>
@@ -4371,7 +4413,7 @@
       </c>
       <c r="V40" s="67" t="n"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1" s="80">
+    <row r="41" ht="15.75" customHeight="1" s="91">
       <c r="A41" s="73" t="n"/>
       <c r="B41" s="73" t="n"/>
       <c r="C41" s="74" t="n"/>
@@ -4394,7 +4436,7 @@
       <c r="U41" s="75" t="n"/>
       <c r="V41" s="67" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="80">
+    <row r="42" ht="15.75" customHeight="1" s="91">
       <c r="A42" s="76" t="inlineStr">
         <is>
           <t>Pour les colles de Mme Lé-Nhu:  # colles décalées de +30 minutes.</t>
@@ -4424,3835 +4466,4057 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ71"/>
+  <dimension ref="A1:BR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
   <cols>
-    <col width="28.33203125" customWidth="1" style="80" min="2" max="2"/>
-    <col width="14.83203125" customWidth="1" style="80" min="4" max="4"/>
-    <col width="7.1640625" customWidth="1" style="80" min="5" max="5"/>
-    <col width="4.1640625" customWidth="1" style="80" min="6" max="7"/>
-    <col width="6.83203125" customWidth="1" style="80" min="8" max="8"/>
-    <col width="3" customWidth="1" style="80" min="9" max="10"/>
-    <col width="7.83203125" customWidth="1" style="80" min="11" max="11"/>
-    <col width="3" customWidth="1" style="80" min="12" max="12"/>
-    <col width="4.1640625" customWidth="1" style="80" min="13" max="21"/>
-    <col width="16" customWidth="1" style="80" min="23" max="23"/>
-    <col width="15.6640625" customWidth="1" style="80" min="27" max="27"/>
+    <col width="28.33203125" customWidth="1" style="91" min="2" max="2"/>
+    <col width="14.83203125" customWidth="1" style="91" min="5" max="5"/>
+    <col width="7.1640625" customWidth="1" style="91" min="6" max="6"/>
+    <col width="4.1640625" customWidth="1" style="91" min="7" max="8"/>
+    <col width="6.83203125" customWidth="1" style="91" min="9" max="9"/>
+    <col width="3" customWidth="1" style="91" min="10" max="11"/>
+    <col width="7.83203125" customWidth="1" style="91" min="12" max="12"/>
+    <col width="3" customWidth="1" style="91" min="13" max="13"/>
+    <col width="4.1640625" customWidth="1" style="91" min="14" max="22"/>
+    <col width="16" customWidth="1" style="91" min="24" max="24"/>
+    <col width="15.6640625" customWidth="1" style="91" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="inlineStr">
+      <c r="A1" s="95" t="inlineStr">
         <is>
           <t>Colloscope</t>
         </is>
       </c>
-      <c r="B1" s="82" t="inlineStr">
+      <c r="B1" s="95" t="inlineStr">
         <is>
           <t>2024-2025</t>
         </is>
       </c>
-      <c r="C1" s="82" t="inlineStr">
+      <c r="C1" s="95" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="D1" s="82" t="inlineStr">
+      <c r="D1" s="95" t="n"/>
+      <c r="E1" s="95" t="inlineStr">
         <is>
           <t>MP2I Saint-Louis</t>
         </is>
       </c>
-      <c r="F1" s="83" t="n">
+      <c r="G1" s="92" t="n">
         <v>45691</v>
       </c>
-      <c r="G1" s="83" t="n">
+      <c r="H1" s="92" t="n">
         <v>45698</v>
       </c>
-      <c r="H1" s="83" t="n">
+      <c r="I1" s="92" t="n">
         <v>45719</v>
       </c>
-      <c r="I1" s="83" t="n">
+      <c r="J1" s="92" t="n">
         <v>45726</v>
       </c>
-      <c r="J1" s="83" t="n">
+      <c r="K1" s="92" t="n">
         <v>45733</v>
       </c>
-      <c r="K1" s="83" t="n">
+      <c r="L1" s="92" t="n">
         <v>45740</v>
       </c>
-      <c r="L1" s="83" t="n">
+      <c r="M1" s="92" t="n">
         <v>45747</v>
       </c>
-      <c r="M1" s="83" t="n">
+      <c r="N1" s="92" t="n">
         <v>45754</v>
       </c>
-      <c r="N1" s="83" t="n">
+      <c r="O1" s="92" t="n">
         <v>45775</v>
       </c>
-      <c r="O1" s="83" t="n">
+      <c r="P1" s="92" t="n">
         <v>45782</v>
       </c>
-      <c r="P1" s="83" t="n">
+      <c r="Q1" s="92" t="n">
         <v>45789</v>
       </c>
-      <c r="Q1" s="83" t="n">
+      <c r="R1" s="92" t="n">
         <v>45796</v>
       </c>
-      <c r="R1" s="83" t="n">
+      <c r="S1" s="92" t="n">
         <v>45803</v>
       </c>
-      <c r="S1" s="83" t="n">
+      <c r="T1" s="92" t="n">
         <v>45810</v>
       </c>
-      <c r="T1" s="83" t="n">
+      <c r="U1" s="92" t="n">
         <v>45817</v>
       </c>
-      <c r="U1" s="83" t="n">
+      <c r="V1" s="92" t="n">
         <v>45824</v>
       </c>
-      <c r="V1" s="82" t="n"/>
-      <c r="W1" s="82" t="n"/>
-      <c r="X1" s="82" t="n"/>
-      <c r="Y1" s="82" t="n"/>
-      <c r="Z1" s="82" t="n"/>
-      <c r="AA1" s="82" t="n"/>
-      <c r="AB1" s="82" t="n"/>
-      <c r="AC1" s="82" t="n"/>
-      <c r="AD1" s="82" t="n"/>
-      <c r="AE1" s="82" t="n"/>
+      <c r="W1" s="95" t="n"/>
+      <c r="X1" s="95" t="n"/>
+      <c r="Y1" s="95" t="n"/>
+      <c r="Z1" s="95" t="n"/>
+      <c r="AA1" s="95" t="n"/>
+      <c r="AB1" s="95" t="n"/>
+      <c r="AC1" s="95" t="n"/>
+      <c r="AD1" s="95" t="n"/>
+      <c r="AE1" s="95" t="n"/>
+      <c r="AF1" s="95" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="82" t="n"/>
-      <c r="B2" s="82" t="n"/>
-      <c r="C2" s="82" t="n"/>
-      <c r="D2" s="82" t="n"/>
-      <c r="E2" s="82" t="n"/>
+      <c r="A2" s="95" t="n"/>
+      <c r="B2" s="95" t="n"/>
+      <c r="C2" s="95" t="n"/>
+      <c r="D2" s="95" t="n"/>
+      <c r="E2" s="95" t="n"/>
       <c r="F2" s="95" t="n"/>
-      <c r="G2" s="95" t="n"/>
-      <c r="H2" s="95" t="n"/>
-      <c r="I2" s="95" t="n"/>
-      <c r="J2" s="95" t="n"/>
-      <c r="K2" s="95" t="n"/>
-      <c r="L2" s="95" t="n"/>
-      <c r="M2" s="95" t="n"/>
-      <c r="N2" s="95" t="n"/>
-      <c r="O2" s="95" t="n"/>
-      <c r="P2" s="95" t="n"/>
-      <c r="Q2" s="95" t="n"/>
-      <c r="R2" s="95" t="n"/>
-      <c r="S2" s="95" t="n"/>
-      <c r="T2" s="95" t="n"/>
-      <c r="U2" s="95" t="n"/>
-      <c r="V2" s="82" t="n"/>
-      <c r="W2" s="82" t="n"/>
-      <c r="X2" s="82" t="n"/>
-      <c r="Y2" s="82" t="n"/>
-      <c r="Z2" s="82" t="n"/>
-      <c r="AA2" s="82" t="n"/>
-      <c r="AB2" s="82" t="n"/>
-      <c r="AC2" s="82" t="n"/>
-      <c r="AD2" s="82" t="n"/>
-      <c r="AE2" s="82" t="n"/>
+      <c r="G2" s="93" t="n"/>
+      <c r="H2" s="93" t="n"/>
+      <c r="I2" s="93" t="n"/>
+      <c r="J2" s="93" t="n"/>
+      <c r="K2" s="93" t="n"/>
+      <c r="L2" s="93" t="n"/>
+      <c r="M2" s="93" t="n"/>
+      <c r="N2" s="93" t="n"/>
+      <c r="O2" s="93" t="n"/>
+      <c r="P2" s="93" t="n"/>
+      <c r="Q2" s="93" t="n"/>
+      <c r="R2" s="93" t="n"/>
+      <c r="S2" s="93" t="n"/>
+      <c r="T2" s="93" t="n"/>
+      <c r="U2" s="93" t="n"/>
+      <c r="V2" s="93" t="n"/>
+      <c r="W2" s="95" t="n"/>
+      <c r="X2" s="95" t="n"/>
+      <c r="Y2" s="95" t="n"/>
+      <c r="Z2" s="95" t="n"/>
+      <c r="AA2" s="95" t="n"/>
+      <c r="AB2" s="95" t="n"/>
+      <c r="AC2" s="95" t="n"/>
+      <c r="AD2" s="95" t="n"/>
+      <c r="AE2" s="95" t="n"/>
+      <c r="AF2" s="95" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="82" t="n"/>
-      <c r="B3" s="82" t="n"/>
-      <c r="C3" s="82" t="n"/>
-      <c r="D3" s="82" t="n"/>
-      <c r="E3" s="82" t="n"/>
+      <c r="A3" s="95" t="n"/>
+      <c r="B3" s="95" t="n"/>
+      <c r="C3" s="95" t="n"/>
+      <c r="D3" s="95" t="n"/>
+      <c r="E3" s="95" t="n"/>
       <c r="F3" s="95" t="n"/>
-      <c r="G3" s="95" t="n"/>
-      <c r="H3" s="95" t="n"/>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="95" t="n"/>
-      <c r="M3" s="95" t="n"/>
-      <c r="N3" s="95" t="n"/>
-      <c r="O3" s="95" t="n"/>
-      <c r="P3" s="95" t="n"/>
-      <c r="Q3" s="95" t="n"/>
-      <c r="R3" s="95" t="n"/>
-      <c r="S3" s="95" t="n"/>
-      <c r="T3" s="95" t="n"/>
-      <c r="U3" s="95" t="n"/>
-      <c r="V3" s="82" t="n"/>
-      <c r="W3" s="82" t="n"/>
-      <c r="X3" s="82" t="n"/>
-      <c r="Y3" s="82" t="n"/>
-      <c r="Z3" s="82" t="n"/>
-      <c r="AA3" s="82" t="n"/>
-      <c r="AB3" s="82" t="n"/>
-      <c r="AC3" s="82" t="n"/>
-      <c r="AD3" s="82" t="n"/>
-      <c r="AE3" s="82" t="n"/>
+      <c r="G3" s="93" t="n"/>
+      <c r="H3" s="93" t="n"/>
+      <c r="I3" s="93" t="n"/>
+      <c r="J3" s="93" t="n"/>
+      <c r="K3" s="93" t="n"/>
+      <c r="L3" s="93" t="n"/>
+      <c r="M3" s="93" t="n"/>
+      <c r="N3" s="93" t="n"/>
+      <c r="O3" s="93" t="n"/>
+      <c r="P3" s="93" t="n"/>
+      <c r="Q3" s="93" t="n"/>
+      <c r="R3" s="93" t="n"/>
+      <c r="S3" s="93" t="n"/>
+      <c r="T3" s="93" t="n"/>
+      <c r="U3" s="93" t="n"/>
+      <c r="V3" s="93" t="n"/>
+      <c r="W3" s="95" t="n"/>
+      <c r="X3" s="95" t="n"/>
+      <c r="Y3" s="95" t="n"/>
+      <c r="Z3" s="95" t="n"/>
+      <c r="AA3" s="95" t="n"/>
+      <c r="AB3" s="95" t="n"/>
+      <c r="AC3" s="95" t="n"/>
+      <c r="AD3" s="95" t="n"/>
+      <c r="AE3" s="95" t="n"/>
+      <c r="AF3" s="95" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="82" t="n"/>
-      <c r="B4" s="82" t="n"/>
-      <c r="C4" s="82" t="n"/>
-      <c r="D4" s="82" t="inlineStr">
+      <c r="A4" s="95" t="n"/>
+      <c r="B4" s="95" t="n"/>
+      <c r="C4" s="95" t="n"/>
+      <c r="D4" s="95" t="n"/>
+      <c r="E4" s="95" t="inlineStr">
         <is>
           <t>SI : groupe 1</t>
         </is>
       </c>
-      <c r="F4" s="95" t="n"/>
-      <c r="G4" s="95" t="n"/>
-      <c r="H4" s="95" t="n"/>
-      <c r="I4" s="95" t="n"/>
-      <c r="J4" s="95" t="n"/>
-      <c r="K4" s="95" t="n"/>
-      <c r="L4" s="95" t="n"/>
-      <c r="M4" s="95" t="n"/>
-      <c r="N4" s="95" t="n"/>
-      <c r="O4" s="95" t="n"/>
-      <c r="P4" s="95" t="n"/>
-      <c r="Q4" s="95" t="n"/>
-      <c r="R4" s="95" t="n"/>
-      <c r="S4" s="95" t="n"/>
-      <c r="T4" s="95" t="n"/>
-      <c r="U4" s="95" t="n"/>
-      <c r="V4" s="82" t="n"/>
-      <c r="AD4" s="82" t="n"/>
-      <c r="AE4" s="82" t="n"/>
-      <c r="AG4" s="84" t="n"/>
-      <c r="AI4" s="84" t="n"/>
-      <c r="AK4" s="84" t="n"/>
-      <c r="AM4" s="84" t="n"/>
-      <c r="AO4" s="84" t="n"/>
-      <c r="AQ4" s="84" t="n"/>
-      <c r="AS4" s="84" t="n"/>
-      <c r="AU4" s="84" t="n"/>
-      <c r="AW4" s="84" t="n"/>
-      <c r="AY4" s="84" t="n"/>
-      <c r="BA4" s="84" t="n"/>
-      <c r="BC4" s="84" t="n"/>
-      <c r="BE4" s="84" t="n"/>
-      <c r="BG4" s="84" t="n"/>
-      <c r="BI4" s="84" t="n"/>
-      <c r="BK4" s="84" t="n"/>
-      <c r="BM4" s="84" t="n"/>
-      <c r="BO4" s="84" t="n"/>
-      <c r="BQ4" s="84" t="n"/>
+      <c r="G4" s="93" t="n"/>
+      <c r="H4" s="93" t="n"/>
+      <c r="I4" s="93" t="n"/>
+      <c r="J4" s="93" t="n"/>
+      <c r="K4" s="93" t="n"/>
+      <c r="L4" s="93" t="n"/>
+      <c r="M4" s="93" t="n"/>
+      <c r="N4" s="93" t="n"/>
+      <c r="O4" s="93" t="n"/>
+      <c r="P4" s="93" t="n"/>
+      <c r="Q4" s="93" t="n"/>
+      <c r="R4" s="93" t="n"/>
+      <c r="S4" s="93" t="n"/>
+      <c r="T4" s="93" t="n"/>
+      <c r="U4" s="93" t="n"/>
+      <c r="V4" s="93" t="n"/>
+      <c r="W4" s="95" t="n"/>
+      <c r="AE4" s="95" t="n"/>
+      <c r="AF4" s="95" t="n"/>
+      <c r="AH4" s="80" t="n"/>
+      <c r="AJ4" s="80" t="n"/>
+      <c r="AL4" s="80" t="n"/>
+      <c r="AN4" s="80" t="n"/>
+      <c r="AP4" s="80" t="n"/>
+      <c r="AR4" s="80" t="n"/>
+      <c r="AT4" s="80" t="n"/>
+      <c r="AV4" s="80" t="n"/>
+      <c r="AX4" s="80" t="n"/>
+      <c r="AZ4" s="80" t="n"/>
+      <c r="BB4" s="80" t="n"/>
+      <c r="BD4" s="80" t="n"/>
+      <c r="BF4" s="80" t="n"/>
+      <c r="BH4" s="80" t="n"/>
+      <c r="BJ4" s="80" t="n"/>
+      <c r="BL4" s="80" t="n"/>
+      <c r="BN4" s="80" t="n"/>
+      <c r="BP4" s="80" t="n"/>
+      <c r="BR4" s="80" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="82" t="n"/>
-      <c r="B5" s="82" t="n"/>
-      <c r="C5" s="82" t="n"/>
-      <c r="D5" s="82" t="inlineStr">
+      <c r="A5" s="95" t="n"/>
+      <c r="B5" s="95" t="n"/>
+      <c r="C5" s="95" t="n"/>
+      <c r="D5" s="95" t="n"/>
+      <c r="E5" s="95" t="inlineStr">
         <is>
           <t>LV2 : groupes 2,3,4</t>
         </is>
       </c>
-      <c r="F5" s="96" t="n"/>
-      <c r="G5" s="96" t="n"/>
-      <c r="H5" s="96" t="n"/>
-      <c r="I5" s="96" t="n"/>
-      <c r="J5" s="96" t="n"/>
-      <c r="K5" s="96" t="n"/>
-      <c r="L5" s="96" t="n"/>
-      <c r="M5" s="96" t="n"/>
-      <c r="N5" s="96" t="n"/>
-      <c r="O5" s="96" t="n"/>
-      <c r="P5" s="96" t="n"/>
-      <c r="Q5" s="96" t="n"/>
-      <c r="R5" s="96" t="n"/>
-      <c r="S5" s="96" t="n"/>
-      <c r="T5" s="96" t="n"/>
-      <c r="U5" s="96" t="n"/>
-      <c r="V5" s="82" t="n"/>
-      <c r="AD5" s="82" t="n"/>
-      <c r="AE5" s="82" t="n"/>
-      <c r="AG5" s="84" t="n"/>
-      <c r="AI5" s="84" t="n"/>
-      <c r="AK5" s="84" t="n"/>
-      <c r="AM5" s="84" t="n"/>
-      <c r="AO5" s="84" t="n"/>
-      <c r="AQ5" s="84" t="n"/>
-      <c r="AS5" s="84" t="n"/>
-      <c r="AU5" s="84" t="n"/>
-      <c r="AW5" s="84" t="n"/>
-      <c r="AY5" s="84" t="n"/>
-      <c r="BA5" s="84" t="n"/>
-      <c r="BC5" s="84" t="n"/>
-      <c r="BE5" s="84" t="n"/>
-      <c r="BG5" s="84" t="n"/>
-      <c r="BI5" s="84" t="n"/>
-      <c r="BK5" s="84" t="n"/>
-      <c r="BM5" s="84" t="n"/>
-      <c r="BO5" s="84" t="n"/>
-      <c r="BQ5" s="84" t="n"/>
+      <c r="G5" s="94" t="n"/>
+      <c r="H5" s="94" t="n"/>
+      <c r="I5" s="94" t="n"/>
+      <c r="J5" s="94" t="n"/>
+      <c r="K5" s="94" t="n"/>
+      <c r="L5" s="94" t="n"/>
+      <c r="M5" s="94" t="n"/>
+      <c r="N5" s="94" t="n"/>
+      <c r="O5" s="94" t="n"/>
+      <c r="P5" s="94" t="n"/>
+      <c r="Q5" s="94" t="n"/>
+      <c r="R5" s="94" t="n"/>
+      <c r="S5" s="94" t="n"/>
+      <c r="T5" s="94" t="n"/>
+      <c r="U5" s="94" t="n"/>
+      <c r="V5" s="94" t="n"/>
+      <c r="W5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AH5" s="80" t="n"/>
+      <c r="AJ5" s="80" t="n"/>
+      <c r="AL5" s="80" t="n"/>
+      <c r="AN5" s="80" t="n"/>
+      <c r="AP5" s="80" t="n"/>
+      <c r="AR5" s="80" t="n"/>
+      <c r="AT5" s="80" t="n"/>
+      <c r="AV5" s="80" t="n"/>
+      <c r="AX5" s="80" t="n"/>
+      <c r="AZ5" s="80" t="n"/>
+      <c r="BB5" s="80" t="n"/>
+      <c r="BD5" s="80" t="n"/>
+      <c r="BF5" s="80" t="n"/>
+      <c r="BH5" s="80" t="n"/>
+      <c r="BJ5" s="80" t="n"/>
+      <c r="BL5" s="80" t="n"/>
+      <c r="BN5" s="80" t="n"/>
+      <c r="BP5" s="80" t="n"/>
+      <c r="BR5" s="80" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="n"/>
-      <c r="B6" s="85" t="inlineStr">
+      <c r="A6" s="81" t="n"/>
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
       </c>
-      <c r="C6" s="85" t="inlineStr">
+      <c r="C6" s="81" t="inlineStr">
         <is>
           <t>Jour</t>
         </is>
       </c>
-      <c r="D6" s="85" t="inlineStr">
+      <c r="D6" s="96" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E6" s="81" t="inlineStr">
         <is>
           <t>Heure</t>
         </is>
       </c>
-      <c r="E6" s="85" t="inlineStr">
+      <c r="F6" s="81" t="inlineStr">
         <is>
           <t>Durée</t>
         </is>
       </c>
-      <c r="F6" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="85" t="n">
+      <c r="G6" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="85" t="n">
+      <c r="I6" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="85" t="n">
+      <c r="J6" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="85" t="n">
+      <c r="K6" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="85" t="n">
+      <c r="L6" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="85" t="n">
+      <c r="M6" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="M6" s="85" t="n">
+      <c r="N6" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="N6" s="85" t="n">
+      <c r="O6" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="O6" s="85" t="n">
+      <c r="P6" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="P6" s="85" t="n">
+      <c r="Q6" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="Q6" s="85" t="n">
+      <c r="R6" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="R6" s="85" t="n">
+      <c r="S6" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="S6" s="85" t="n">
+      <c r="T6" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="T6" s="85" t="n">
+      <c r="U6" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="U6" s="85" t="inlineStr">
+      <c r="V6" s="96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="V6" s="82" t="n"/>
-      <c r="AD6" s="82" t="n"/>
-      <c r="AE6" s="82" t="n"/>
-    </row>
-    <row r="7" customFormat="1" s="88">
-      <c r="A7" s="85" t="inlineStr">
+      <c r="W6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="84">
+      <c r="A7" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B7" s="85" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>Mr Bouverot</t>
         </is>
       </c>
-      <c r="C7" s="85" t="inlineStr">
+      <c r="C7" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D7" s="85" t="inlineStr">
+      <c r="D7" s="96" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="E7" s="81" t="inlineStr">
         <is>
           <t>14h-15h</t>
         </is>
       </c>
-      <c r="E7" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="85" t="n">
+      <c r="F7" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="H7" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="H7" s="85" t="n">
+      <c r="I7" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="J7" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="J7" s="85" t="n">
+      <c r="K7" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="K7" s="85" t="n">
+      <c r="L7" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="L7" s="85" t="n">
+      <c r="M7" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="M7" s="86" t="n"/>
-      <c r="N7" s="86" t="n"/>
-      <c r="O7" s="86" t="n"/>
-      <c r="P7" s="86" t="n"/>
-      <c r="Q7" s="86" t="n"/>
-      <c r="R7" s="86" t="n"/>
-      <c r="S7" s="86" t="n"/>
-      <c r="T7" s="86" t="n"/>
-      <c r="U7" s="86" t="n"/>
-      <c r="V7" s="87" t="n"/>
-      <c r="AD7" s="87" t="n"/>
-      <c r="AE7" s="87" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="88">
-      <c r="A8" s="85" t="inlineStr">
+      <c r="N7" s="97" t="n"/>
+      <c r="O7" s="97" t="n"/>
+      <c r="P7" s="97" t="n"/>
+      <c r="Q7" s="97" t="n"/>
+      <c r="R7" s="97" t="n"/>
+      <c r="S7" s="97" t="n"/>
+      <c r="T7" s="97" t="n"/>
+      <c r="U7" s="97" t="n"/>
+      <c r="V7" s="97" t="n"/>
+      <c r="W7" s="83" t="n"/>
+      <c r="AE7" s="83" t="n"/>
+      <c r="AF7" s="83" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="84">
+      <c r="A8" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B8" s="85" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t>Mr Bouverot</t>
         </is>
       </c>
-      <c r="C8" s="85" t="inlineStr">
+      <c r="C8" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D8" s="85" t="inlineStr">
+      <c r="D8" s="96" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="E8" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E8" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="85" t="n">
+      <c r="F8" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="H8" s="85" t="n">
+      <c r="I8" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="I8" s="85" t="n">
+      <c r="J8" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="J8" s="85" t="n">
+      <c r="K8" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="85" t="n">
+      <c r="L8" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="L8" s="85" t="n">
+      <c r="M8" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="M8" s="86" t="n"/>
-      <c r="N8" s="86" t="n"/>
-      <c r="O8" s="86" t="n"/>
-      <c r="P8" s="86" t="n"/>
-      <c r="Q8" s="86" t="n"/>
-      <c r="R8" s="86" t="n"/>
-      <c r="S8" s="86" t="n"/>
-      <c r="T8" s="86" t="n"/>
-      <c r="U8" s="86" t="n"/>
-      <c r="V8" s="87" t="n"/>
-      <c r="AD8" s="87" t="n"/>
-      <c r="AE8" s="87" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="88">
-      <c r="A9" s="85" t="inlineStr">
+      <c r="N8" s="97" t="n"/>
+      <c r="O8" s="97" t="n"/>
+      <c r="P8" s="97" t="n"/>
+      <c r="Q8" s="97" t="n"/>
+      <c r="R8" s="97" t="n"/>
+      <c r="S8" s="97" t="n"/>
+      <c r="T8" s="97" t="n"/>
+      <c r="U8" s="97" t="n"/>
+      <c r="V8" s="97" t="n"/>
+      <c r="W8" s="83" t="n"/>
+      <c r="AE8" s="83" t="n"/>
+      <c r="AF8" s="83" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="84">
+      <c r="A9" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B9" s="85" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t>Mme Sabban</t>
         </is>
       </c>
-      <c r="C9" s="85" t="inlineStr">
+      <c r="C9" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D9" s="85" t="inlineStr">
+      <c r="D9" s="96" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="E9" s="81" t="inlineStr">
         <is>
           <t>14h-15h</t>
         </is>
       </c>
-      <c r="E9" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="85" t="n"/>
-      <c r="G9" s="85" t="n"/>
-      <c r="H9" s="85" t="n"/>
-      <c r="I9" s="85" t="n"/>
-      <c r="J9" s="85" t="n"/>
-      <c r="K9" s="85" t="n"/>
-      <c r="L9" s="85" t="n"/>
-      <c r="M9" s="85" t="n">
+      <c r="F9" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="97" t="n"/>
+      <c r="H9" s="97" t="n"/>
+      <c r="I9" s="97" t="n"/>
+      <c r="J9" s="97" t="n"/>
+      <c r="K9" s="97" t="n"/>
+      <c r="L9" s="97" t="n"/>
+      <c r="M9" s="97" t="n"/>
+      <c r="N9" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="N9" s="85" t="n">
+      <c r="O9" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="O9" s="85" t="n">
+      <c r="P9" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="P9" s="85" t="n">
+      <c r="Q9" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" s="85" t="n">
+      <c r="R9" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="85" t="n">
+      <c r="S9" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="S9" s="85" t="n">
+      <c r="T9" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="85" t="n">
+      <c r="U9" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="V9" s="87" t="n"/>
-      <c r="AD9" s="87" t="n"/>
-      <c r="AE9" s="87" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="88">
-      <c r="A10" s="85" t="inlineStr">
+      <c r="W9" s="83" t="n"/>
+      <c r="AE9" s="83" t="n"/>
+      <c r="AF9" s="83" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="84">
+      <c r="A10" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B10" s="85" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t>Mme Sabban</t>
         </is>
       </c>
-      <c r="C10" s="85" t="inlineStr">
+      <c r="C10" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D10" s="85" t="inlineStr">
+      <c r="D10" s="96" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="E10" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E10" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="85" t="n"/>
-      <c r="H10" s="85" t="n"/>
-      <c r="I10" s="85" t="n"/>
-      <c r="J10" s="85" t="n"/>
-      <c r="K10" s="85" t="n"/>
-      <c r="L10" s="85" t="n"/>
-      <c r="M10" s="85" t="n">
+      <c r="F10" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="97" t="n"/>
+      <c r="H10" s="97" t="n"/>
+      <c r="I10" s="97" t="n"/>
+      <c r="J10" s="97" t="n"/>
+      <c r="K10" s="97" t="n"/>
+      <c r="L10" s="97" t="n"/>
+      <c r="M10" s="97" t="n"/>
+      <c r="N10" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="N10" s="85" t="n">
+      <c r="O10" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="O10" s="85" t="n">
+      <c r="P10" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="P10" s="85" t="n">
+      <c r="Q10" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="Q10" s="85" t="n">
+      <c r="R10" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="R10" s="85" t="n">
+      <c r="S10" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="S10" s="85" t="n">
+      <c r="T10" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="T10" s="85" t="n">
+      <c r="U10" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="U10" s="85" t="n">
+      <c r="V10" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="V10" s="87" t="n"/>
-      <c r="AD10" s="87" t="n"/>
-      <c r="AE10" s="87" t="n"/>
+      <c r="W10" s="83" t="n"/>
+      <c r="AE10" s="83" t="n"/>
+      <c r="AF10" s="83" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="85" t="inlineStr">
+      <c r="A11" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B11" s="85" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t>Mr Gallic</t>
         </is>
       </c>
-      <c r="C11" s="85" t="inlineStr">
+      <c r="C11" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D11" s="85" t="inlineStr">
+      <c r="D11" s="96" t="inlineStr">
+        <is>
+          <t>C384</t>
+        </is>
+      </c>
+      <c r="E11" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E11" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="85" t="n">
+      <c r="F11" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="85" t="n">
+      <c r="H11" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="85" t="n">
+      <c r="J11" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="J11" s="85" t="n">
+      <c r="K11" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="K11" s="85" t="n">
+      <c r="L11" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="L11" s="85" t="n">
+      <c r="M11" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="M11" s="85" t="n">
+      <c r="N11" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="N11" s="85" t="n">
+      <c r="O11" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="O11" s="85" t="n">
+      <c r="P11" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="P11" s="85" t="n">
+      <c r="Q11" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="Q11" s="85" t="n">
+      <c r="R11" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="R11" s="85" t="n">
+      <c r="S11" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="S11" s="85" t="n">
+      <c r="T11" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="T11" s="85" t="n">
+      <c r="U11" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="U11" s="85" t="n">
+      <c r="V11" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="V11" s="82" t="n"/>
-      <c r="AD11" s="82" t="n"/>
-      <c r="AE11" s="82" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="90">
-      <c r="A12" s="85" t="inlineStr">
+      <c r="W11" s="95" t="n"/>
+      <c r="AE11" s="95" t="n"/>
+      <c r="AF11" s="95" t="n"/>
+    </row>
+    <row r="12" ht="14" customFormat="1" customHeight="1" s="86">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B12" s="85" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t>Mr Gallic</t>
         </is>
       </c>
-      <c r="C12" s="85" t="inlineStr">
+      <c r="C12" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D12" s="85" t="inlineStr">
+      <c r="D12" s="96" t="inlineStr">
+        <is>
+          <t>C384</t>
+        </is>
+      </c>
+      <c r="E12" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E12" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="85" t="n">
+      <c r="F12" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="85" t="n">
+      <c r="H12" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="85" t="n">
+      <c r="I12" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="K12" s="85" t="n">
+      <c r="L12" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="L12" s="85" t="n">
+      <c r="M12" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="M12" s="85" t="n">
+      <c r="N12" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="N12" s="85" t="n">
+      <c r="O12" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="O12" s="85" t="n">
+      <c r="P12" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="P12" s="85" t="n">
+      <c r="Q12" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="85" t="n">
+      <c r="R12" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="85" t="n">
+      <c r="S12" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="S12" s="85" t="n">
+      <c r="T12" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="T12" s="85" t="n">
+      <c r="U12" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="U12" s="85" t="n">
+      <c r="V12" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="V12" s="89" t="n"/>
-      <c r="AD12" s="89" t="n"/>
-      <c r="AE12" s="89" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="90">
-      <c r="A13" s="85" t="inlineStr">
+      <c r="W12" s="85" t="n"/>
+      <c r="AE12" s="85" t="n"/>
+      <c r="AF12" s="85" t="n"/>
+    </row>
+    <row r="13" ht="14" customFormat="1" customHeight="1" s="86">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B13" s="85" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t>Mr Pelletier</t>
         </is>
       </c>
-      <c r="C13" s="85" t="inlineStr">
+      <c r="C13" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D13" s="85" t="inlineStr">
+      <c r="D13" s="96" t="inlineStr">
+        <is>
+          <t>C396</t>
+        </is>
+      </c>
+      <c r="E13" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E13" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="85" t="n">
+      <c r="F13" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="85" t="n">
+      <c r="H13" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="85" t="n">
+      <c r="I13" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="85" t="n">
+      <c r="J13" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="J13" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="85" t="n">
+      <c r="K13" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="L13" s="85" t="n">
+      <c r="M13" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="M13" s="85" t="n">
+      <c r="N13" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="N13" s="85" t="n">
+      <c r="O13" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="O13" s="85" t="n">
+      <c r="P13" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="P13" s="85" t="n">
+      <c r="Q13" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="Q13" s="85" t="n">
+      <c r="R13" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="R13" s="85" t="n">
+      <c r="S13" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="S13" s="85" t="n">
+      <c r="T13" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="T13" s="85" t="n">
+      <c r="U13" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="U13" s="85" t="n">
+      <c r="V13" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="V13" s="89" t="n"/>
-      <c r="AD13" s="89" t="n"/>
-      <c r="AE13" s="89" t="n"/>
+      <c r="W13" s="85" t="n"/>
+      <c r="AE13" s="85" t="n"/>
+      <c r="AF13" s="85" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="85" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B14" s="85" t="inlineStr">
+      <c r="B14" s="81" t="inlineStr">
         <is>
           <t>Mme Lé-Nhu</t>
         </is>
       </c>
-      <c r="C14" s="85" t="inlineStr">
+      <c r="C14" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D14" s="85" t="inlineStr">
+      <c r="D14" s="96" t="inlineStr">
+        <is>
+          <t>C383</t>
+        </is>
+      </c>
+      <c r="E14" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E14" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="85" t="n">
+      <c r="F14" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="85" t="n">
+      <c r="H14" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="85" t="n">
+      <c r="I14" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="85" t="n">
+      <c r="J14" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="85" t="n">
+      <c r="K14" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="85" t="n">
+      <c r="L14" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="M14" s="85" t="n">
+      <c r="N14" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="N14" s="85" t="n">
+      <c r="O14" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="O14" s="85" t="n">
+      <c r="P14" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="P14" s="85" t="n">
+      <c r="Q14" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="Q14" s="85" t="n">
+      <c r="R14" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="R14" s="85" t="n">
+      <c r="S14" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="S14" s="85" t="n">
+      <c r="T14" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="T14" s="85" t="n">
+      <c r="U14" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="U14" s="85" t="n">
+      <c r="V14" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="V14" s="82" t="n"/>
-      <c r="AD14" s="82" t="n"/>
-      <c r="AE14" s="82" t="n"/>
+      <c r="W14" s="95" t="n"/>
+      <c r="AE14" s="95" t="n"/>
+      <c r="AF14" s="95" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="85" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B15" s="85" t="inlineStr">
+      <c r="B15" s="81" t="inlineStr">
         <is>
           <t>Mme Lé-Nhu</t>
         </is>
       </c>
-      <c r="C15" s="85" t="inlineStr">
+      <c r="C15" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D15" s="85" t="inlineStr">
+      <c r="D15" s="96" t="inlineStr">
+        <is>
+          <t>C383</t>
+        </is>
+      </c>
+      <c r="E15" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E15" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="85" t="n">
+      <c r="F15" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="85" t="n">
+      <c r="H15" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="85" t="n">
+      <c r="I15" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="85" t="n">
+      <c r="J15" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="85" t="n">
+      <c r="K15" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="K15" s="85" t="n">
+      <c r="L15" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="85" t="n">
+      <c r="M15" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="N15" s="85" t="n">
+      <c r="O15" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="O15" s="85" t="n">
+      <c r="P15" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="P15" s="85" t="n">
+      <c r="Q15" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="Q15" s="85" t="n">
+      <c r="R15" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="R15" s="85" t="n">
+      <c r="S15" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="S15" s="85" t="n">
+      <c r="T15" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="T15" s="85" t="n">
+      <c r="U15" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="U15" s="85" t="n">
+      <c r="V15" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="V15" s="82" t="n"/>
-      <c r="AD15" s="82" t="n"/>
-      <c r="AE15" s="82" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="92">
-      <c r="A16" s="85" t="inlineStr">
+      <c r="W15" s="95" t="n"/>
+      <c r="AE15" s="95" t="n"/>
+      <c r="AF15" s="95" t="n"/>
+    </row>
+    <row r="16" ht="14" customFormat="1" customHeight="1" s="88">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B16" s="85" t="inlineStr">
+      <c r="B16" s="81" t="inlineStr">
         <is>
           <t>Mme Mullaert</t>
         </is>
       </c>
-      <c r="C16" s="85" t="inlineStr">
+      <c r="C16" s="81" t="inlineStr">
         <is>
           <t>Lundi</t>
         </is>
       </c>
-      <c r="D16" s="85" t="inlineStr">
+      <c r="D16" s="96" t="inlineStr">
+        <is>
+          <t>C281</t>
+        </is>
+      </c>
+      <c r="E16" s="81" t="inlineStr">
         <is>
           <t>17h-19h</t>
         </is>
       </c>
-      <c r="E16" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="85" t="n">
+      <c r="F16" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="G16" s="85" t="n">
+      <c r="H16" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="85" t="n">
+      <c r="I16" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="I16" s="85" t="n">
+      <c r="J16" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="J16" s="85" t="n">
+      <c r="K16" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="K16" s="85" t="n">
+      <c r="L16" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="L16" s="85" t="n">
+      <c r="M16" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="M16" s="85" t="n">
+      <c r="N16" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="N16" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="85" t="n">
+      <c r="O16" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="P16" s="85" t="n">
+      <c r="Q16" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="Q16" s="85" t="n">
+      <c r="R16" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="R16" s="85" t="n">
+      <c r="S16" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="S16" s="85" t="n">
+      <c r="T16" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="T16" s="85" t="n">
+      <c r="U16" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="U16" s="85" t="n">
+      <c r="V16" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="V16" s="91" t="n"/>
-      <c r="AD16" s="91" t="n"/>
-      <c r="AE16" s="91" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="92">
-      <c r="A17" s="85" t="inlineStr">
+      <c r="W16" s="87" t="n"/>
+      <c r="AE16" s="87" t="n"/>
+      <c r="AF16" s="87" t="n"/>
+    </row>
+    <row r="17" ht="14" customFormat="1" customHeight="1" s="88">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B17" s="85" t="inlineStr">
+      <c r="B17" s="81" t="inlineStr">
         <is>
           <t>Mme Mullaert</t>
         </is>
       </c>
-      <c r="C17" s="85" t="inlineStr">
+      <c r="C17" s="81" t="inlineStr">
         <is>
           <t>Lundi</t>
         </is>
       </c>
-      <c r="D17" s="85" t="inlineStr">
+      <c r="D17" s="96" t="inlineStr">
+        <is>
+          <t>C281</t>
+        </is>
+      </c>
+      <c r="E17" s="81" t="inlineStr">
         <is>
           <t>17h-19h</t>
         </is>
       </c>
-      <c r="E17" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="85" t="n">
+      <c r="F17" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="G17" s="85" t="n">
+      <c r="H17" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="H17" s="85" t="n">
+      <c r="I17" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="I17" s="85" t="n">
+      <c r="J17" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="J17" s="85" t="n">
+      <c r="K17" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="85" t="n">
+      <c r="L17" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="L17" s="85" t="n">
+      <c r="M17" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="M17" s="85" t="n">
+      <c r="N17" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="N17" s="85" t="n">
+      <c r="O17" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="O17" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="85" t="n">
+      <c r="P17" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" s="85" t="n">
+      <c r="R17" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="R17" s="85" t="n">
+      <c r="S17" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="S17" s="85" t="n">
+      <c r="T17" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="T17" s="85" t="n">
+      <c r="U17" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="U17" s="85" t="n">
+      <c r="V17" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="V17" s="91" t="n"/>
-      <c r="AD17" s="91" t="n"/>
-      <c r="AE17" s="91" t="n"/>
+      <c r="W17" s="87" t="n"/>
+      <c r="AE17" s="87" t="n"/>
+      <c r="AF17" s="87" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="85" t="inlineStr">
+      <c r="A18" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B18" s="85" t="inlineStr">
+      <c r="B18" s="81" t="inlineStr">
         <is>
           <t>Mme Cissokho</t>
         </is>
       </c>
-      <c r="C18" s="85" t="inlineStr">
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>Vendredi</t>
         </is>
       </c>
-      <c r="D18" s="85" t="inlineStr">
+      <c r="D18" s="96" t="inlineStr">
+        <is>
+          <t>C281</t>
+        </is>
+      </c>
+      <c r="E18" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E18" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="85" t="n">
+      <c r="F18" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="G18" s="85" t="n">
+      <c r="H18" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="85" t="n">
+      <c r="I18" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="I18" s="85" t="n">
+      <c r="J18" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="J18" s="85" t="n">
+      <c r="K18" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="K18" s="85" t="n">
+      <c r="L18" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="85" t="n">
+      <c r="M18" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="M18" s="85" t="n">
+      <c r="N18" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="85" t="n">
+      <c r="O18" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="O18" s="85" t="n">
+      <c r="P18" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="P18" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="85" t="n">
+      <c r="Q18" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="R18" s="85" t="n">
+      <c r="S18" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="S18" s="85" t="n">
+      <c r="T18" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="T18" s="85" t="n">
+      <c r="U18" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="U18" s="85" t="n">
+      <c r="V18" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="V18" s="82" t="n"/>
-      <c r="AD18" s="82" t="n"/>
-      <c r="AE18" s="82" t="n"/>
+      <c r="W18" s="95" t="n"/>
+      <c r="AE18" s="95" t="n"/>
+      <c r="AF18" s="95" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="85" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B19" s="85" t="inlineStr">
+      <c r="B19" s="81" t="inlineStr">
         <is>
           <t>Mme Cissokho</t>
         </is>
       </c>
-      <c r="C19" s="85" t="inlineStr">
+      <c r="C19" s="81" t="inlineStr">
         <is>
           <t>Vendredi</t>
         </is>
       </c>
-      <c r="D19" s="85" t="inlineStr">
+      <c r="D19" s="96" t="inlineStr">
+        <is>
+          <t>C281</t>
+        </is>
+      </c>
+      <c r="E19" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E19" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="85" t="n">
+      <c r="F19" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="G19" s="85" t="n">
+      <c r="H19" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="H19" s="85" t="n">
+      <c r="I19" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="I19" s="85" t="n">
+      <c r="J19" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="J19" s="85" t="n">
+      <c r="K19" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="K19" s="85" t="n">
+      <c r="L19" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="L19" s="85" t="n">
+      <c r="M19" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="M19" s="85" t="n">
+      <c r="N19" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="N19" s="85" t="n">
+      <c r="O19" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="O19" s="85" t="n">
+      <c r="P19" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="85" t="n">
+      <c r="Q19" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" s="85" t="n">
+      <c r="R19" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="R19" s="85" t="n">
+      <c r="S19" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="S19" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="85" t="n">
+      <c r="T19" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="U19" s="85" t="n">
+      <c r="V19" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="V19" s="82" t="n"/>
-      <c r="AD19" s="82" t="n"/>
-      <c r="AE19" s="82" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="88">
-      <c r="A20" s="85" t="inlineStr">
+      <c r="W19" s="95" t="n"/>
+      <c r="AE19" s="95" t="n"/>
+      <c r="AF19" s="95" t="n"/>
+    </row>
+    <row r="20" ht="14" customFormat="1" customHeight="1" s="84">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>MATHS</t>
         </is>
       </c>
-      <c r="B20" s="85" t="inlineStr">
+      <c r="B20" s="81" t="inlineStr">
         <is>
           <t>Mme Sabban</t>
         </is>
       </c>
-      <c r="C20" s="85" t="inlineStr">
+      <c r="C20" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D20" s="85" t="inlineStr">
+      <c r="D20" s="96" t="inlineStr">
+        <is>
+          <t>C283</t>
+        </is>
+      </c>
+      <c r="E20" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E20" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="85" t="n">
+      <c r="F20" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="G20" s="85" t="n">
+      <c r="H20" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="H20" s="85" t="n">
+      <c r="I20" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="I20" s="85" t="n">
+      <c r="J20" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="J20" s="85" t="n">
+      <c r="K20" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="85" t="n">
+      <c r="L20" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="L20" s="85" t="n">
+      <c r="M20" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="M20" s="85" t="n">
+      <c r="N20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="N20" s="85" t="n">
+      <c r="O20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="O20" s="85" t="n">
+      <c r="P20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="P20" s="85" t="n">
+      <c r="Q20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="Q20" s="85" t="n">
+      <c r="R20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="R20" s="85" t="n">
+      <c r="S20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="S20" s="85" t="n">
+      <c r="T20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="T20" s="85" t="n">
+      <c r="U20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="U20" s="85" t="n">
+      <c r="V20" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="V20" s="87" t="n"/>
-      <c r="AD20" s="87" t="n"/>
-      <c r="AE20" s="87" t="n"/>
-    </row>
-    <row r="21" customFormat="1" s="88">
-      <c r="A21" s="85" t="n"/>
-      <c r="B21" s="85" t="n"/>
-      <c r="C21" s="85" t="n"/>
-      <c r="D21" s="85" t="n"/>
-      <c r="E21" s="85" t="n"/>
-      <c r="F21" s="85" t="n"/>
-      <c r="G21" s="85" t="n"/>
-      <c r="H21" s="85" t="n"/>
-      <c r="I21" s="85" t="n"/>
-      <c r="J21" s="85" t="n"/>
-      <c r="K21" s="85" t="n"/>
-      <c r="L21" s="85" t="n"/>
-      <c r="M21" s="85" t="n"/>
-      <c r="N21" s="85" t="n"/>
-      <c r="O21" s="85" t="n"/>
-      <c r="P21" s="85" t="n"/>
-      <c r="Q21" s="85" t="n"/>
-      <c r="R21" s="85" t="n"/>
-      <c r="S21" s="85" t="n"/>
-      <c r="T21" s="85" t="n"/>
-      <c r="U21" s="85" t="n"/>
-      <c r="V21" s="87" t="n"/>
-      <c r="AD21" s="87" t="n"/>
-      <c r="AE21" s="87" t="n"/>
+      <c r="W20" s="83" t="n"/>
+      <c r="AE20" s="83" t="n"/>
+      <c r="AF20" s="83" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="84">
+      <c r="A21" s="81" t="n"/>
+      <c r="B21" s="81" t="n"/>
+      <c r="C21" s="81" t="n"/>
+      <c r="D21" s="97" t="n"/>
+      <c r="E21" s="81" t="n"/>
+      <c r="F21" s="81" t="n"/>
+      <c r="G21" s="97" t="n"/>
+      <c r="H21" s="97" t="n"/>
+      <c r="I21" s="97" t="n"/>
+      <c r="J21" s="97" t="n"/>
+      <c r="K21" s="97" t="n"/>
+      <c r="L21" s="97" t="n"/>
+      <c r="M21" s="97" t="n"/>
+      <c r="N21" s="97" t="n"/>
+      <c r="O21" s="97" t="n"/>
+      <c r="P21" s="97" t="n"/>
+      <c r="Q21" s="97" t="n"/>
+      <c r="R21" s="97" t="n"/>
+      <c r="S21" s="97" t="n"/>
+      <c r="T21" s="97" t="n"/>
+      <c r="U21" s="97" t="n"/>
+      <c r="V21" s="97" t="n"/>
+      <c r="W21" s="83" t="n"/>
+      <c r="AE21" s="83" t="n"/>
+      <c r="AF21" s="83" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="85" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B22" s="85" t="inlineStr">
+      <c r="B22" s="81" t="inlineStr">
         <is>
           <t>Mr Poupy</t>
         </is>
       </c>
-      <c r="C22" s="85" t="inlineStr">
+      <c r="C22" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D22" s="85" t="inlineStr">
+      <c r="D22" s="96" t="inlineStr">
+        <is>
+          <t>R028</t>
+        </is>
+      </c>
+      <c r="E22" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E22" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="85" t="n">
+      <c r="F22" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="G22" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="85" t="n">
+      <c r="H22" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="I22" s="85" t="n">
+      <c r="J22" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="85" t="n">
+      <c r="K22" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="K22" s="85" t="n">
+      <c r="L22" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="L22" s="85" t="n">
+      <c r="M22" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="M22" s="85" t="n">
+      <c r="N22" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="N22" s="85" t="n">
+      <c r="O22" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="O22" s="85" t="n">
+      <c r="P22" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="P22" s="85" t="n">
+      <c r="Q22" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="Q22" s="85" t="n">
+      <c r="R22" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="R22" s="85" t="n">
+      <c r="S22" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="S22" s="85" t="n">
+      <c r="T22" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="T22" s="85" t="n">
+      <c r="U22" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="U22" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="82" t="n"/>
-      <c r="AD22" s="82" t="n"/>
-      <c r="AE22" s="82" t="n"/>
+      <c r="V22" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="95" t="n"/>
+      <c r="AE22" s="95" t="n"/>
+      <c r="AF22" s="95" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="85" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B23" s="85" t="inlineStr">
+      <c r="B23" s="81" t="inlineStr">
         <is>
           <t>Mr Poupy</t>
         </is>
       </c>
-      <c r="C23" s="85" t="inlineStr">
+      <c r="C23" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D23" s="85" t="inlineStr">
+      <c r="D23" s="96" t="inlineStr">
+        <is>
+          <t>R028</t>
+        </is>
+      </c>
+      <c r="E23" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E23" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="85" t="n">
+      <c r="F23" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="G23" s="85" t="n">
+      <c r="H23" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="H23" s="85" t="n">
+      <c r="I23" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="I23" s="85" t="n">
+      <c r="J23" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="85" t="n">
+      <c r="K23" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="K23" s="85" t="n">
+      <c r="L23" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="L23" s="85" t="n">
+      <c r="M23" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="M23" s="85" t="n">
+      <c r="N23" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="85" t="n">
+      <c r="O23" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="O23" s="85" t="n">
+      <c r="P23" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="P23" s="85" t="n">
+      <c r="Q23" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="Q23" s="85" t="n">
+      <c r="R23" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="R23" s="85" t="n">
+      <c r="S23" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="S23" s="85" t="n">
+      <c r="T23" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="T23" s="85" t="n">
+      <c r="U23" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="U23" s="85" t="n">
+      <c r="V23" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="V23" s="82" t="n"/>
-      <c r="AD23" s="82" t="n"/>
-      <c r="AE23" s="82" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="85" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B24" s="85" t="inlineStr">
+      <c r="B24" s="81" t="inlineStr">
         <is>
           <t>Mr Robin</t>
         </is>
       </c>
-      <c r="C24" s="85" t="inlineStr">
+      <c r="C24" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D24" s="85" t="inlineStr">
+      <c r="D24" s="96" t="inlineStr">
+        <is>
+          <t>V158</t>
+        </is>
+      </c>
+      <c r="E24" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E24" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="85" t="n">
+      <c r="F24" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="85" t="n">
+      <c r="H24" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="H24" s="85" t="n">
+      <c r="I24" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="85" t="n">
+      <c r="J24" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="85" t="n">
+      <c r="K24" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="K24" s="85" t="n">
+      <c r="L24" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="L24" s="85" t="n">
+      <c r="M24" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="M24" s="85" t="n">
+      <c r="N24" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="N24" s="85" t="n">
+      <c r="O24" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="O24" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="85" t="n">
+      <c r="P24" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="Q24" s="85" t="n">
+      <c r="R24" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="85" t="n">
+      <c r="S24" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="S24" s="85" t="n">
+      <c r="T24" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="T24" s="85" t="n">
+      <c r="U24" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="U24" s="85" t="n">
+      <c r="V24" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="V24" s="82" t="n"/>
-      <c r="AD24" s="82" t="n"/>
-      <c r="AE24" s="82" t="n"/>
+      <c r="W24" s="95" t="n"/>
+      <c r="AE24" s="95" t="n"/>
+      <c r="AF24" s="95" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="85" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B25" s="85" t="inlineStr">
+      <c r="B25" s="81" t="inlineStr">
         <is>
           <t>Mme Chevalier</t>
         </is>
       </c>
-      <c r="C25" s="85" t="inlineStr">
+      <c r="C25" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D25" s="85" t="inlineStr">
+      <c r="D25" s="96" t="inlineStr">
+        <is>
+          <t>R011</t>
+        </is>
+      </c>
+      <c r="E25" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E25" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="85" t="n">
+      <c r="F25" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="G25" s="85" t="n">
+      <c r="H25" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="H25" s="85" t="n">
+      <c r="I25" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="I25" s="85" t="n">
+      <c r="J25" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="J25" s="85" t="n">
+      <c r="K25" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="K25" s="85" t="n">
+      <c r="L25" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="L25" s="85" t="n">
+      <c r="M25" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="M25" s="85" t="n">
+      <c r="N25" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="N25" s="85" t="n">
+      <c r="O25" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="O25" s="85" t="n">
+      <c r="P25" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="P25" s="85" t="n">
+      <c r="Q25" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="Q25" s="85" t="n">
+      <c r="R25" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="R25" s="85" t="n">
+      <c r="S25" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="S25" s="85" t="n">
+      <c r="T25" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="T25" s="85" t="n">
+      <c r="U25" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="U25" s="85" t="n">
+      <c r="V25" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="V25" s="82" t="n"/>
-      <c r="AD25" s="82" t="n"/>
-      <c r="AE25" s="82" t="n"/>
+      <c r="W25" s="95" t="n"/>
+      <c r="AE25" s="95" t="n"/>
+      <c r="AF25" s="95" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="85" t="inlineStr">
+      <c r="A26" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B26" s="85" t="inlineStr">
+      <c r="B26" s="81" t="inlineStr">
         <is>
           <t>Mme Chevalier</t>
         </is>
       </c>
-      <c r="C26" s="85" t="inlineStr">
+      <c r="C26" s="81" t="inlineStr">
         <is>
           <t>lundi</t>
         </is>
       </c>
-      <c r="D26" s="85" t="inlineStr">
+      <c r="D26" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E26" s="81" t="inlineStr">
         <is>
           <t>13h-14h</t>
         </is>
       </c>
-      <c r="E26" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="85" t="n">
+      <c r="F26" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="G26" s="85" t="n">
+      <c r="H26" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="85" t="n">
+      <c r="I26" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="I26" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="85" t="n">
+      <c r="J26" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="K26" s="85" t="n">
+      <c r="L26" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="L26" s="85" t="n">
+      <c r="M26" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="M26" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="85" t="n">
+      <c r="N26" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="O26" s="85" t="n">
+      <c r="P26" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="P26" s="85" t="n">
+      <c r="Q26" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="Q26" s="85" t="n">
+      <c r="R26" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="R26" s="85" t="n">
+      <c r="S26" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="S26" s="85" t="n">
+      <c r="T26" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="T26" s="85" t="n">
+      <c r="U26" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="U26" s="85" t="n">
+      <c r="V26" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="V26" s="82" t="n"/>
-      <c r="AD26" s="82" t="n"/>
-      <c r="AE26" s="82" t="n"/>
+      <c r="W26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="85" t="inlineStr">
+      <c r="A27" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B27" s="85" t="inlineStr">
+      <c r="B27" s="81" t="inlineStr">
         <is>
           <t>Mme Pourcelot d’Hennezel</t>
         </is>
       </c>
-      <c r="C27" s="85" t="inlineStr">
+      <c r="C27" s="81" t="inlineStr">
         <is>
           <t>mardi</t>
         </is>
       </c>
-      <c r="D27" s="85" t="inlineStr">
+      <c r="D27" s="96" t="inlineStr">
+        <is>
+          <t>C394</t>
+        </is>
+      </c>
+      <c r="E27" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E27" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="85" t="n">
+      <c r="F27" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="n">
+      <c r="H27" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="H27" s="85" t="n">
+      <c r="I27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="I27" s="85" t="n">
+      <c r="J27" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="J27" s="85" t="n">
+      <c r="K27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="K27" s="85" t="n">
+      <c r="L27" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="L27" s="85" t="n">
+      <c r="M27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="M27" s="85" t="n">
+      <c r="N27" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="N27" s="85" t="n">
+      <c r="O27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="O27" s="85" t="n">
+      <c r="P27" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="P27" s="85" t="n">
+      <c r="Q27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="Q27" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="85" t="n">
+      <c r="R27" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="S27" s="85" t="n">
+      <c r="T27" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="T27" s="85" t="n">
+      <c r="U27" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="U27" s="85" t="n">
+      <c r="V27" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="V27" s="82" t="n"/>
-      <c r="AD27" s="82" t="n"/>
-      <c r="AE27" s="82" t="n"/>
+      <c r="W27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="85" t="inlineStr">
+      <c r="A28" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B28" s="85" t="inlineStr">
+      <c r="B28" s="81" t="inlineStr">
         <is>
           <t>Mme Chibani</t>
         </is>
       </c>
-      <c r="C28" s="85" t="inlineStr">
+      <c r="C28" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D28" s="85" t="inlineStr">
+      <c r="D28" s="96" t="inlineStr">
+        <is>
+          <t>C284</t>
+        </is>
+      </c>
+      <c r="E28" s="81" t="inlineStr">
         <is>
           <t>14h-15h</t>
         </is>
       </c>
-      <c r="E28" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="85" t="n">
+      <c r="F28" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="85" t="n">
+      <c r="H28" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="85" t="n">
+      <c r="I28" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="I28" s="85" t="n">
+      <c r="J28" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="J28" s="85" t="n">
+      <c r="K28" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="K28" s="85" t="n">
+      <c r="L28" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="L28" s="85" t="n">
+      <c r="M28" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="M28" s="85" t="n">
+      <c r="N28" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="N28" s="85" t="n">
+      <c r="O28" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="85" t="n">
+      <c r="P28" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="P28" s="85" t="n">
+      <c r="Q28" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="Q28" s="85" t="n">
+      <c r="R28" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="R28" s="85" t="n">
+      <c r="S28" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="S28" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="85" t="n">
+      <c r="T28" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="U28" s="85" t="n">
+      <c r="V28" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="V28" s="82" t="n"/>
-      <c r="AD28" s="82" t="n"/>
-      <c r="AE28" s="82" t="n"/>
+      <c r="W28" s="95" t="n"/>
+      <c r="AE28" s="95" t="n"/>
+      <c r="AF28" s="95" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="85" t="inlineStr">
+      <c r="A29" s="81" t="inlineStr">
         <is>
           <t>PHYSIQUE</t>
         </is>
       </c>
-      <c r="B29" s="85" t="inlineStr">
+      <c r="B29" s="81" t="inlineStr">
         <is>
           <t>Mme Chibani</t>
         </is>
       </c>
-      <c r="C29" s="85" t="inlineStr">
+      <c r="C29" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D29" s="85" t="inlineStr">
+      <c r="D29" s="96" t="inlineStr">
+        <is>
+          <t>C284</t>
+        </is>
+      </c>
+      <c r="E29" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E29" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="85" t="n">
+      <c r="F29" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="G29" s="85" t="n">
+      <c r="H29" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="85" t="n">
+      <c r="I29" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="I29" s="85" t="n">
+      <c r="J29" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="85" t="n">
+      <c r="K29" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="K29" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="85" t="n">
+      <c r="L29" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="M29" s="85" t="n">
+      <c r="N29" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="85" t="n">
+      <c r="O29" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="O29" s="85" t="n">
+      <c r="P29" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="P29" s="85" t="n">
+      <c r="Q29" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="Q29" s="85" t="n">
+      <c r="R29" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="R29" s="85" t="n">
+      <c r="S29" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="S29" s="85" t="n">
+      <c r="T29" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="T29" s="85" t="n">
+      <c r="U29" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="U29" s="85" t="n">
+      <c r="V29" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="V29" s="82" t="n"/>
-      <c r="W29" s="93" t="n"/>
-      <c r="X29" s="82" t="n"/>
-      <c r="Y29" s="82" t="n"/>
-      <c r="Z29" s="82" t="n"/>
-      <c r="AA29" s="82" t="n"/>
-      <c r="AB29" s="82" t="n"/>
-      <c r="AC29" s="82" t="n"/>
-      <c r="AD29" s="82" t="n"/>
-      <c r="AE29" s="82" t="n"/>
+      <c r="W29" s="95" t="n"/>
+      <c r="X29" s="89" t="n"/>
+      <c r="Y29" s="95" t="n"/>
+      <c r="Z29" s="95" t="n"/>
+      <c r="AA29" s="95" t="n"/>
+      <c r="AB29" s="95" t="n"/>
+      <c r="AC29" s="95" t="n"/>
+      <c r="AD29" s="95" t="n"/>
+      <c r="AE29" s="95" t="n"/>
+      <c r="AF29" s="95" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="85" t="n"/>
-      <c r="B30" s="85" t="n"/>
-      <c r="C30" s="85" t="n"/>
-      <c r="D30" s="85" t="n"/>
-      <c r="E30" s="85" t="n"/>
-      <c r="F30" s="85" t="n"/>
-      <c r="G30" s="85" t="n"/>
-      <c r="H30" s="85" t="n"/>
-      <c r="I30" s="85" t="n"/>
-      <c r="J30" s="85" t="n"/>
-      <c r="K30" s="85" t="n"/>
-      <c r="L30" s="85" t="n"/>
-      <c r="M30" s="85" t="n"/>
-      <c r="N30" s="85" t="n"/>
-      <c r="O30" s="85" t="n"/>
-      <c r="P30" s="85" t="n"/>
-      <c r="Q30" s="85" t="n"/>
-      <c r="R30" s="85" t="n"/>
-      <c r="S30" s="85" t="n"/>
-      <c r="T30" s="85" t="n"/>
-      <c r="U30" s="85" t="n"/>
-      <c r="V30" s="82" t="n"/>
-      <c r="W30" s="93" t="n"/>
-      <c r="X30" s="82" t="n"/>
-      <c r="Y30" s="82" t="n"/>
-      <c r="Z30" s="82" t="n"/>
-      <c r="AA30" s="82" t="n"/>
-      <c r="AB30" s="82" t="n"/>
-      <c r="AC30" s="82" t="n"/>
-      <c r="AD30" s="82" t="n"/>
-      <c r="AE30" s="82" t="n"/>
+      <c r="A30" s="81" t="n"/>
+      <c r="B30" s="81" t="n"/>
+      <c r="C30" s="81" t="n"/>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="81" t="n"/>
+      <c r="F30" s="81" t="n"/>
+      <c r="G30" s="97" t="n"/>
+      <c r="H30" s="97" t="n"/>
+      <c r="I30" s="97" t="n"/>
+      <c r="J30" s="97" t="n"/>
+      <c r="K30" s="97" t="n"/>
+      <c r="L30" s="97" t="n"/>
+      <c r="M30" s="97" t="n"/>
+      <c r="N30" s="97" t="n"/>
+      <c r="O30" s="97" t="n"/>
+      <c r="P30" s="97" t="n"/>
+      <c r="Q30" s="97" t="n"/>
+      <c r="R30" s="97" t="n"/>
+      <c r="S30" s="97" t="n"/>
+      <c r="T30" s="97" t="n"/>
+      <c r="U30" s="97" t="n"/>
+      <c r="V30" s="97" t="n"/>
+      <c r="W30" s="95" t="n"/>
+      <c r="X30" s="89" t="n"/>
+      <c r="Y30" s="95" t="n"/>
+      <c r="Z30" s="95" t="n"/>
+      <c r="AA30" s="95" t="n"/>
+      <c r="AB30" s="95" t="n"/>
+      <c r="AC30" s="95" t="n"/>
+      <c r="AD30" s="95" t="n"/>
+      <c r="AE30" s="95" t="n"/>
+      <c r="AF30" s="95" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="85" t="inlineStr">
+      <c r="A31" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B31" s="85" t="inlineStr">
+      <c r="B31" s="81" t="inlineStr">
         <is>
           <t>Mr Gauvin</t>
         </is>
       </c>
-      <c r="C31" s="85" t="inlineStr">
+      <c r="C31" s="81" t="inlineStr">
         <is>
           <t>Lundi</t>
         </is>
       </c>
-      <c r="D31" s="85" t="inlineStr">
+      <c r="D31" s="96" t="inlineStr">
+        <is>
+          <t>C387</t>
+        </is>
+      </c>
+      <c r="E31" s="81" t="inlineStr">
         <is>
           <t>18h-19h</t>
         </is>
       </c>
-      <c r="E31" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="85" t="n">
+      <c r="F31" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="85" t="n">
+      <c r="H31" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="H31" s="85" t="n">
+      <c r="I31" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="85" t="n">
+      <c r="J31" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="J31" s="85" t="n">
+      <c r="K31" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="K31" s="85" t="n">
+      <c r="L31" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="L31" s="85" t="n">
+      <c r="M31" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="85" t="n">
+      <c r="N31" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="N31" s="85" t="n">
+      <c r="O31" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="O31" s="85" t="n">
+      <c r="P31" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="P31" s="85" t="n">
+      <c r="Q31" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="Q31" s="85" t="n">
+      <c r="R31" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="R31" s="85" t="n">
+      <c r="S31" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="S31" s="85" t="n">
+      <c r="T31" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="T31" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="85" t="n">
+      <c r="U31" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="V31" s="82" t="n"/>
-      <c r="W31" s="82" t="n"/>
-      <c r="X31" s="82" t="n"/>
-      <c r="Y31" s="82" t="n"/>
-      <c r="Z31" s="82" t="n"/>
-      <c r="AA31" s="82" t="n"/>
-      <c r="AB31" s="82" t="n"/>
-      <c r="AC31" s="82" t="n"/>
-      <c r="AD31" s="82" t="n"/>
-      <c r="AE31" s="82" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="95" t="n"/>
+      <c r="Z31" s="95" t="n"/>
+      <c r="AA31" s="95" t="n"/>
+      <c r="AB31" s="95" t="n"/>
+      <c r="AC31" s="95" t="n"/>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="85" t="inlineStr">
+      <c r="A32" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B32" s="85" t="inlineStr">
+      <c r="B32" s="81" t="inlineStr">
         <is>
           <t>Mr Lattanzio</t>
         </is>
       </c>
-      <c r="C32" s="85" t="inlineStr">
+      <c r="C32" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D32" s="85" t="inlineStr">
+      <c r="D32" s="96" t="inlineStr">
+        <is>
+          <t>C391</t>
+        </is>
+      </c>
+      <c r="E32" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E32" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="85" t="n">
+      <c r="F32" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="85" t="n">
+      <c r="H32" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="H32" s="85" t="n">
+      <c r="I32" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="85" t="n">
+      <c r="J32" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="J32" s="85" t="n">
+      <c r="K32" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="K32" s="85" t="n">
+      <c r="L32" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="L32" s="85" t="n">
+      <c r="M32" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="M32" s="85" t="n">
+      <c r="N32" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="N32" s="85" t="n">
+      <c r="O32" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="O32" s="85" t="n">
+      <c r="P32" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="P32" s="85" t="n">
+      <c r="Q32" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" s="85" t="n">
+      <c r="R32" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="R32" s="85" t="n">
+      <c r="S32" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="S32" s="85" t="n">
+      <c r="T32" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="T32" s="85" t="n">
+      <c r="U32" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="U32" s="85" t="n">
+      <c r="V32" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="V32" s="82" t="n"/>
-      <c r="W32" s="82" t="n"/>
-      <c r="X32" s="82" t="n"/>
-      <c r="Y32" s="82" t="n"/>
-      <c r="Z32" s="82" t="n"/>
-      <c r="AA32" s="82" t="n"/>
-      <c r="AB32" s="82" t="n"/>
-      <c r="AC32" s="82" t="n"/>
-      <c r="AD32" s="82" t="n"/>
-      <c r="AE32" s="82" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="85" t="inlineStr">
+      <c r="A33" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B33" s="85" t="inlineStr">
+      <c r="B33" s="81" t="inlineStr">
         <is>
           <t>Mme Kidscheid</t>
         </is>
       </c>
-      <c r="C33" s="85" t="inlineStr">
+      <c r="C33" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D33" s="85" t="inlineStr">
+      <c r="D33" s="96" t="inlineStr">
+        <is>
+          <t>C393</t>
+        </is>
+      </c>
+      <c r="E33" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E33" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="85" t="n">
+      <c r="F33" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="85" t="n">
+      <c r="H33" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="H33" s="85" t="n">
+      <c r="I33" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="I33" s="85" t="n">
+      <c r="J33" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="J33" s="85" t="n">
+      <c r="K33" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="K33" s="85" t="n">
+      <c r="L33" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="L33" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="85" t="n">
+      <c r="M33" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="N33" s="85" t="n">
+      <c r="O33" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="O33" s="85" t="n">
+      <c r="P33" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="P33" s="85" t="n">
+      <c r="Q33" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="Q33" s="85" t="n">
+      <c r="R33" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="R33" s="85" t="n">
+      <c r="S33" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="S33" s="85" t="n">
+      <c r="T33" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="T33" s="85" t="n">
+      <c r="U33" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="U33" s="85" t="n">
+      <c r="V33" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="V33" s="82" t="n"/>
-      <c r="W33" s="82" t="n"/>
-      <c r="X33" s="82" t="n"/>
-      <c r="Y33" s="82" t="n"/>
-      <c r="Z33" s="82" t="n"/>
-      <c r="AA33" s="82" t="n"/>
-      <c r="AB33" s="82" t="n"/>
-      <c r="AC33" s="82" t="n"/>
-      <c r="AD33" s="82" t="n"/>
-      <c r="AE33" s="82" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="85" t="inlineStr">
+      <c r="A34" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B34" s="85" t="inlineStr">
+      <c r="B34" s="81" t="inlineStr">
         <is>
           <t>Mme Semenova</t>
         </is>
       </c>
-      <c r="C34" s="85" t="inlineStr">
+      <c r="C34" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D34" s="85" t="inlineStr">
+      <c r="D34" s="96" t="inlineStr">
+        <is>
+          <t>C395</t>
+        </is>
+      </c>
+      <c r="E34" s="81" t="inlineStr">
         <is>
           <t>15h-16h</t>
         </is>
       </c>
-      <c r="E34" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="85" t="n">
+      <c r="F34" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="G34" s="85" t="n">
+      <c r="H34" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="H34" s="85" t="n">
+      <c r="I34" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="I34" s="85" t="n">
+      <c r="J34" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="J34" s="85" t="n">
+      <c r="K34" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="K34" s="85" t="n">
+      <c r="L34" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="L34" s="85" t="n">
+      <c r="M34" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="M34" s="85" t="n">
+      <c r="N34" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="85" t="n">
+      <c r="O34" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="P34" s="85" t="n">
+      <c r="Q34" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="Q34" s="85" t="n">
+      <c r="R34" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="R34" s="85" t="n">
+      <c r="S34" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="S34" s="85" t="n">
+      <c r="T34" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="T34" s="85" t="n">
+      <c r="U34" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="U34" s="85" t="n">
+      <c r="V34" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="V34" s="82" t="n"/>
-      <c r="W34" s="82" t="n"/>
-      <c r="X34" s="82" t="n"/>
-      <c r="Y34" s="82" t="n"/>
-      <c r="Z34" s="82" t="n"/>
-      <c r="AA34" s="82" t="n"/>
-      <c r="AB34" s="82" t="n"/>
-      <c r="AC34" s="82" t="n"/>
-      <c r="AD34" s="82" t="n"/>
-      <c r="AE34" s="82" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="85" t="inlineStr">
+      <c r="A35" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B35" s="85" t="inlineStr">
+      <c r="B35" s="81" t="inlineStr">
         <is>
           <t>Mme Mann</t>
         </is>
       </c>
-      <c r="C35" s="85" t="inlineStr">
+      <c r="C35" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D35" s="85" t="inlineStr">
+      <c r="D35" s="96" t="inlineStr">
+        <is>
+          <t>C389</t>
+        </is>
+      </c>
+      <c r="E35" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E35" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="85" t="n">
+      <c r="F35" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="85" t="n">
+      <c r="H35" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="H35" s="85" t="n">
+      <c r="I35" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="I35" s="85" t="n">
+      <c r="J35" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="J35" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="85" t="n">
+      <c r="K35" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="L35" s="85" t="n">
+      <c r="M35" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="M35" s="85" t="n">
+      <c r="N35" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="N35" s="85" t="n">
+      <c r="O35" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="O35" s="85" t="n">
+      <c r="P35" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="P35" s="85" t="n">
+      <c r="Q35" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="Q35" s="85" t="n">
+      <c r="R35" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="R35" s="85" t="n">
+      <c r="S35" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="S35" s="85" t="n">
+      <c r="T35" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="T35" s="85" t="n">
+      <c r="U35" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="U35" s="85" t="n">
+      <c r="V35" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="82" t="n"/>
-      <c r="W35" s="82" t="n"/>
-      <c r="X35" s="82" t="n"/>
-      <c r="Y35" s="82" t="n"/>
-      <c r="Z35" s="82" t="n"/>
-      <c r="AA35" s="82" t="n"/>
-      <c r="AB35" s="82" t="n"/>
-      <c r="AC35" s="82" t="n"/>
-      <c r="AD35" s="82" t="n"/>
-      <c r="AE35" s="82" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="85" t="inlineStr">
+      <c r="A36" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B36" s="85" t="inlineStr">
+      <c r="B36" s="81" t="inlineStr">
         <is>
           <t>Mme Mann</t>
         </is>
       </c>
-      <c r="C36" s="85" t="inlineStr">
+      <c r="C36" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D36" s="85" t="inlineStr">
+      <c r="D36" s="96" t="inlineStr">
+        <is>
+          <t>C389</t>
+        </is>
+      </c>
+      <c r="E36" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E36" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="85" t="n">
+      <c r="F36" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="H36" s="85" t="n">
+      <c r="I36" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="I36" s="85" t="n">
+      <c r="J36" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="J36" s="85" t="n">
+      <c r="K36" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="K36" s="85" t="n">
+      <c r="L36" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="L36" s="85" t="n">
+      <c r="M36" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="M36" s="85" t="n">
+      <c r="N36" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="N36" s="85" t="n">
+      <c r="O36" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="O36" s="85" t="n">
+      <c r="P36" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="P36" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="85" t="n">
+      <c r="Q36" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="R36" s="85" t="n">
+      <c r="S36" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="S36" s="85" t="n">
+      <c r="T36" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="T36" s="85" t="n">
+      <c r="U36" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="U36" s="85" t="n">
+      <c r="V36" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="V36" s="82" t="n"/>
-      <c r="W36" s="82" t="n"/>
-      <c r="X36" s="82" t="n"/>
-      <c r="Y36" s="82" t="n"/>
-      <c r="Z36" s="82" t="n"/>
-      <c r="AA36" s="82" t="n"/>
-      <c r="AB36" s="82" t="n"/>
-      <c r="AC36" s="82" t="n"/>
-      <c r="AD36" s="82" t="n"/>
-      <c r="AE36" s="82" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="85" t="inlineStr">
+      <c r="A37" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B37" s="85" t="inlineStr">
+      <c r="B37" s="81" t="inlineStr">
         <is>
           <t>Mme Quintin</t>
         </is>
       </c>
-      <c r="C37" s="85" t="inlineStr">
+      <c r="C37" s="81" t="inlineStr">
         <is>
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="D37" s="85" t="inlineStr">
+      <c r="D37" s="96" t="inlineStr">
+        <is>
+          <t>C392</t>
+        </is>
+      </c>
+      <c r="E37" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E37" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="85" t="n">
+      <c r="F37" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="G37" s="85" t="n">
+      <c r="H37" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="H37" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="85" t="n">
+      <c r="I37" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="J37" s="85" t="n">
+      <c r="K37" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="K37" s="85" t="n">
+      <c r="L37" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="L37" s="85" t="n">
+      <c r="M37" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="M37" s="85" t="n">
+      <c r="N37" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="N37" s="85" t="n">
+      <c r="O37" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="O37" s="85" t="n">
+      <c r="P37" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="P37" s="85" t="n">
+      <c r="Q37" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="Q37" s="85" t="n">
+      <c r="R37" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="R37" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" s="85" t="n">
+      <c r="S37" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="T37" s="85" t="n">
+      <c r="U37" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="U37" s="85" t="n">
+      <c r="V37" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="V37" s="82" t="n"/>
-      <c r="W37" s="82" t="n"/>
-      <c r="X37" s="82" t="n"/>
-      <c r="Y37" s="82" t="n"/>
-      <c r="Z37" s="82" t="n"/>
-      <c r="AA37" s="82" t="n"/>
-      <c r="AB37" s="82" t="n"/>
-      <c r="AC37" s="82" t="n"/>
-      <c r="AD37" s="82" t="n"/>
-      <c r="AE37" s="82" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="85" t="inlineStr">
+      <c r="A38" s="81" t="inlineStr">
         <is>
           <t>ANGLAIS</t>
         </is>
       </c>
-      <c r="B38" s="85" t="inlineStr">
+      <c r="B38" s="81" t="inlineStr">
         <is>
           <t>Mme Belaggoune</t>
         </is>
       </c>
-      <c r="C38" s="85" t="inlineStr">
+      <c r="C38" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D38" s="85" t="inlineStr">
+      <c r="D38" s="96" t="inlineStr">
+        <is>
+          <t>C452</t>
+        </is>
+      </c>
+      <c r="E38" s="81" t="inlineStr">
         <is>
           <t>17h-18h</t>
         </is>
       </c>
-      <c r="E38" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="85" t="n">
+      <c r="F38" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="G38" s="85" t="n">
+      <c r="H38" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="H38" s="85" t="n">
+      <c r="I38" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="I38" s="85" t="n">
+      <c r="J38" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="J38" s="85" t="n">
+      <c r="K38" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="85" t="n">
+      <c r="L38" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="L38" s="85" t="n">
+      <c r="M38" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="M38" s="85" t="n">
+      <c r="N38" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="N38" s="85" t="n">
+      <c r="O38" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="O38" s="85" t="n">
+      <c r="P38" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="P38" s="85" t="n">
+      <c r="Q38" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" s="85" t="n">
+      <c r="R38" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="R38" s="85" t="n">
+      <c r="S38" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="S38" s="85" t="n">
+      <c r="T38" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="T38" s="85" t="n">
+      <c r="U38" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="U38" s="85" t="n">
+      <c r="V38" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="V38" s="82" t="n"/>
-      <c r="W38" s="82" t="n"/>
-      <c r="X38" s="82" t="n"/>
-      <c r="Y38" s="82" t="n"/>
-      <c r="Z38" s="82" t="n"/>
-      <c r="AA38" s="82" t="n"/>
-      <c r="AB38" s="82" t="n"/>
-      <c r="AC38" s="82" t="n"/>
-      <c r="AD38" s="82" t="n"/>
-      <c r="AE38" s="82" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="85" t="n"/>
-      <c r="B39" s="85" t="n"/>
-      <c r="C39" s="85" t="n"/>
-      <c r="D39" s="85" t="n"/>
-      <c r="E39" s="85" t="n"/>
-      <c r="F39" s="85" t="n"/>
-      <c r="G39" s="85" t="n"/>
-      <c r="H39" s="85" t="n"/>
-      <c r="I39" s="85" t="n"/>
-      <c r="J39" s="85" t="n"/>
-      <c r="K39" s="85" t="n"/>
-      <c r="L39" s="85" t="n"/>
-      <c r="M39" s="85" t="n"/>
-      <c r="N39" s="85" t="n"/>
-      <c r="O39" s="85" t="n"/>
-      <c r="P39" s="85" t="n"/>
-      <c r="Q39" s="85" t="n"/>
-      <c r="R39" s="85" t="n"/>
-      <c r="S39" s="85" t="n"/>
-      <c r="T39" s="85" t="n"/>
-      <c r="U39" s="85" t="n"/>
-      <c r="V39" s="82" t="n"/>
-      <c r="W39" s="82" t="n"/>
-      <c r="X39" s="82" t="n"/>
-      <c r="Y39" s="82" t="n"/>
-      <c r="Z39" s="82" t="n"/>
-      <c r="AA39" s="82" t="n"/>
-      <c r="AB39" s="82" t="n"/>
-      <c r="AC39" s="82" t="n"/>
-      <c r="AD39" s="82" t="n"/>
-      <c r="AE39" s="82" t="n"/>
+      <c r="A39" s="81" t="n"/>
+      <c r="B39" s="81" t="n"/>
+      <c r="C39" s="81" t="n"/>
+      <c r="D39" s="97" t="n"/>
+      <c r="E39" s="81" t="n"/>
+      <c r="F39" s="81" t="n"/>
+      <c r="G39" s="97" t="n"/>
+      <c r="H39" s="97" t="n"/>
+      <c r="I39" s="97" t="n"/>
+      <c r="J39" s="97" t="n"/>
+      <c r="K39" s="97" t="n"/>
+      <c r="L39" s="97" t="n"/>
+      <c r="M39" s="97" t="n"/>
+      <c r="N39" s="97" t="n"/>
+      <c r="O39" s="97" t="n"/>
+      <c r="P39" s="97" t="n"/>
+      <c r="Q39" s="97" t="n"/>
+      <c r="R39" s="97" t="n"/>
+      <c r="S39" s="97" t="n"/>
+      <c r="T39" s="97" t="n"/>
+      <c r="U39" s="97" t="n"/>
+      <c r="V39" s="97" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="85" t="inlineStr">
+      <c r="A40" s="81" t="inlineStr">
         <is>
           <t>INFO</t>
         </is>
       </c>
-      <c r="B40" s="85" t="inlineStr">
+      <c r="B40" s="81" t="inlineStr">
         <is>
           <t>Mr Jospin</t>
         </is>
       </c>
-      <c r="C40" s="85" t="inlineStr">
+      <c r="C40" s="81" t="inlineStr">
         <is>
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="D40" s="85" t="inlineStr">
+      <c r="D40" s="96" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="E40" s="81" t="inlineStr">
         <is>
           <t>16h-17h</t>
         </is>
       </c>
-      <c r="E40" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="85" t="n">
+      <c r="F40" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="G40" s="85" t="n">
+      <c r="H40" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="I40" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" s="97" t="n"/>
+      <c r="O40" s="97" t="n"/>
+      <c r="P40" s="97" t="n"/>
+      <c r="Q40" s="97" t="n"/>
+      <c r="R40" s="97" t="n"/>
+      <c r="S40" s="97" t="n"/>
+      <c r="T40" s="97" t="n"/>
+      <c r="U40" s="97" t="n"/>
+      <c r="V40" s="97" t="n"/>
+      <c r="W40" s="95" t="n"/>
+      <c r="X40" s="95" t="n"/>
+      <c r="Y40" s="95" t="n"/>
+      <c r="Z40" s="95" t="n"/>
+      <c r="AA40" s="95" t="n"/>
+      <c r="AB40" s="95" t="n"/>
+      <c r="AC40" s="95" t="n"/>
+      <c r="AD40" s="95" t="n"/>
+      <c r="AE40" s="95" t="n"/>
+      <c r="AF40" s="95" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="81" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="B41" s="81" t="inlineStr">
+        <is>
+          <t>Mr Jospin</t>
+        </is>
+      </c>
+      <c r="C41" s="81" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D41" s="96" t="inlineStr">
+        <is>
+          <t>C282</t>
+        </is>
+      </c>
+      <c r="E41" s="81" t="inlineStr">
+        <is>
+          <t>12h-13h</t>
+        </is>
+      </c>
+      <c r="F41" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="97" t="n"/>
+      <c r="H41" s="97" t="n"/>
+      <c r="I41" s="97" t="n"/>
+      <c r="J41" s="97" t="n"/>
+      <c r="K41" s="97" t="n"/>
+      <c r="L41" s="97" t="n"/>
+      <c r="M41" s="97" t="n"/>
+      <c r="N41" s="99" t="n">
+        <v>7</v>
+      </c>
+      <c r="O41" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="H40" s="85" t="n">
+      <c r="P41" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="I40" s="85" t="n">
+      <c r="Q41" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="J40" s="85" t="n">
+      <c r="R41" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="K40" s="85" t="n">
+      <c r="T41" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" s="99" t="n">
+        <v>15</v>
+      </c>
+      <c r="V41" s="97" t="n"/>
+      <c r="W41" s="95" t="n"/>
+      <c r="X41" s="95" t="n"/>
+      <c r="Y41" s="95" t="n"/>
+      <c r="Z41" s="95" t="n"/>
+      <c r="AA41" s="95" t="n"/>
+      <c r="AB41" s="95" t="n"/>
+      <c r="AC41" s="95" t="n"/>
+      <c r="AD41" s="95" t="n"/>
+      <c r="AE41" s="95" t="n"/>
+      <c r="AF41" s="95" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="81" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="B42" s="81" t="inlineStr">
+        <is>
+          <t>Mr Jospin</t>
+        </is>
+      </c>
+      <c r="C42" s="81" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="D42" s="96" t="inlineStr">
+        <is>
+          <t>C282</t>
+        </is>
+      </c>
+      <c r="E42" s="81" t="inlineStr">
+        <is>
+          <t>13h-14h</t>
+        </is>
+      </c>
+      <c r="F42" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H42" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="I42" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" s="99" t="n">
+        <v>14</v>
+      </c>
+      <c r="K42" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="M42" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="99" t="n">
+        <v>15</v>
+      </c>
+      <c r="O42" s="99" t="n">
+        <v>13</v>
+      </c>
+      <c r="P42" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="99" t="n">
+        <v>14</v>
+      </c>
+      <c r="R42" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="L40" s="85" t="n">
+      <c r="S42" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="T42" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="95" t="n"/>
+      <c r="X42" s="95" t="n"/>
+      <c r="Y42" s="95" t="n"/>
+      <c r="Z42" s="95" t="n"/>
+      <c r="AA42" s="95" t="n"/>
+      <c r="AB42" s="95" t="n"/>
+      <c r="AC42" s="95" t="n"/>
+      <c r="AD42" s="95" t="n"/>
+      <c r="AE42" s="95" t="n"/>
+      <c r="AF42" s="95" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B43" s="81" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C43" s="81" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D43" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E43" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F43" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="99" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" s="97" t="n"/>
+      <c r="I43" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" s="97" t="n"/>
+      <c r="K43" s="99" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" s="97" t="n"/>
+      <c r="M43" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="97" t="n"/>
+      <c r="O43" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="P43" s="97" t="n"/>
+      <c r="Q43" s="97" t="n"/>
+      <c r="R43" s="97" t="n"/>
+      <c r="S43" s="97" t="n"/>
+      <c r="T43" s="97" t="n"/>
+      <c r="U43" s="97" t="n"/>
+      <c r="V43" s="97" t="n"/>
+      <c r="W43" s="95" t="n"/>
+      <c r="X43" s="95" t="n"/>
+      <c r="Y43" s="95" t="n"/>
+      <c r="Z43" s="95" t="n"/>
+      <c r="AA43" s="95" t="n"/>
+      <c r="AB43" s="95" t="n"/>
+      <c r="AC43" s="95" t="n"/>
+      <c r="AD43" s="95" t="n"/>
+      <c r="AE43" s="95" t="n"/>
+      <c r="AF43" s="95" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B44" s="81" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C44" s="81" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D44" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E44" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F44" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="99" t="n">
+        <v>14</v>
+      </c>
+      <c r="H44" s="97" t="n"/>
+      <c r="I44" s="99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" s="97" t="n"/>
+      <c r="K44" s="99" t="n">
+        <v>14</v>
+      </c>
+      <c r="L44" s="97" t="n"/>
+      <c r="M44" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="N44" s="97" t="n"/>
+      <c r="O44" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="P44" s="97" t="n"/>
+      <c r="Q44" s="97" t="n"/>
+      <c r="R44" s="97" t="n"/>
+      <c r="S44" s="97" t="n"/>
+      <c r="T44" s="97" t="n"/>
+      <c r="U44" s="97" t="n"/>
+      <c r="V44" s="97" t="n"/>
+      <c r="W44" s="95" t="n"/>
+      <c r="X44" s="95" t="n"/>
+      <c r="Y44" s="95" t="n"/>
+      <c r="Z44" s="95" t="n"/>
+      <c r="AA44" s="95" t="n"/>
+      <c r="AB44" s="95" t="n"/>
+      <c r="AC44" s="95" t="n"/>
+      <c r="AD44" s="95" t="n"/>
+      <c r="AE44" s="95" t="n"/>
+      <c r="AF44" s="95" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B45" s="81" t="inlineStr">
+        <is>
+          <t>Mr Viegas</t>
+        </is>
+      </c>
+      <c r="C45" s="81" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="D45" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E45" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F45" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="99" t="n">
+        <v>15</v>
+      </c>
+      <c r="H45" s="97" t="n"/>
+      <c r="I45" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" s="97" t="n"/>
+      <c r="K45" s="99" t="n">
+        <v>15</v>
+      </c>
+      <c r="L45" s="97" t="n"/>
+      <c r="M45" s="99" t="n">
+        <v>7</v>
+      </c>
+      <c r="N45" s="97" t="n"/>
+      <c r="O45" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="P45" s="97" t="n"/>
+      <c r="Q45" s="97" t="n"/>
+      <c r="R45" s="97" t="n"/>
+      <c r="S45" s="97" t="n"/>
+      <c r="T45" s="97" t="n"/>
+      <c r="U45" s="97" t="n"/>
+      <c r="V45" s="97" t="n"/>
+      <c r="W45" s="95" t="n"/>
+      <c r="X45" s="95" t="n"/>
+      <c r="Y45" s="95" t="n"/>
+      <c r="Z45" s="95" t="n"/>
+      <c r="AA45" s="95" t="n"/>
+      <c r="AB45" s="95" t="n"/>
+      <c r="AC45" s="95" t="n"/>
+      <c r="AD45" s="95" t="n"/>
+      <c r="AE45" s="95" t="n"/>
+      <c r="AF45" s="95" t="n"/>
+    </row>
+    <row r="46" ht="13" customFormat="1" customHeight="1" s="86">
+      <c r="A46" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B46" s="81" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C46" s="81" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D46" s="96" t="inlineStr">
+        <is>
+          <t>C152</t>
+        </is>
+      </c>
+      <c r="E46" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F46" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="97" t="n"/>
+      <c r="H46" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" s="97" t="n"/>
+      <c r="J46" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="97" t="n"/>
+      <c r="L46" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="M46" s="97" t="n"/>
+      <c r="N46" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" s="97" t="n"/>
+      <c r="P46" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="97" t="n"/>
+      <c r="R46" s="97" t="n"/>
+      <c r="S46" s="97" t="n"/>
+      <c r="T46" s="97" t="n"/>
+      <c r="U46" s="97" t="n"/>
+      <c r="V46" s="97" t="n"/>
+      <c r="W46" s="85" t="n"/>
+      <c r="X46" s="85" t="n"/>
+      <c r="Y46" s="85" t="n"/>
+      <c r="Z46" s="85" t="n"/>
+      <c r="AA46" s="85" t="n"/>
+      <c r="AB46" s="85" t="n"/>
+      <c r="AC46" s="85" t="n"/>
+      <c r="AD46" s="85" t="n"/>
+      <c r="AE46" s="85" t="n"/>
+      <c r="AF46" s="85" t="n"/>
+    </row>
+    <row r="47" ht="13" customFormat="1" customHeight="1" s="86">
+      <c r="A47" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B47" s="81" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C47" s="81" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D47" s="96" t="inlineStr">
+        <is>
+          <t>C152</t>
+        </is>
+      </c>
+      <c r="E47" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F47" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="97" t="n"/>
+      <c r="H47" s="99" t="n">
+        <v>11</v>
+      </c>
+      <c r="I47" s="97" t="n"/>
+      <c r="J47" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" s="97" t="n"/>
+      <c r="L47" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" s="97" t="n"/>
+      <c r="N47" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" s="97" t="n"/>
+      <c r="P47" s="99" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="97" t="n"/>
+      <c r="R47" s="97" t="n"/>
+      <c r="S47" s="97" t="n"/>
+      <c r="T47" s="97" t="n"/>
+      <c r="U47" s="97" t="n"/>
+      <c r="V47" s="97" t="n"/>
+      <c r="W47" s="85" t="n"/>
+      <c r="X47" s="85" t="n"/>
+      <c r="Y47" s="85" t="n"/>
+      <c r="Z47" s="85" t="n"/>
+      <c r="AA47" s="85" t="n"/>
+      <c r="AB47" s="85" t="n"/>
+      <c r="AC47" s="85" t="n"/>
+      <c r="AD47" s="85" t="n"/>
+      <c r="AE47" s="85" t="n"/>
+      <c r="AF47" s="85" t="n"/>
+    </row>
+    <row r="48" ht="13" customFormat="1" customHeight="1" s="86">
+      <c r="A48" s="81" t="inlineStr">
+        <is>
+          <t>Info TP</t>
+        </is>
+      </c>
+      <c r="B48" s="81" t="inlineStr">
+        <is>
+          <t>Mr Menet</t>
+        </is>
+      </c>
+      <c r="C48" s="81" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D48" s="96" t="inlineStr">
+        <is>
+          <t>C152</t>
+        </is>
+      </c>
+      <c r="E48" s="81" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="F48" s="81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="97" t="n"/>
+      <c r="H48" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="I48" s="97" t="n"/>
+      <c r="J48" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="M40" s="86" t="n"/>
-      <c r="N40" s="86" t="n"/>
-      <c r="O40" s="86" t="n"/>
-      <c r="P40" s="86" t="n"/>
-      <c r="Q40" s="86" t="n"/>
-      <c r="R40" s="86" t="n"/>
-      <c r="S40" s="86" t="n"/>
-      <c r="T40" s="86" t="n"/>
-      <c r="U40" s="85" t="n"/>
-      <c r="V40" s="82" t="n"/>
-      <c r="W40" s="82" t="n"/>
-      <c r="X40" s="82" t="n"/>
-      <c r="Y40" s="82" t="n"/>
-      <c r="Z40" s="82" t="n"/>
-      <c r="AA40" s="82" t="n"/>
-      <c r="AB40" s="82" t="n"/>
-      <c r="AC40" s="82" t="n"/>
-      <c r="AD40" s="82" t="n"/>
-      <c r="AE40" s="82" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="85" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="B41" s="85" t="inlineStr">
-        <is>
-          <t>Mr Jospin</t>
-        </is>
-      </c>
-      <c r="C41" s="85" t="inlineStr">
-        <is>
-          <t>Lundi</t>
-        </is>
-      </c>
-      <c r="D41" s="85" t="inlineStr">
-        <is>
-          <t>12h-13h</t>
-        </is>
-      </c>
-      <c r="E41" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="86" t="n"/>
-      <c r="G41" s="86" t="n"/>
-      <c r="H41" s="86" t="n"/>
-      <c r="I41" s="86" t="n"/>
-      <c r="J41" s="86" t="n"/>
-      <c r="K41" s="86" t="n"/>
-      <c r="L41" s="86" t="n"/>
-      <c r="M41" s="85" t="n">
+      <c r="K48" s="97" t="n"/>
+      <c r="L48" s="99" t="n">
+        <v>11</v>
+      </c>
+      <c r="M48" s="97" t="n"/>
+      <c r="N48" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="97" t="n"/>
+      <c r="P48" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="97" t="n"/>
+      <c r="R48" s="97" t="n"/>
+      <c r="S48" s="97" t="n"/>
+      <c r="T48" s="97" t="n"/>
+      <c r="U48" s="97" t="n"/>
+      <c r="V48" s="97" t="n"/>
+      <c r="W48" s="85" t="n"/>
+      <c r="X48" s="85" t="n"/>
+      <c r="Y48" s="85" t="n"/>
+      <c r="Z48" s="85" t="n"/>
+      <c r="AA48" s="85" t="n"/>
+      <c r="AB48" s="85" t="n"/>
+      <c r="AC48" s="85" t="n"/>
+      <c r="AD48" s="85" t="n"/>
+      <c r="AE48" s="85" t="n"/>
+      <c r="AF48" s="85" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="82" t="n"/>
+      <c r="B49" s="82" t="n"/>
+      <c r="C49" s="82" t="n"/>
+      <c r="D49" s="97" t="n"/>
+      <c r="E49" s="82" t="n"/>
+      <c r="F49" s="82" t="n"/>
+      <c r="G49" s="97" t="n"/>
+      <c r="H49" s="97" t="n"/>
+      <c r="I49" s="97" t="n"/>
+      <c r="J49" s="97" t="n"/>
+      <c r="K49" s="97" t="n"/>
+      <c r="L49" s="97" t="n"/>
+      <c r="M49" s="97" t="n"/>
+      <c r="N49" s="97" t="n"/>
+      <c r="O49" s="97" t="n"/>
+      <c r="P49" s="97" t="n"/>
+      <c r="Q49" s="97" t="n"/>
+      <c r="R49" s="97" t="n"/>
+      <c r="S49" s="97" t="n"/>
+      <c r="T49" s="97" t="n"/>
+      <c r="U49" s="97" t="n"/>
+      <c r="V49" s="97" t="n"/>
+      <c r="W49" s="95" t="n"/>
+      <c r="X49" s="95" t="n"/>
+      <c r="Y49" s="95" t="n"/>
+      <c r="Z49" s="95" t="n"/>
+      <c r="AA49" s="95" t="n"/>
+      <c r="AB49" s="95" t="n"/>
+      <c r="AC49" s="95" t="n"/>
+      <c r="AD49" s="95" t="n"/>
+      <c r="AE49" s="95" t="n"/>
+      <c r="AF49" s="95" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="82" t="inlineStr">
+        <is>
+          <t>LETTRES</t>
+        </is>
+      </c>
+      <c r="B50" s="82" t="inlineStr">
+        <is>
+          <t>Mr Annoussamy</t>
+        </is>
+      </c>
+      <c r="C50" s="82" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D50" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E50" s="82" t="inlineStr">
+        <is>
+          <t>16h-17h30</t>
+        </is>
+      </c>
+      <c r="F50" s="82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G50" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H50" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="85" t="n">
+      <c r="I50" s="101" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="J50" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="K50" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="L50" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="M50" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="O41" s="85" t="n">
+      <c r="R50" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T50" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U50" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V50" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W50" s="95" t="n"/>
+      <c r="X50" s="95" t="n"/>
+      <c r="Y50" s="95" t="n"/>
+      <c r="Z50" s="95" t="n"/>
+      <c r="AA50" s="95" t="n"/>
+      <c r="AB50" s="95" t="n"/>
+      <c r="AC50" s="95" t="n"/>
+      <c r="AD50" s="95" t="n"/>
+      <c r="AE50" s="95" t="n"/>
+      <c r="AF50" s="95" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="82" t="inlineStr">
+        <is>
+          <t>LETTRES</t>
+        </is>
+      </c>
+      <c r="B51" s="82" t="inlineStr">
+        <is>
+          <t>Mr Annoussamy</t>
+        </is>
+      </c>
+      <c r="C51" s="82" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="D51" s="96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E51" s="82" t="inlineStr">
+        <is>
+          <t>17h30-19h</t>
+        </is>
+      </c>
+      <c r="F51" s="82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H51" s="102" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I51" s="99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" s="99" t="n">
+        <v>14</v>
+      </c>
+      <c r="K51" s="99" t="n">
+        <v>7</v>
+      </c>
+      <c r="L51" s="96" t="inlineStr">
+        <is>
+          <t>13,3,5</t>
+        </is>
+      </c>
+      <c r="M51" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="P51" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="P41" s="85" t="n">
+      <c r="Q51" s="99" t="n">
+        <v>15</v>
+      </c>
+      <c r="R51" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="Q41" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" s="85" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" s="85" t="n">
-        <v>4</v>
-      </c>
-      <c r="T41" s="85" t="n">
-        <v>15</v>
-      </c>
-      <c r="U41" s="85" t="n"/>
-      <c r="V41" s="82" t="n"/>
-      <c r="W41" s="82" t="n"/>
-      <c r="X41" s="82" t="n"/>
-      <c r="Y41" s="82" t="n"/>
-      <c r="Z41" s="82" t="n"/>
-      <c r="AA41" s="82" t="n"/>
-      <c r="AB41" s="82" t="n"/>
-      <c r="AC41" s="82" t="n"/>
-      <c r="AD41" s="82" t="n"/>
-      <c r="AE41" s="82" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="85" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="B42" s="85" t="inlineStr">
-        <is>
-          <t>Mr Jospin</t>
-        </is>
-      </c>
-      <c r="C42" s="85" t="inlineStr">
-        <is>
-          <t>Lundi</t>
-        </is>
-      </c>
-      <c r="D42" s="85" t="inlineStr">
-        <is>
-          <t>13h-14h</t>
-        </is>
-      </c>
-      <c r="E42" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="85" t="inlineStr">
+      <c r="S51" s="96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G42" s="85" t="n">
-        <v>9</v>
-      </c>
-      <c r="H42" s="85" t="n">
-        <v>13</v>
-      </c>
-      <c r="I42" s="85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" s="85" t="n">
-        <v>12</v>
-      </c>
-      <c r="L42" s="85" t="n">
-        <v>6</v>
-      </c>
-      <c r="M42" s="85" t="n">
-        <v>15</v>
-      </c>
-      <c r="N42" s="85" t="n">
-        <v>13</v>
-      </c>
-      <c r="O42" s="85" t="n">
-        <v>9</v>
-      </c>
-      <c r="P42" s="85" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q42" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" s="85" t="n">
-        <v>12</v>
-      </c>
-      <c r="S42" s="85" t="n">
-        <v>6</v>
-      </c>
-      <c r="T42" s="85" t="n"/>
-      <c r="U42" s="85" t="n"/>
-      <c r="V42" s="82" t="n"/>
-      <c r="W42" s="82" t="n"/>
-      <c r="X42" s="82" t="n"/>
-      <c r="Y42" s="82" t="n"/>
-      <c r="Z42" s="82" t="n"/>
-      <c r="AA42" s="82" t="n"/>
-      <c r="AB42" s="82" t="n"/>
-      <c r="AC42" s="82" t="n"/>
-      <c r="AD42" s="82" t="n"/>
-      <c r="AE42" s="82" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B43" s="85" t="inlineStr">
-        <is>
-          <t>Mr Viegas</t>
-        </is>
-      </c>
-      <c r="C43" s="85" t="inlineStr">
-        <is>
-          <t>Mercredi</t>
-        </is>
-      </c>
-      <c r="D43" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E43" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="85" t="n">
-        <v>13</v>
-      </c>
-      <c r="G43" s="85" t="n"/>
-      <c r="H43" s="85" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" s="85" t="n"/>
-      <c r="J43" s="85" t="n">
-        <v>13</v>
-      </c>
-      <c r="K43" s="85" t="n"/>
-      <c r="L43" s="85" t="n">
-        <v>5</v>
-      </c>
-      <c r="M43" s="85" t="n"/>
-      <c r="N43" s="85" t="n">
-        <v>9</v>
-      </c>
-      <c r="O43" s="85" t="n"/>
-      <c r="P43" s="85" t="n"/>
-      <c r="Q43" s="85" t="n"/>
-      <c r="R43" s="85" t="n"/>
-      <c r="S43" s="85" t="n"/>
-      <c r="T43" s="85" t="n"/>
-      <c r="U43" s="85" t="n"/>
-      <c r="V43" s="82" t="n"/>
-      <c r="W43" s="82" t="n"/>
-      <c r="X43" s="82" t="n"/>
-      <c r="Y43" s="82" t="n"/>
-      <c r="Z43" s="82" t="n"/>
-      <c r="AA43" s="82" t="n"/>
-      <c r="AB43" s="82" t="n"/>
-      <c r="AC43" s="82" t="n"/>
-      <c r="AD43" s="82" t="n"/>
-      <c r="AE43" s="82" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B44" s="85" t="inlineStr">
-        <is>
-          <t>Mr Viegas</t>
-        </is>
-      </c>
-      <c r="C44" s="85" t="inlineStr">
-        <is>
-          <t>Mercredi</t>
-        </is>
-      </c>
-      <c r="D44" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E44" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="85" t="n">
-        <v>14</v>
-      </c>
-      <c r="G44" s="85" t="n"/>
-      <c r="H44" s="85" t="n">
-        <v>7</v>
-      </c>
-      <c r="I44" s="85" t="n"/>
-      <c r="J44" s="85" t="n">
-        <v>14</v>
-      </c>
-      <c r="K44" s="85" t="n"/>
-      <c r="L44" s="85" t="n">
-        <v>8</v>
-      </c>
-      <c r="M44" s="85" t="n"/>
-      <c r="N44" s="85" t="n">
-        <v>12</v>
-      </c>
-      <c r="O44" s="85" t="n"/>
-      <c r="P44" s="85" t="n"/>
-      <c r="Q44" s="85" t="n"/>
-      <c r="R44" s="85" t="n"/>
-      <c r="S44" s="85" t="n"/>
-      <c r="T44" s="85" t="n"/>
-      <c r="U44" s="85" t="n"/>
-      <c r="V44" s="82" t="n"/>
-      <c r="W44" s="82" t="n"/>
-      <c r="X44" s="82" t="n"/>
-      <c r="Y44" s="82" t="n"/>
-      <c r="Z44" s="82" t="n"/>
-      <c r="AA44" s="82" t="n"/>
-      <c r="AB44" s="82" t="n"/>
-      <c r="AC44" s="82" t="n"/>
-      <c r="AD44" s="82" t="n"/>
-      <c r="AE44" s="82" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B45" s="85" t="inlineStr">
-        <is>
-          <t>Mr Viegas</t>
-        </is>
-      </c>
-      <c r="C45" s="85" t="inlineStr">
-        <is>
-          <t>Mercredi</t>
-        </is>
-      </c>
-      <c r="D45" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E45" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="85" t="n">
-        <v>15</v>
-      </c>
-      <c r="G45" s="85" t="n"/>
-      <c r="H45" s="85" t="n">
-        <v>8</v>
-      </c>
-      <c r="I45" s="85" t="n"/>
-      <c r="J45" s="85" t="n">
-        <v>15</v>
-      </c>
-      <c r="K45" s="85" t="n"/>
-      <c r="L45" s="85" t="n">
-        <v>7</v>
-      </c>
-      <c r="M45" s="85" t="n"/>
-      <c r="N45" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" s="85" t="n"/>
-      <c r="P45" s="85" t="n"/>
-      <c r="Q45" s="85" t="n"/>
-      <c r="R45" s="85" t="n"/>
-      <c r="S45" s="85" t="n"/>
-      <c r="T45" s="85" t="n"/>
-      <c r="U45" s="85" t="n"/>
-      <c r="V45" s="82" t="n"/>
-      <c r="W45" s="82" t="n"/>
-      <c r="X45" s="82" t="n"/>
-      <c r="Y45" s="82" t="n"/>
-      <c r="Z45" s="82" t="n"/>
-      <c r="AA45" s="82" t="n"/>
-      <c r="AB45" s="82" t="n"/>
-      <c r="AC45" s="82" t="n"/>
-      <c r="AD45" s="82" t="n"/>
-      <c r="AE45" s="82" t="n"/>
-    </row>
-    <row r="46" ht="13" customFormat="1" customHeight="1" s="90">
-      <c r="A46" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B46" s="85" t="inlineStr">
-        <is>
-          <t>Mr Menet</t>
-        </is>
-      </c>
-      <c r="C46" s="85" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="D46" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E46" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="85" t="n"/>
-      <c r="G46" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="H46" s="85" t="n"/>
-      <c r="I46" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" s="85" t="n"/>
-      <c r="K46" s="85" t="n">
-        <v>9</v>
-      </c>
-      <c r="L46" s="85" t="n"/>
-      <c r="M46" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" s="85" t="n"/>
-      <c r="O46" s="85" t="n">
-        <v>5</v>
-      </c>
-      <c r="P46" s="85" t="n"/>
-      <c r="Q46" s="85" t="n"/>
-      <c r="R46" s="85" t="n"/>
-      <c r="S46" s="85" t="n"/>
-      <c r="T46" s="85" t="n"/>
-      <c r="U46" s="85" t="n"/>
-      <c r="V46" s="89" t="n"/>
-      <c r="W46" s="89" t="n"/>
-      <c r="X46" s="89" t="n"/>
-      <c r="Y46" s="89" t="n"/>
-      <c r="Z46" s="89" t="n"/>
-      <c r="AA46" s="89" t="n"/>
-      <c r="AB46" s="89" t="n"/>
-      <c r="AC46" s="89" t="n"/>
-      <c r="AD46" s="89" t="n"/>
-      <c r="AE46" s="89" t="n"/>
-    </row>
-    <row r="47" ht="13" customFormat="1" customHeight="1" s="90">
-      <c r="A47" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B47" s="85" t="inlineStr">
-        <is>
-          <t>Mr Menet</t>
-        </is>
-      </c>
-      <c r="C47" s="85" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="D47" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E47" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" s="85" t="n"/>
-      <c r="G47" s="85" t="n">
-        <v>11</v>
-      </c>
-      <c r="H47" s="85" t="n"/>
-      <c r="I47" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" s="85" t="n"/>
-      <c r="K47" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="L47" s="85" t="n"/>
-      <c r="M47" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" s="85" t="n"/>
-      <c r="O47" s="85" t="n">
-        <v>11</v>
-      </c>
-      <c r="P47" s="85" t="n"/>
-      <c r="Q47" s="85" t="n"/>
-      <c r="R47" s="85" t="n"/>
-      <c r="S47" s="85" t="n"/>
-      <c r="T47" s="85" t="n"/>
-      <c r="U47" s="85" t="n"/>
-      <c r="V47" s="89" t="n"/>
-      <c r="W47" s="89" t="n"/>
-      <c r="X47" s="89" t="n"/>
-      <c r="Y47" s="89" t="n"/>
-      <c r="Z47" s="89" t="n"/>
-      <c r="AA47" s="89" t="n"/>
-      <c r="AB47" s="89" t="n"/>
-      <c r="AC47" s="89" t="n"/>
-      <c r="AD47" s="89" t="n"/>
-      <c r="AE47" s="89" t="n"/>
-    </row>
-    <row r="48" ht="13" customFormat="1" customHeight="1" s="90">
-      <c r="A48" s="85" t="inlineStr">
-        <is>
-          <t>Info TP</t>
-        </is>
-      </c>
-      <c r="B48" s="85" t="inlineStr">
-        <is>
-          <t>Mr Menet</t>
-        </is>
-      </c>
-      <c r="C48" s="85" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="D48" s="85" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="E48" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="85" t="n"/>
-      <c r="G48" s="85" t="n">
-        <v>12</v>
-      </c>
-      <c r="H48" s="85" t="n"/>
-      <c r="I48" s="85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" s="85" t="n"/>
-      <c r="K48" s="85" t="n">
-        <v>11</v>
-      </c>
-      <c r="L48" s="85" t="n"/>
-      <c r="M48" s="85" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" s="85" t="n"/>
-      <c r="O48" s="85" t="n">
-        <v>6</v>
-      </c>
-      <c r="P48" s="85" t="n"/>
-      <c r="Q48" s="85" t="n"/>
-      <c r="R48" s="85" t="n"/>
-      <c r="S48" s="85" t="n"/>
-      <c r="T48" s="85" t="n"/>
-      <c r="U48" s="85" t="n"/>
-      <c r="V48" s="89" t="n"/>
-      <c r="W48" s="89" t="n"/>
-      <c r="X48" s="89" t="n"/>
-      <c r="Y48" s="89" t="n"/>
-      <c r="Z48" s="89" t="n"/>
-      <c r="AA48" s="89" t="n"/>
-      <c r="AB48" s="89" t="n"/>
-      <c r="AC48" s="89" t="n"/>
-      <c r="AD48" s="89" t="n"/>
-      <c r="AE48" s="89" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="86" t="n"/>
-      <c r="B49" s="86" t="n"/>
-      <c r="C49" s="86" t="n"/>
-      <c r="D49" s="86" t="n"/>
-      <c r="E49" s="86" t="n"/>
-      <c r="F49" s="86" t="n"/>
-      <c r="G49" s="86" t="n"/>
-      <c r="H49" s="86" t="n"/>
-      <c r="I49" s="86" t="n"/>
-      <c r="J49" s="86" t="n"/>
-      <c r="K49" s="86" t="n"/>
-      <c r="L49" s="86" t="n"/>
-      <c r="M49" s="86" t="n"/>
-      <c r="N49" s="86" t="n"/>
-      <c r="O49" s="86" t="n"/>
-      <c r="P49" s="86" t="n"/>
-      <c r="Q49" s="86" t="n"/>
-      <c r="R49" s="86" t="n"/>
-      <c r="S49" s="86" t="n"/>
-      <c r="T49" s="86" t="n"/>
-      <c r="U49" s="86" t="n"/>
-      <c r="V49" s="82" t="n"/>
-      <c r="W49" s="82" t="n"/>
-      <c r="X49" s="82" t="n"/>
-      <c r="Y49" s="82" t="n"/>
-      <c r="Z49" s="82" t="n"/>
-      <c r="AA49" s="82" t="n"/>
-      <c r="AB49" s="82" t="n"/>
-      <c r="AC49" s="82" t="n"/>
-      <c r="AD49" s="82" t="n"/>
-      <c r="AE49" s="82" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="86" t="inlineStr">
-        <is>
-          <t>LETTRES</t>
-        </is>
-      </c>
-      <c r="B50" s="86" t="inlineStr">
-        <is>
-          <t>Mr Annoussamy</t>
-        </is>
-      </c>
-      <c r="C50" s="86" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="D50" s="86" t="inlineStr">
-        <is>
-          <t>16h-17h30</t>
-        </is>
-      </c>
-      <c r="E50" s="86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F50" s="86" t="inlineStr">
+      <c r="T51" s="96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G50" s="86" t="n">
-        <v>7</v>
-      </c>
-      <c r="H50" s="94" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="I50" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" s="86" t="n">
-        <v>9</v>
-      </c>
-      <c r="K50" s="86" t="n">
-        <v>12</v>
-      </c>
-      <c r="L50" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="86" t="n">
-        <v>6</v>
-      </c>
-      <c r="O50" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="P50" s="86" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" s="86" t="inlineStr">
+      <c r="U51" s="96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="S50" s="86" t="inlineStr">
+      <c r="V51" s="96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="T50" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U50" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V50" s="82" t="n"/>
-      <c r="W50" s="82" t="n"/>
-      <c r="X50" s="82" t="n"/>
-      <c r="Y50" s="82" t="n"/>
-      <c r="Z50" s="82" t="n"/>
-      <c r="AA50" s="82" t="n"/>
-      <c r="AB50" s="82" t="n"/>
-      <c r="AC50" s="82" t="n"/>
-      <c r="AD50" s="82" t="n"/>
-      <c r="AE50" s="82" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="86" t="inlineStr">
-        <is>
-          <t>LETTRES</t>
-        </is>
-      </c>
-      <c r="B51" s="86" t="inlineStr">
-        <is>
-          <t>Mr Annoussamy</t>
-        </is>
-      </c>
-      <c r="C51" s="86" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="D51" s="86" t="inlineStr">
-        <is>
-          <t>17h30-19h</t>
-        </is>
-      </c>
-      <c r="E51" s="86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F51" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G51" s="94" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H51" s="86" t="n">
-        <v>12</v>
-      </c>
-      <c r="I51" s="86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" s="86" t="n">
-        <v>7</v>
-      </c>
-      <c r="K51" s="94" t="inlineStr">
-        <is>
-          <t>13,3,5</t>
-        </is>
-      </c>
-      <c r="L51" s="86" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" s="86" t="n">
-        <v>13</v>
-      </c>
-      <c r="N51" s="86" t="n">
-        <v>4</v>
-      </c>
-      <c r="O51" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="P51" s="86" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q51" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="R51" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S51" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T51" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U51" s="86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V51" s="82" t="n"/>
-      <c r="W51" s="82" t="n"/>
-      <c r="X51" s="82" t="n"/>
-      <c r="Y51" s="82" t="n"/>
-      <c r="Z51" s="82" t="n"/>
-      <c r="AA51" s="82" t="n"/>
-      <c r="AB51" s="82" t="n"/>
-      <c r="AC51" s="82" t="n"/>
-      <c r="AD51" s="82" t="n"/>
-      <c r="AE51" s="82" t="n"/>
+      <c r="W51" s="95" t="n"/>
+      <c r="X51" s="95" t="n"/>
+      <c r="Y51" s="95" t="n"/>
+      <c r="Z51" s="95" t="n"/>
+      <c r="AA51" s="95" t="n"/>
+      <c r="AB51" s="95" t="n"/>
+      <c r="AC51" s="95" t="n"/>
+      <c r="AD51" s="95" t="n"/>
+      <c r="AE51" s="95" t="n"/>
+      <c r="AF51" s="95" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="82" t="n"/>
-      <c r="B52" s="82" t="n"/>
-      <c r="C52" s="82" t="n"/>
-      <c r="D52" s="82" t="n"/>
-      <c r="E52" s="82" t="n"/>
-      <c r="F52" s="82" t="n"/>
-      <c r="G52" s="82" t="n"/>
-      <c r="H52" s="82" t="n"/>
-      <c r="I52" s="82" t="n"/>
-      <c r="J52" s="82" t="n"/>
-      <c r="K52" s="82" t="n"/>
-      <c r="L52" s="82" t="n"/>
-      <c r="M52" s="82" t="n"/>
-      <c r="N52" s="82" t="n"/>
-      <c r="O52" s="82" t="n"/>
-      <c r="P52" s="82" t="n"/>
-      <c r="Q52" s="82" t="n"/>
-      <c r="R52" s="82" t="n"/>
-      <c r="S52" s="82" t="n"/>
-      <c r="T52" s="82" t="n"/>
-      <c r="U52" s="82" t="n"/>
-      <c r="V52" s="82" t="n"/>
-      <c r="W52" s="82" t="n"/>
-      <c r="X52" s="82" t="n"/>
-      <c r="Y52" s="82" t="n"/>
-      <c r="Z52" s="82" t="n"/>
-      <c r="AA52" s="82" t="n"/>
-      <c r="AB52" s="82" t="n"/>
-      <c r="AC52" s="82" t="n"/>
-      <c r="AD52" s="82" t="n"/>
-      <c r="AE52" s="82" t="n"/>
+      <c r="A52" s="95" t="n"/>
+      <c r="B52" s="95" t="n"/>
+      <c r="C52" s="95" t="n"/>
+      <c r="D52" s="98" t="n"/>
+      <c r="E52" s="95" t="n"/>
+      <c r="F52" s="95" t="n"/>
+      <c r="G52" s="95" t="n"/>
+      <c r="H52" s="95" t="n"/>
+      <c r="I52" s="95" t="n"/>
+      <c r="J52" s="95" t="n"/>
+      <c r="K52" s="95" t="n"/>
+      <c r="L52" s="95" t="n"/>
+      <c r="M52" s="95" t="n"/>
+      <c r="N52" s="95" t="n"/>
+      <c r="O52" s="95" t="n"/>
+      <c r="P52" s="95" t="n"/>
+      <c r="Q52" s="95" t="n"/>
+      <c r="R52" s="95" t="n"/>
+      <c r="S52" s="95" t="n"/>
+      <c r="T52" s="95" t="n"/>
+      <c r="U52" s="95" t="n"/>
+      <c r="V52" s="95" t="n"/>
+      <c r="W52" s="95" t="n"/>
+      <c r="X52" s="95" t="n"/>
+      <c r="Y52" s="95" t="n"/>
+      <c r="Z52" s="95" t="n"/>
+      <c r="AA52" s="95" t="n"/>
+      <c r="AB52" s="95" t="n"/>
+      <c r="AC52" s="95" t="n"/>
+      <c r="AD52" s="95" t="n"/>
+      <c r="AE52" s="95" t="n"/>
+      <c r="AF52" s="95" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="82" t="n"/>
-      <c r="B53" s="82" t="n"/>
-      <c r="C53" s="82" t="n"/>
-      <c r="D53" s="82" t="n"/>
-      <c r="E53" s="82" t="n"/>
-      <c r="F53" s="82" t="n"/>
-      <c r="G53" s="82" t="n"/>
-      <c r="H53" s="82" t="n"/>
-      <c r="I53" s="82" t="n"/>
-      <c r="J53" s="82" t="n"/>
-      <c r="K53" s="82" t="n"/>
-      <c r="L53" s="82" t="n"/>
-      <c r="M53" s="82" t="n"/>
-      <c r="N53" s="82" t="n"/>
-      <c r="O53" s="82" t="n"/>
-      <c r="P53" s="82" t="n"/>
-      <c r="Q53" s="82" t="n"/>
-      <c r="R53" s="82" t="n"/>
-      <c r="S53" s="82" t="n"/>
-      <c r="T53" s="82" t="n"/>
-      <c r="U53" s="82" t="n"/>
-      <c r="V53" s="82" t="n"/>
-      <c r="W53" s="82" t="n"/>
-      <c r="X53" s="82" t="n"/>
-      <c r="Y53" s="82" t="n"/>
-      <c r="Z53" s="82" t="n"/>
-      <c r="AA53" s="82" t="n"/>
-      <c r="AB53" s="82" t="n"/>
-      <c r="AC53" s="82" t="n"/>
-      <c r="AD53" s="82" t="n"/>
-      <c r="AE53" s="82" t="n"/>
+      <c r="A53" s="95" t="n"/>
+      <c r="B53" s="95" t="n"/>
+      <c r="C53" s="95" t="n"/>
+      <c r="D53" s="95" t="n"/>
+      <c r="E53" s="95" t="n"/>
+      <c r="F53" s="95" t="n"/>
+      <c r="G53" s="95" t="n"/>
+      <c r="H53" s="95" t="n"/>
+      <c r="I53" s="95" t="n"/>
+      <c r="J53" s="95" t="n"/>
+      <c r="K53" s="95" t="n"/>
+      <c r="L53" s="95" t="n"/>
+      <c r="M53" s="95" t="n"/>
+      <c r="N53" s="95" t="n"/>
+      <c r="O53" s="95" t="n"/>
+      <c r="P53" s="95" t="n"/>
+      <c r="Q53" s="95" t="n"/>
+      <c r="R53" s="95" t="n"/>
+      <c r="S53" s="95" t="n"/>
+      <c r="T53" s="95" t="n"/>
+      <c r="U53" s="95" t="n"/>
+      <c r="V53" s="95" t="n"/>
+      <c r="W53" s="95" t="n"/>
+      <c r="X53" s="95" t="n"/>
+      <c r="Y53" s="95" t="n"/>
+      <c r="Z53" s="95" t="n"/>
+      <c r="AA53" s="95" t="n"/>
+      <c r="AB53" s="95" t="n"/>
+      <c r="AC53" s="95" t="n"/>
+      <c r="AD53" s="95" t="n"/>
+      <c r="AE53" s="95" t="n"/>
+      <c r="AF53" s="95" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="82" t="n"/>
-      <c r="V54" s="82" t="n"/>
-      <c r="W54" s="82" t="n"/>
-      <c r="X54" s="82" t="n"/>
-      <c r="Y54" s="82" t="n"/>
-      <c r="Z54" s="82" t="n"/>
-      <c r="AA54" s="82" t="n"/>
-      <c r="AB54" s="82" t="n"/>
-      <c r="AC54" s="82" t="n"/>
-      <c r="AD54" s="82" t="n"/>
-      <c r="AE54" s="82" t="n"/>
+      <c r="A54" s="95" t="n"/>
+      <c r="W54" s="95" t="n"/>
+      <c r="X54" s="95" t="n"/>
+      <c r="Y54" s="95" t="n"/>
+      <c r="Z54" s="95" t="n"/>
+      <c r="AA54" s="95" t="n"/>
+      <c r="AB54" s="95" t="n"/>
+      <c r="AC54" s="95" t="n"/>
+      <c r="AD54" s="95" t="n"/>
+      <c r="AE54" s="95" t="n"/>
+      <c r="AF54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="82" t="n"/>
-      <c r="V55" s="82" t="n"/>
-      <c r="W55" s="82" t="n"/>
-      <c r="X55" s="82" t="n"/>
-      <c r="Y55" s="82" t="n"/>
-      <c r="Z55" s="82" t="n"/>
-      <c r="AA55" s="82" t="n"/>
-      <c r="AB55" s="82" t="n"/>
-      <c r="AC55" s="82" t="n"/>
-      <c r="AD55" s="82" t="n"/>
-      <c r="AE55" s="82" t="n"/>
+      <c r="A55" s="95" t="n"/>
+      <c r="W55" s="95" t="n"/>
+      <c r="X55" s="95" t="n"/>
+      <c r="Y55" s="95" t="n"/>
+      <c r="Z55" s="95" t="n"/>
+      <c r="AA55" s="95" t="n"/>
+      <c r="AB55" s="95" t="n"/>
+      <c r="AC55" s="95" t="n"/>
+      <c r="AD55" s="95" t="n"/>
+      <c r="AE55" s="95" t="n"/>
+      <c r="AF55" s="95" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="82" t="n"/>
-      <c r="V56" s="82" t="n"/>
-      <c r="W56" s="82" t="n"/>
-      <c r="X56" s="82" t="n"/>
-      <c r="Y56" s="82" t="n"/>
-      <c r="Z56" s="82" t="n"/>
-      <c r="AA56" s="82" t="n"/>
-      <c r="AB56" s="82" t="n"/>
-      <c r="AC56" s="82" t="n"/>
-      <c r="AD56" s="82" t="n"/>
-      <c r="AE56" s="82" t="n"/>
+      <c r="A56" s="95" t="n"/>
+      <c r="W56" s="95" t="n"/>
+      <c r="X56" s="95" t="n"/>
+      <c r="Y56" s="95" t="n"/>
+      <c r="Z56" s="95" t="n"/>
+      <c r="AA56" s="95" t="n"/>
+      <c r="AB56" s="95" t="n"/>
+      <c r="AC56" s="95" t="n"/>
+      <c r="AD56" s="95" t="n"/>
+      <c r="AE56" s="95" t="n"/>
+      <c r="AF56" s="95" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="82" t="n"/>
-      <c r="V57" s="82" t="n"/>
-      <c r="W57" s="82" t="n"/>
-      <c r="X57" s="82" t="n"/>
-      <c r="Y57" s="82" t="n"/>
-      <c r="Z57" s="82" t="n"/>
-      <c r="AA57" s="82" t="n"/>
-      <c r="AB57" s="82" t="n"/>
-      <c r="AC57" s="82" t="n"/>
-      <c r="AD57" s="82" t="n"/>
-      <c r="AE57" s="82" t="n"/>
+      <c r="A57" s="95" t="n"/>
+      <c r="W57" s="95" t="n"/>
+      <c r="X57" s="95" t="n"/>
+      <c r="Y57" s="95" t="n"/>
+      <c r="Z57" s="95" t="n"/>
+      <c r="AA57" s="95" t="n"/>
+      <c r="AB57" s="95" t="n"/>
+      <c r="AC57" s="95" t="n"/>
+      <c r="AD57" s="95" t="n"/>
+      <c r="AE57" s="95" t="n"/>
+      <c r="AF57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="82" t="n"/>
-      <c r="V58" s="82" t="n"/>
-      <c r="W58" s="82" t="n"/>
-      <c r="X58" s="82" t="n"/>
-      <c r="Y58" s="82" t="n"/>
-      <c r="Z58" s="82" t="n"/>
-      <c r="AA58" s="82" t="n"/>
-      <c r="AB58" s="82" t="n"/>
-      <c r="AC58" s="82" t="n"/>
-      <c r="AD58" s="82" t="n"/>
-      <c r="AE58" s="82" t="n"/>
+      <c r="A58" s="95" t="n"/>
+      <c r="W58" s="95" t="n"/>
+      <c r="X58" s="95" t="n"/>
+      <c r="Y58" s="95" t="n"/>
+      <c r="Z58" s="95" t="n"/>
+      <c r="AA58" s="95" t="n"/>
+      <c r="AB58" s="95" t="n"/>
+      <c r="AC58" s="95" t="n"/>
+      <c r="AD58" s="95" t="n"/>
+      <c r="AE58" s="95" t="n"/>
+      <c r="AF58" s="95" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="82" t="n"/>
-      <c r="V59" s="82" t="n"/>
-      <c r="W59" s="82" t="n"/>
-      <c r="X59" s="82" t="n"/>
-      <c r="Y59" s="82" t="n"/>
-      <c r="Z59" s="82" t="n"/>
-      <c r="AA59" s="82" t="n"/>
-      <c r="AB59" s="82" t="n"/>
-      <c r="AC59" s="82" t="n"/>
-      <c r="AD59" s="82" t="n"/>
-      <c r="AE59" s="82" t="n"/>
+      <c r="A59" s="95" t="n"/>
+      <c r="W59" s="95" t="n"/>
+      <c r="X59" s="95" t="n"/>
+      <c r="Y59" s="95" t="n"/>
+      <c r="Z59" s="95" t="n"/>
+      <c r="AA59" s="95" t="n"/>
+      <c r="AB59" s="95" t="n"/>
+      <c r="AC59" s="95" t="n"/>
+      <c r="AD59" s="95" t="n"/>
+      <c r="AE59" s="95" t="n"/>
+      <c r="AF59" s="95" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="82" t="n"/>
-      <c r="V60" s="82" t="n"/>
-      <c r="W60" s="82" t="n"/>
-      <c r="X60" s="82" t="n"/>
-      <c r="Y60" s="82" t="n"/>
-      <c r="Z60" s="82" t="n"/>
-      <c r="AA60" s="82" t="n"/>
-      <c r="AB60" s="82" t="n"/>
-      <c r="AC60" s="82" t="n"/>
-      <c r="AD60" s="82" t="n"/>
-      <c r="AE60" s="82" t="n"/>
+      <c r="A60" s="95" t="n"/>
+      <c r="W60" s="95" t="n"/>
+      <c r="X60" s="95" t="n"/>
+      <c r="Y60" s="95" t="n"/>
+      <c r="Z60" s="95" t="n"/>
+      <c r="AA60" s="95" t="n"/>
+      <c r="AB60" s="95" t="n"/>
+      <c r="AC60" s="95" t="n"/>
+      <c r="AD60" s="95" t="n"/>
+      <c r="AE60" s="95" t="n"/>
+      <c r="AF60" s="95" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="82" t="n"/>
-      <c r="V61" s="82" t="n"/>
-      <c r="W61" s="82" t="n"/>
-      <c r="X61" s="82" t="n"/>
-      <c r="Y61" s="82" t="n"/>
-      <c r="Z61" s="82" t="n"/>
-      <c r="AA61" s="82" t="n"/>
-      <c r="AB61" s="82" t="n"/>
-      <c r="AC61" s="82" t="n"/>
-      <c r="AD61" s="82" t="n"/>
-      <c r="AE61" s="82" t="n"/>
+      <c r="A61" s="95" t="n"/>
+      <c r="W61" s="95" t="n"/>
+      <c r="X61" s="95" t="n"/>
+      <c r="Y61" s="95" t="n"/>
+      <c r="Z61" s="95" t="n"/>
+      <c r="AA61" s="95" t="n"/>
+      <c r="AB61" s="95" t="n"/>
+      <c r="AC61" s="95" t="n"/>
+      <c r="AD61" s="95" t="n"/>
+      <c r="AE61" s="95" t="n"/>
+      <c r="AF61" s="95" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="82" t="n"/>
-      <c r="V62" s="82" t="n"/>
-      <c r="W62" s="82" t="n"/>
-      <c r="X62" s="82" t="n"/>
-      <c r="Y62" s="82" t="n"/>
-      <c r="Z62" s="82" t="n"/>
-      <c r="AA62" s="82" t="n"/>
-      <c r="AB62" s="82" t="n"/>
-      <c r="AC62" s="82" t="n"/>
-      <c r="AD62" s="82" t="n"/>
-      <c r="AE62" s="82" t="n"/>
+      <c r="A62" s="95" t="n"/>
+      <c r="W62" s="95" t="n"/>
+      <c r="X62" s="95" t="n"/>
+      <c r="Y62" s="95" t="n"/>
+      <c r="Z62" s="95" t="n"/>
+      <c r="AA62" s="95" t="n"/>
+      <c r="AB62" s="95" t="n"/>
+      <c r="AC62" s="95" t="n"/>
+      <c r="AD62" s="95" t="n"/>
+      <c r="AE62" s="95" t="n"/>
+      <c r="AF62" s="95" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="82" t="n"/>
-      <c r="V63" s="82" t="n"/>
-      <c r="W63" s="82" t="n"/>
-      <c r="X63" s="82" t="n"/>
-      <c r="Y63" s="82" t="n"/>
-      <c r="Z63" s="82" t="n"/>
-      <c r="AA63" s="82" t="n"/>
-      <c r="AB63" s="82" t="n"/>
-      <c r="AC63" s="82" t="n"/>
-      <c r="AD63" s="82" t="n"/>
-      <c r="AE63" s="82" t="n"/>
+      <c r="A63" s="95" t="n"/>
+      <c r="W63" s="95" t="n"/>
+      <c r="X63" s="95" t="n"/>
+      <c r="Y63" s="95" t="n"/>
+      <c r="Z63" s="95" t="n"/>
+      <c r="AA63" s="95" t="n"/>
+      <c r="AB63" s="95" t="n"/>
+      <c r="AC63" s="95" t="n"/>
+      <c r="AD63" s="95" t="n"/>
+      <c r="AE63" s="95" t="n"/>
+      <c r="AF63" s="95" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="82" t="n"/>
-      <c r="V64" s="82" t="n"/>
-      <c r="W64" s="82" t="n"/>
-      <c r="X64" s="82" t="n"/>
-      <c r="Y64" s="82" t="n"/>
-      <c r="Z64" s="82" t="n"/>
-      <c r="AA64" s="82" t="n"/>
-      <c r="AB64" s="82" t="n"/>
-      <c r="AC64" s="82" t="n"/>
-      <c r="AD64" s="82" t="n"/>
-      <c r="AE64" s="82" t="n"/>
+      <c r="A64" s="95" t="n"/>
+      <c r="W64" s="95" t="n"/>
+      <c r="X64" s="95" t="n"/>
+      <c r="Y64" s="95" t="n"/>
+      <c r="Z64" s="95" t="n"/>
+      <c r="AA64" s="95" t="n"/>
+      <c r="AB64" s="95" t="n"/>
+      <c r="AC64" s="95" t="n"/>
+      <c r="AD64" s="95" t="n"/>
+      <c r="AE64" s="95" t="n"/>
+      <c r="AF64" s="95" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="82" t="n"/>
-      <c r="V65" s="82" t="n"/>
-      <c r="W65" s="82" t="n"/>
-      <c r="X65" s="82" t="n"/>
-      <c r="Y65" s="82" t="n"/>
-      <c r="Z65" s="82" t="n"/>
-      <c r="AA65" s="82" t="n"/>
-      <c r="AB65" s="82" t="n"/>
-      <c r="AC65" s="82" t="n"/>
-      <c r="AD65" s="82" t="n"/>
-      <c r="AE65" s="82" t="n"/>
+      <c r="A65" s="95" t="n"/>
+      <c r="W65" s="95" t="n"/>
+      <c r="X65" s="95" t="n"/>
+      <c r="Y65" s="95" t="n"/>
+      <c r="Z65" s="95" t="n"/>
+      <c r="AA65" s="95" t="n"/>
+      <c r="AB65" s="95" t="n"/>
+      <c r="AC65" s="95" t="n"/>
+      <c r="AD65" s="95" t="n"/>
+      <c r="AE65" s="95" t="n"/>
+      <c r="AF65" s="95" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="82" t="n"/>
-      <c r="V66" s="82" t="n"/>
-      <c r="W66" s="82" t="n"/>
-      <c r="X66" s="82" t="n"/>
-      <c r="Y66" s="82" t="n"/>
-      <c r="Z66" s="82" t="n"/>
-      <c r="AA66" s="82" t="n"/>
-      <c r="AB66" s="82" t="n"/>
-      <c r="AC66" s="82" t="n"/>
-      <c r="AD66" s="82" t="n"/>
-      <c r="AE66" s="82" t="n"/>
+      <c r="A66" s="95" t="n"/>
+      <c r="W66" s="95" t="n"/>
+      <c r="X66" s="95" t="n"/>
+      <c r="Y66" s="95" t="n"/>
+      <c r="Z66" s="95" t="n"/>
+      <c r="AA66" s="95" t="n"/>
+      <c r="AB66" s="95" t="n"/>
+      <c r="AC66" s="95" t="n"/>
+      <c r="AD66" s="95" t="n"/>
+      <c r="AE66" s="95" t="n"/>
+      <c r="AF66" s="95" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="82" t="n"/>
-      <c r="V67" s="82" t="n"/>
-      <c r="W67" s="82" t="n"/>
-      <c r="X67" s="82" t="n"/>
-      <c r="Y67" s="82" t="n"/>
-      <c r="Z67" s="82" t="n"/>
-      <c r="AA67" s="82" t="n"/>
-      <c r="AB67" s="82" t="n"/>
-      <c r="AC67" s="82" t="n"/>
-      <c r="AD67" s="82" t="n"/>
-      <c r="AE67" s="82" t="n"/>
+      <c r="A67" s="95" t="n"/>
+      <c r="W67" s="95" t="n"/>
+      <c r="X67" s="95" t="n"/>
+      <c r="Y67" s="95" t="n"/>
+      <c r="Z67" s="95" t="n"/>
+      <c r="AA67" s="95" t="n"/>
+      <c r="AB67" s="95" t="n"/>
+      <c r="AC67" s="95" t="n"/>
+      <c r="AD67" s="95" t="n"/>
+      <c r="AE67" s="95" t="n"/>
+      <c r="AF67" s="95" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="82" t="n"/>
-      <c r="V68" s="82" t="n"/>
-      <c r="W68" s="82" t="n"/>
-      <c r="X68" s="82" t="n"/>
-      <c r="Y68" s="82" t="n"/>
-      <c r="Z68" s="82" t="n"/>
-      <c r="AA68" s="82" t="n"/>
-      <c r="AB68" s="82" t="n"/>
-      <c r="AC68" s="82" t="n"/>
-      <c r="AD68" s="82" t="n"/>
-      <c r="AE68" s="82" t="n"/>
+      <c r="A68" s="95" t="n"/>
+      <c r="W68" s="95" t="n"/>
+      <c r="X68" s="95" t="n"/>
+      <c r="Y68" s="95" t="n"/>
+      <c r="Z68" s="95" t="n"/>
+      <c r="AA68" s="95" t="n"/>
+      <c r="AB68" s="95" t="n"/>
+      <c r="AC68" s="95" t="n"/>
+      <c r="AD68" s="95" t="n"/>
+      <c r="AE68" s="95" t="n"/>
+      <c r="AF68" s="95" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="82" t="n"/>
-      <c r="V69" s="82" t="n"/>
-      <c r="W69" s="82" t="n"/>
-      <c r="X69" s="82" t="n"/>
-      <c r="Y69" s="82" t="n"/>
-      <c r="Z69" s="82" t="n"/>
-      <c r="AA69" s="82" t="n"/>
-      <c r="AB69" s="82" t="n"/>
-      <c r="AC69" s="82" t="n"/>
-      <c r="AD69" s="82" t="n"/>
-      <c r="AE69" s="82" t="n"/>
+      <c r="A69" s="95" t="n"/>
+      <c r="W69" s="95" t="n"/>
+      <c r="X69" s="95" t="n"/>
+      <c r="Y69" s="95" t="n"/>
+      <c r="Z69" s="95" t="n"/>
+      <c r="AA69" s="95" t="n"/>
+      <c r="AB69" s="95" t="n"/>
+      <c r="AC69" s="95" t="n"/>
+      <c r="AD69" s="95" t="n"/>
+      <c r="AE69" s="95" t="n"/>
+      <c r="AF69" s="95" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="82" t="n"/>
-      <c r="V70" s="82" t="n"/>
-      <c r="W70" s="82" t="n"/>
-      <c r="X70" s="82" t="n"/>
-      <c r="Y70" s="82" t="n"/>
-      <c r="Z70" s="82" t="n"/>
-      <c r="AA70" s="82" t="n"/>
-      <c r="AB70" s="82" t="n"/>
-      <c r="AC70" s="82" t="n"/>
-      <c r="AD70" s="82" t="n"/>
-      <c r="AE70" s="82" t="n"/>
+      <c r="A70" s="95" t="n"/>
+      <c r="W70" s="95" t="n"/>
+      <c r="X70" s="95" t="n"/>
+      <c r="Y70" s="95" t="n"/>
+      <c r="Z70" s="95" t="n"/>
+      <c r="AA70" s="95" t="n"/>
+      <c r="AB70" s="95" t="n"/>
+      <c r="AC70" s="95" t="n"/>
+      <c r="AD70" s="95" t="n"/>
+      <c r="AE70" s="95" t="n"/>
+      <c r="AF70" s="95" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="82" t="n"/>
-      <c r="V71" s="82" t="n"/>
-      <c r="W71" s="82" t="n"/>
-      <c r="X71" s="82" t="n"/>
-      <c r="Y71" s="82" t="n"/>
-      <c r="Z71" s="82" t="n"/>
-      <c r="AA71" s="82" t="n"/>
-      <c r="AB71" s="82" t="n"/>
-      <c r="AC71" s="82" t="n"/>
-      <c r="AD71" s="82" t="n"/>
-      <c r="AE71" s="82" t="n"/>
+      <c r="A71" s="95" t="n"/>
+      <c r="W71" s="95" t="n"/>
+      <c r="X71" s="95" t="n"/>
+      <c r="Y71" s="95" t="n"/>
+      <c r="Z71" s="95" t="n"/>
+      <c r="AA71" s="95" t="n"/>
+      <c r="AB71" s="95" t="n"/>
+      <c r="AC71" s="95" t="n"/>
+      <c r="AD71" s="95" t="n"/>
+      <c r="AE71" s="95" t="n"/>
+      <c r="AF71" s="95" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="L1:L5"/>
     <mergeCell ref="N1:N5"/>
     <mergeCell ref="T1:T5"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="G1:G5"/>
     <mergeCell ref="I1:I5"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="S1:S5"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="U1:U5"/>
-    <mergeCell ref="F1:F5"/>
     <mergeCell ref="H1:H5"/>
     <mergeCell ref="J1:J5"/>
     <mergeCell ref="P1:P5"/>
     <mergeCell ref="R1:R5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="V1:V5"/>
     <mergeCell ref="K1:K5"/>
     <mergeCell ref="M1:M5"/>
     <mergeCell ref="O1:O5"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="Q1:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
